--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -459,25 +459,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thiago Silveira</t>
+          <t>Thais Gouveia</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>220.184.320-10</t>
+          <t>083.194.780-22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>162684392</t>
+          <t>269919239</t>
         </is>
       </c>
     </row>
@@ -487,11 +487,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sérgio Dias</t>
+          <t>Marcelo Costa</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -500,12 +500,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>980.201.820-12</t>
+          <t>158.494.180-40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>232900255</t>
+          <t>475764860</t>
         </is>
       </c>
     </row>
@@ -515,25 +515,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabela Cristina Freitas Cavalcanti</t>
+          <t>Felipe Santana Silva</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>212.540.050-21</t>
+          <t>741.879.940-33</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>883306367</t>
+          <t>464279940</t>
         </is>
       </c>
     </row>
@@ -543,11 +543,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>César Vieira Castro</t>
+          <t>Thiago Rodrigues</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -556,12 +556,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>864.914.230-34</t>
+          <t>520.252.450-17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>468509876</t>
+          <t>354107539</t>
         </is>
       </c>
     </row>
@@ -571,11 +571,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regina Priscila Gomes Carvalho</t>
+          <t>Patrícia Sousa Cavalcanti</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -584,12 +584,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>899.092.720-08</t>
+          <t>812.356.110-51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>478145296</t>
+          <t>611112070</t>
         </is>
       </c>
     </row>
@@ -599,11 +599,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amanda Carvalho</t>
+          <t>Jéssica Gomes</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -612,12 +612,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>036.578.190-88</t>
+          <t>589.054.680-55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>338215768</t>
+          <t>372469664</t>
         </is>
       </c>
     </row>
@@ -627,11 +627,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cecília Fernanda Pereira Nogueira</t>
+          <t>Nathalia Lopes Carvalho</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -640,12 +640,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>561.542.460-56</t>
+          <t>626.919.020-72</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>845178613</t>
+          <t>706175789</t>
         </is>
       </c>
     </row>
@@ -655,11 +655,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fernanda Sousa Costa</t>
+          <t>Mariana Nunes Cardoso Ribeira</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -668,12 +668,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>911.047.180-49</t>
+          <t>755.507.390-03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>321725510</t>
+          <t>253274057</t>
         </is>
       </c>
     </row>
@@ -683,11 +683,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rosana Gouveia Alves</t>
+          <t>Isabela Campos Martins</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -696,12 +696,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>824.655.060-80</t>
+          <t>768.739.560-31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>961044041</t>
+          <t>339516653</t>
         </is>
       </c>
     </row>
@@ -711,25 +711,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nathalia Santos</t>
+          <t>Ricardo Eduardo Nogueira Martins</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>231.734.600-06</t>
+          <t>722.998.700-83</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>631109078</t>
+          <t>108312210</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Valéria Brenda Pereira Alves Cardoso</t>
+          <t>Rafaela Jéssica Rodrigues Ribeira</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -752,12 +752,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>210.749.300-61</t>
+          <t>737.610.450-00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>569841327</t>
+          <t>423130430</t>
         </is>
       </c>
     </row>
@@ -767,11 +767,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Thiago Lopes Santos</t>
+          <t>Armando Nunes Cavalcanti Nascimento</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -780,12 +780,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>021.835.090-23</t>
+          <t>228.282.740-63</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>387462825</t>
+          <t>754953062</t>
         </is>
       </c>
     </row>
@@ -795,11 +795,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Helena Almeida</t>
+          <t>Eduarda Carolina Cardoso Ribeira Ferreira Alves</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -808,12 +808,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>554.629.800-60</t>
+          <t>636.734.800-06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>782418790</t>
+          <t>425875063</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Caio Lima Silveira</t>
+          <t>Larissa Karla Moraes Ferreira</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -831,17 +831,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>386.929.750-60</t>
+          <t>359.832.110-48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>237177025</t>
+          <t>991405316</t>
         </is>
       </c>
     </row>
@@ -851,25 +851,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Carolina Lima Machado</t>
+          <t>Anderson Oliveira Melo</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>873.941.830-84</t>
+          <t>446.360.490-71</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>336989722</t>
+          <t>711298213</t>
         </is>
       </c>
     </row>
@@ -879,25 +879,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Elias Rocha Freitas Lima Ramos</t>
+          <t>Brenda Pessoa Sousa Barros</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>878.690.580-50</t>
+          <t>025.446.770-90</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>394808117</t>
+          <t>550289142</t>
         </is>
       </c>
     </row>
@@ -907,25 +907,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Simone Simone Santos Ribeira</t>
+          <t>Rafael Araújo Alves</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>247.778.420-02</t>
+          <t>323.007.700-83</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>123105591</t>
+          <t>304651762</t>
         </is>
       </c>
     </row>
@@ -935,25 +935,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ricardo Ribeiro Lima</t>
+          <t>Andréa Cavalcanti Gonçalves</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>535.838.110-46</t>
+          <t>146.268.600-10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>918203629</t>
+          <t>003447647</t>
         </is>
       </c>
     </row>
@@ -963,25 +963,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hugo Sousa Campos</t>
+          <t>Roberta Eduarda Dias</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>669.494.710-09</t>
+          <t>895.491.460-81</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>868905185</t>
+          <t>198129581</t>
         </is>
       </c>
     </row>
@@ -991,25 +991,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tânia Karla Correia Sousa Carvalho</t>
+          <t>Lucas Martins</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>954.971.130-79</t>
+          <t>412.884.700-37</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>624308083</t>
+          <t>919780676</t>
         </is>
       </c>
     </row>
@@ -1019,11 +1019,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Valéria Barbosa</t>
+          <t>Natália Fernandes Castro</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1032,12 +1032,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>740.453.070-95</t>
+          <t>154.255.150-14</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>156732929</t>
+          <t>529474866</t>
         </is>
       </c>
     </row>
@@ -1047,11 +1047,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Carlos Campos Dias</t>
+          <t>Thiago Pereira Correia Borges</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1060,12 +1060,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>237.880.900-06</t>
+          <t>032.555.000-01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>722576977</t>
+          <t>216937642</t>
         </is>
       </c>
     </row>
@@ -1075,25 +1075,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Carlos Santos Lima Ferreira</t>
+          <t>Carla Nogueira</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>082.465.580-05</t>
+          <t>655.377.200-27</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>026738619</t>
+          <t>760748165</t>
         </is>
       </c>
     </row>
@@ -1103,25 +1103,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>José Santos Mendes</t>
+          <t>Maria Tatiana Cardoso</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>493.481.450-70</t>
+          <t>206.494.510-58</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>868717589</t>
+          <t>800276775</t>
         </is>
       </c>
     </row>
@@ -1131,11 +1131,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Carlos Ferreira Pinto</t>
+          <t>Sergio Mendes Nunes Rocha</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1144,12 +1144,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>395.395.210-25</t>
+          <t>466.664.930-10</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>778749755</t>
+          <t>568170890</t>
         </is>
       </c>
     </row>
@@ -1159,11 +1159,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Laura Nunes Pinto</t>
+          <t>Mariana Nathalia Martins Castro Santana</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>808.159.700-05</t>
+          <t>190.005.950-96</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>516766639</t>
+          <t>607954319</t>
         </is>
       </c>
     </row>
@@ -1187,11 +1187,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Thais Jessica Ramos</t>
+          <t>Patrícia Isabela Campos</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1200,12 +1200,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>027.188.100-33</t>
+          <t>348.917.650-20</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>202868734</t>
+          <t>164168613</t>
         </is>
       </c>
     </row>
@@ -1215,25 +1215,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cecília Freitas Ramos</t>
+          <t>Sérgio Borges Vieira</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>391.745.000-31</t>
+          <t>783.323.700-00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>710172012</t>
+          <t>513055610</t>
         </is>
       </c>
     </row>
@@ -1243,11 +1243,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sueli Cardoso Freitas</t>
+          <t>Thais Freitas Andrade</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>174.457.010-87</t>
+          <t>199.737.370-08</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>420842320</t>
+          <t>759426719</t>
         </is>
       </c>
     </row>
@@ -1271,11 +1271,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vanessa Luiza Pinto</t>
+          <t>Eduarda Ramos</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>408.692.780-29</t>
+          <t>275.853.590-47</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>152580826</t>
+          <t>213423415</t>
         </is>
       </c>
     </row>
@@ -1299,25 +1299,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lucas Armando Freitas Nunes Gomes Pereira</t>
+          <t>Isabela Fernandes Pereira</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>377.256.760-66</t>
+          <t>504.249.220-88</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>708383283</t>
+          <t>970449715</t>
         </is>
       </c>
     </row>
@@ -1327,11 +1327,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mariana Martins Cardoso</t>
+          <t>Roberta Simone Carvalho Pereira</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1340,12 +1340,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>318.258.570-32</t>
+          <t>698.205.810-79</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>525235662</t>
+          <t>166691313</t>
         </is>
       </c>
     </row>
@@ -1355,11 +1355,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Thais Larissa Barbosa</t>
+          <t>Mariana Rocha Nascimento</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1368,12 +1368,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>587.189.290-60</t>
+          <t>579.956.720-04</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>740971851</t>
+          <t>854601877</t>
         </is>
       </c>
     </row>
@@ -1383,25 +1383,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Diego Moraes Ramos</t>
+          <t>Karla Correia Cardoso</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>131.418.120-39</t>
+          <t>720.180.420-09</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>839600693</t>
+          <t>289169340</t>
         </is>
       </c>
     </row>
@@ -1411,11 +1411,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Rafael Azevedo Almeida</t>
+          <t>Anderson Luciano Mendes</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1424,12 +1424,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>263.350.310-19</t>
+          <t>919.257.520-03</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>347544410</t>
+          <t>117025564</t>
         </is>
       </c>
     </row>
@@ -1439,11 +1439,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Thais Rosana Ramos Carvalho</t>
+          <t>Simone Correia Nunes</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1452,12 +1452,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>641.944.910-33</t>
+          <t>918.753.910-10</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>339093025</t>
+          <t>006107226</t>
         </is>
       </c>
     </row>
@@ -1467,11 +1467,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>José Ribeira Machado Ferreira Mendes</t>
+          <t>Leonardo Ferreira Pereira</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1480,12 +1480,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>875.078.760-80</t>
+          <t>256.345.870-69</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>892056852</t>
+          <t>557740142</t>
         </is>
       </c>
     </row>
@@ -1495,25 +1495,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fernando Ferreira Andrade</t>
+          <t>Nathalia Fernanda Cavalcanti</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>319.551.600-40</t>
+          <t>849.962.410-39</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>733642535</t>
+          <t>607909473</t>
         </is>
       </c>
     </row>
@@ -1523,25 +1523,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Jessica Alves</t>
+          <t>Lucas Correia Carvalho</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>922.428.300-40</t>
+          <t>471.706.560-35</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>078997007</t>
+          <t>014645801</t>
         </is>
       </c>
     </row>
@@ -1551,11 +1551,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Giovanni Borges Lima Freitas</t>
+          <t>Alexandre Rocha Freitas</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1564,12 +1564,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>997.701.440-02</t>
+          <t>342.003.630-20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>169556064</t>
+          <t>809663976</t>
         </is>
       </c>
     </row>
@@ -1579,25 +1579,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ana Mônica Oliveira Moraes</t>
+          <t>Luciano Lima Nascimento</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>512.786.220-47</t>
+          <t>610.288.440-00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>419856813</t>
+          <t>104542056</t>
         </is>
       </c>
     </row>
@@ -1607,25 +1607,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Laura Lima Dias</t>
+          <t>Ricardo Fernandes Ribeiro</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>487.111.730-84</t>
+          <t>084.922.230-30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>120064036</t>
+          <t>292611458</t>
         </is>
       </c>
     </row>
@@ -1635,11 +1635,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Renata Barbosa Nogueira</t>
+          <t>Vanessa Moraes Dias</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>838.263.380-30</t>
+          <t>418.113.420-27</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>214717520</t>
+          <t>394265618</t>
         </is>
       </c>
     </row>
@@ -1663,11 +1663,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Márcio Almeida Nascimento Correia</t>
+          <t>Sergio Correia</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1676,12 +1676,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>140.442.900-08</t>
+          <t>049.947.780-43</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>225016021</t>
+          <t>447620058</t>
         </is>
       </c>
     </row>
@@ -1691,25 +1691,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fernanda Rosana Mendes Cardoso Gouveia</t>
+          <t>Fábio Hugo Santos Azevedo</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>126.444.170-31</t>
+          <t>880.379.320-87</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>626476860</t>
+          <t>623975323</t>
         </is>
       </c>
     </row>
@@ -1719,11 +1719,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Roberto Fernandes</t>
+          <t>Paulo Pereira</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1732,12 +1732,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>605.824.160-00</t>
+          <t>453.223.430-16</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>530797279</t>
+          <t>606643354</t>
         </is>
       </c>
     </row>
@@ -1747,11 +1747,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Paulo Cardoso Silveira</t>
+          <t>Paulo Cavalcanti Costa</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1760,12 +1760,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>233.732.940-29</t>
+          <t>616.809.350-89</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>177874020</t>
+          <t>653495013</t>
         </is>
       </c>
     </row>
@@ -1775,25 +1775,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Joaquim Gomes</t>
+          <t>Priscila Araújo Martins</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>727.917.180-01</t>
+          <t>246.609.320-01</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>721559131</t>
+          <t>218094443</t>
         </is>
       </c>
     </row>
@@ -1803,25 +1803,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mariana Gomes Alves</t>
+          <t>Gustavo Barros Correia Martins</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>042.457.770-44</t>
+          <t>680.127.020-61</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>873911446</t>
+          <t>510109914</t>
         </is>
       </c>
     </row>
@@ -1831,11 +1831,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Geraldo Dias Oliveira</t>
+          <t>Leandro Ricardo Pires</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>575.885.190-61</t>
+          <t>173.562.300-89</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>766730640</t>
+          <t>508296595</t>
         </is>
       </c>
     </row>
@@ -1859,11 +1859,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Fernanda Nascimento Azevedo Fernandes</t>
+          <t>Helena Martins Martins</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1872,12 +1872,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>097.882.380-09</t>
+          <t>355.623.400-97</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>075466599</t>
+          <t>551346258</t>
         </is>
       </c>
     </row>
@@ -1887,25 +1887,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cecília Ribeiro Ferreira</t>
+          <t>Luciano Barbosa Carvalho</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>156.045.960-35</t>
+          <t>015.315.440-37</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>804683260</t>
+          <t>757818461</t>
         </is>
       </c>
     </row>
@@ -1915,25 +1915,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Leticia Cavalcanti Nascimento Gonçalves Melo</t>
+          <t>Fernando Santana Nascimento Almeida Dias</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>149.579.790-22</t>
+          <t>844.601.350-94</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>843522389</t>
+          <t>379298760</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Luis Correia Ribeira</t>
+          <t>Miguel Carvalho Ribeira</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1956,12 +1956,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>604.241.430-54</t>
+          <t>310.770.400-83</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>407125373</t>
+          <t>456488253</t>
         </is>
       </c>
     </row>
@@ -1971,25 +1971,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Laura Lima Pereira</t>
+          <t>Márcio Gomes Gonçalves</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>312.203.170-12</t>
+          <t>201.959.860-40</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>501078409</t>
+          <t>110202535</t>
         </is>
       </c>
     </row>
@@ -1999,11 +1999,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ricardo Lopes</t>
+          <t>Luis Leonardo Pereira Pinto</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2012,12 +2012,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>554.691.340-16</t>
+          <t>156.719.320-09</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>920218620</t>
+          <t>399500625</t>
         </is>
       </c>
     </row>
@@ -2027,25 +2027,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tânia Martins Campos</t>
+          <t>Vitor Pessoa</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>385.872.790-33</t>
+          <t>765.118.580-30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>657773606</t>
+          <t>648317767</t>
         </is>
       </c>
     </row>
@@ -2055,11 +2055,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tatiana Juliana Cavalcanti</t>
+          <t>Rafaela Campos Pereira</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2068,12 +2068,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>915.584.570-38</t>
+          <t>515.388.790-18</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>193401337</t>
+          <t>211353217</t>
         </is>
       </c>
     </row>
@@ -2083,11 +2083,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Laura Lopes Nogueira</t>
+          <t>Brenda Lima</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2096,12 +2096,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>717.678.250-48</t>
+          <t>370.975.290-67</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>462903184</t>
+          <t>156207269</t>
         </is>
       </c>
     </row>
@@ -2111,11 +2111,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Carolina Brenda Nogueira Dias</t>
+          <t>Carolina Santos</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>265.187.300-48</t>
+          <t>822.229.870-40</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>094942790</t>
+          <t>216478979</t>
         </is>
       </c>
     </row>
@@ -2139,11 +2139,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sérgio Rocha Borges</t>
+          <t>Isaac Monteiro</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>163.375.410-30</t>
+          <t>761.425.600-01</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>513226374</t>
+          <t>275752773</t>
         </is>
       </c>
     </row>
@@ -2167,11 +2167,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mônica Oliveira Gomes</t>
+          <t>Elaine Luiza Santana Nunes</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>593.991.740-26</t>
+          <t>177.073.450-37</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>455638127</t>
+          <t>086667450</t>
         </is>
       </c>
     </row>
@@ -2195,25 +2195,25 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Marcelo Mendes</t>
+          <t>Karla Amanda Pereira Alves</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>679.285.140-01</t>
+          <t>795.366.100-43</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>256963698</t>
+          <t>290703790</t>
         </is>
       </c>
     </row>
@@ -2223,25 +2223,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Alberto Diego Mendes Vieira</t>
+          <t>Karla Maria Machado</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>446.780.650-40</t>
+          <t>796.560.050-15</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>686007507</t>
+          <t>347109041</t>
         </is>
       </c>
     </row>
@@ -2251,11 +2251,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Hugo Fernando Andrade Ribeira</t>
+          <t>Thiago Barros Araújo</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2264,12 +2264,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>732.877.780-05</t>
+          <t>172.304.160-27</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>848105218</t>
+          <t>954540642</t>
         </is>
       </c>
     </row>
@@ -2279,11 +2279,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Laura Lima Ribeira</t>
+          <t>Regina Vanessa Pereira</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2292,12 +2292,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>093.774.960-55</t>
+          <t>883.331.990-38</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>574408039</t>
+          <t>573118499</t>
         </is>
       </c>
     </row>
@@ -2307,25 +2307,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Marcelo Isaac Moraes Ramos</t>
+          <t>Vanessa Santana Machado</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>481.346.640-08</t>
+          <t>101.367.170-80</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>133483333</t>
+          <t>893054523</t>
         </is>
       </c>
     </row>
@@ -2335,11 +2335,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Roberto Ferreira Moraes Ferreira Pereira</t>
+          <t>Antônio Silveira Vieira</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2348,12 +2348,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>860.536.040-20</t>
+          <t>707.364.920-89</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>973638386</t>
+          <t>820470684</t>
         </is>
       </c>
     </row>
@@ -2363,25 +2363,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Thiago Machado Moraes</t>
+          <t>Rafaela Araújo Freitas Sousa Campos</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>575.504.920-34</t>
+          <t>489.443.860-72</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>630229014</t>
+          <t>648173313</t>
         </is>
       </c>
     </row>
@@ -2391,25 +2391,25 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fernando Gouveia</t>
+          <t>Renata Almeida Moraes Pires</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>413.230.230-03</t>
+          <t>692.634.780-82</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>653296171</t>
+          <t>087223904</t>
         </is>
       </c>
     </row>
@@ -2419,11 +2419,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Eduarda Laura Lopes Machado</t>
+          <t>Flávia Freitas Rocha</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2432,12 +2432,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>469.377.110-42</t>
+          <t>106.027.140-01</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>601956669</t>
+          <t>196878920</t>
         </is>
       </c>
     </row>
@@ -2447,25 +2447,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mônica Ferreira Nogueira Nogueira</t>
+          <t>Álvaro Rodrigues</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>504.624.820-49</t>
+          <t>680.669.400-41</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>790144943</t>
+          <t>889094273</t>
         </is>
       </c>
     </row>
@@ -2475,11 +2475,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Amanda Nunes Pereira</t>
+          <t>Camila Mariana Gomes Barbosa</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2488,12 +2488,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>279.343.970-38</t>
+          <t>397.605.970-63</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>645624476</t>
+          <t>800446505</t>
         </is>
       </c>
     </row>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sebastião Ribeira Borges</t>
+          <t>Vitor Cardoso</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>489.275.500-13</t>
+          <t>786.325.360-87</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>428114309</t>
+          <t>890795474</t>
         </is>
       </c>
     </row>
@@ -2531,25 +2531,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Thais Pereira Pires Ferreira</t>
+          <t>César Sousa Barros Gomes</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>925.967.620-72</t>
+          <t>903.414.470-48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>990869930</t>
+          <t>893432581</t>
         </is>
       </c>
     </row>
@@ -2559,11 +2559,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tatiana Lima Costa</t>
+          <t>Rosana Almeida Pinto</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2572,12 +2572,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>016.743.450-03</t>
+          <t>654.311.650-11</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>079510534</t>
+          <t>133256321</t>
         </is>
       </c>
     </row>
@@ -2587,11 +2587,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Carolina Lopes Ribeira Gonçalves</t>
+          <t>Andressa Tatiane Lima</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>142.349.680-99</t>
+          <t>530.154.590-66</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>311727510</t>
+          <t>102000879</t>
         </is>
       </c>
     </row>
@@ -2615,25 +2615,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Wagner Santos Ribeiro</t>
+          <t>Priscila Moraes</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>430.749.320-66</t>
+          <t>030.322.900-40</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>830404483</t>
+          <t>134657826</t>
         </is>
       </c>
     </row>
@@ -2643,25 +2643,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Regina Natália Vieira Mendes</t>
+          <t>Raul Gonçalves Ferreira</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>505.641.410-70</t>
+          <t>514.087.960-31</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>433594831</t>
+          <t>751520892</t>
         </is>
       </c>
     </row>
@@ -2671,25 +2671,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Aline Machado Monteiro</t>
+          <t>Felipe Gomes</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>150.705.520-07</t>
+          <t>929.986.570-10</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>687010417</t>
+          <t>366233360</t>
         </is>
       </c>
     </row>
@@ -2699,11 +2699,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Vanessa Lopes Ramos</t>
+          <t>Roberta Ana Costa Correia Santos Alves</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2712,12 +2712,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>179.579.240-00</t>
+          <t>003.925.070-99</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>925388313</t>
+          <t>516721188</t>
         </is>
       </c>
     </row>
@@ -2727,25 +2727,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Luiza Campos Andrade Pereira</t>
+          <t>João Nascimento</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>085.411.860-83</t>
+          <t>135.503.420-55</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>205014283</t>
+          <t>181328066</t>
         </is>
       </c>
     </row>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tânia Ana Carvalho Lopes</t>
+          <t>Samuel Costa Andrade</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>423.500.000-44</t>
+          <t>741.461.290-28</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>400152453</t>
+          <t>730256126</t>
         </is>
       </c>
     </row>
@@ -2783,11 +2783,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Patrícia Nunes Pessoa</t>
+          <t>Sueli Fernanda Dias</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2796,12 +2796,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>007.936.860-32</t>
+          <t>985.965.540-50</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>200058490</t>
+          <t>712749263</t>
         </is>
       </c>
     </row>
@@ -2811,11 +2811,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Antônio Rodrigues Ferreira</t>
+          <t>André Campos Machado</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2824,12 +2824,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>986.986.290-08</t>
+          <t>884.990.440-18</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>826663423</t>
+          <t>956239610</t>
         </is>
       </c>
     </row>
@@ -2839,25 +2839,25 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Márcio Ronaldo Pereira Vieira</t>
+          <t>Isabela Gouveia Ferreira</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>422.461.030-29</t>
+          <t>419.672.070-62</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>196765278</t>
+          <t>155782078</t>
         </is>
       </c>
     </row>
@@ -2867,11 +2867,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Felipe Vieira Freitas</t>
+          <t>Raul Barros Gomes Dias Sousa</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2880,12 +2880,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>496.662.560-29</t>
+          <t>044.971.940-51</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>818498096</t>
+          <t>587817930</t>
         </is>
       </c>
     </row>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Elaine Freitas Nascimento</t>
+          <t>Andréa Mariana Campos Mendes</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2908,12 +2908,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>247.153.900-94</t>
+          <t>121.669.000-62</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>370776458</t>
+          <t>857391494</t>
         </is>
       </c>
     </row>
@@ -2923,11 +2923,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Camila Araújo</t>
+          <t>Maria Ribeiro Vieira</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2936,12 +2936,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>277.994.980-56</t>
+          <t>144.443.640-68</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>543906675</t>
+          <t>044741353</t>
         </is>
       </c>
     </row>
@@ -2951,25 +2951,25 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Luiza Gomes Fernandes</t>
+          <t>Raul Costa</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>368.317.240-19</t>
+          <t>299.298.650-04</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>031198384</t>
+          <t>240332553</t>
         </is>
       </c>
     </row>
@@ -2979,25 +2979,25 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Jessica Azevedo Carvalho</t>
+          <t>Giovanni Márcio Gomes Barbosa</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>900.075.110-19</t>
+          <t>009.026.020-12</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>694834182</t>
+          <t>208239350</t>
         </is>
       </c>
     </row>
@@ -3007,25 +3007,25 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Armando Cavalcanti Cavalcanti</t>
+          <t>Aline Isabela Dias</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>506.190.960-71</t>
+          <t>250.068.000-20</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>813222973</t>
+          <t>267551094</t>
         </is>
       </c>
     </row>
@@ -3035,25 +3035,25 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Renata Ribeiro Almeida</t>
+          <t>Leonardo Machado Correia</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>856.639.630-81</t>
+          <t>995.676.560-02</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>451069828</t>
+          <t>422346770</t>
         </is>
       </c>
     </row>
@@ -3063,11 +3063,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Leticia Correia</t>
+          <t>Isabela Gomes Cavalcanti</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>674.909.220-97</t>
+          <t>679.564.910-53</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>566315311</t>
+          <t>649748891</t>
         </is>
       </c>
     </row>
@@ -3091,11 +3091,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Márcia Oliveira Moraes</t>
+          <t>Rafaela Martins Ribeira Dias Lopes</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3104,12 +3104,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>788.373.630-28</t>
+          <t>838.344.780-91</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>719099277</t>
+          <t>809022283</t>
         </is>
       </c>
     </row>
@@ -3119,25 +3119,25 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>André Lima Costa Machado</t>
+          <t>Ricardo Lucas Rodrigues Correia</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Não-Binário</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>011.629.090-05</t>
+          <t>533.929.530-32</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>589545111</t>
+          <t>235492798</t>
         </is>
       </c>
     </row>
@@ -3147,11 +3147,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tatiane Vieira Rocha</t>
+          <t>Natália Ribeira Azevedo</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3160,12 +3160,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>433.461.050-16</t>
+          <t>266.721.520-67</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>769252658</t>
+          <t>785277582</t>
         </is>
       </c>
     </row>
@@ -3175,25 +3175,25 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Thiago Martins Ferreira</t>
+          <t>Nathalia Larissa Ramos Sousa</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>273.275.750-06</t>
+          <t>409.176.330-83</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>821718652</t>
+          <t>770502692</t>
         </is>
       </c>
     </row>
@@ -3203,11 +3203,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Juliana Gonçalves Santos Pessoa Correia</t>
+          <t>Andressa Dias Silveira</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3216,12 +3216,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>646.389.190-81</t>
+          <t>406.458.180-62</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>555915319</t>
+          <t>380858252</t>
         </is>
       </c>
     </row>
@@ -3231,11 +3231,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Álvaro Almeida Ferreira</t>
+          <t>Leonardo Pinto</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3244,12 +3244,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>439.895.550-06</t>
+          <t>285.085.310-01</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>446217499</t>
+          <t>235287252</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,10 +444,15 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>Etnia</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>CPF</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>CEP</t>
         </is>
@@ -459,11 +464,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thais Gouveia</t>
+          <t>Tatiane Ferreira</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -472,12 +477,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>083.194.780-22</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>269919239</t>
+          <t>546.986.390-50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>891783891</t>
         </is>
       </c>
     </row>
@@ -487,11 +497,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcelo Costa</t>
+          <t>Fábio Vieira Pessoa</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -500,12 +510,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>158.494.180-40</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>475764860</t>
+          <t>923.622.410-50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>253830283</t>
         </is>
       </c>
     </row>
@@ -515,11 +530,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Felipe Santana Silva</t>
+          <t>Roberto Borges Nogueira Cavalcanti</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -528,12 +543,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>741.879.940-33</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>464279940</t>
+          <t>212.269.980-97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>114870724</t>
         </is>
       </c>
     </row>
@@ -543,11 +563,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thiago Rodrigues</t>
+          <t>Felipe Borges Freitas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -556,12 +576,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>520.252.450-17</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>354107539</t>
+          <t>868.665.000-79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>054399389</t>
         </is>
       </c>
     </row>
@@ -571,11 +596,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patrícia Sousa Cavalcanti</t>
+          <t>Priscila Alves</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -584,12 +609,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>812.356.110-51</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>611112070</t>
+          <t>269.068.190-03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>261506950</t>
         </is>
       </c>
     </row>
@@ -599,25 +629,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jéssica Gomes</t>
+          <t>Luis Ramos Castro</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>589.054.680-55</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>372469664</t>
+          <t>860.665.080-32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>866020036</t>
         </is>
       </c>
     </row>
@@ -627,11 +662,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nathalia Lopes Carvalho</t>
+          <t>Juliana Rocha Ribeira</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -640,12 +675,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>626.919.020-72</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>706175789</t>
+          <t>974.639.050-39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>689141582</t>
         </is>
       </c>
     </row>
@@ -655,25 +695,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mariana Nunes Cardoso Ribeira</t>
+          <t>Alexandre Machado Cardoso Fernandes Campos</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>755.507.390-03</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>253274057</t>
+          <t>745.079.220-62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>516403680</t>
         </is>
       </c>
     </row>
@@ -683,11 +728,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Isabela Campos Martins</t>
+          <t>Tatiana Martins Correia Lima</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -696,12 +741,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>768.739.560-31</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>339516653</t>
+          <t>911.691.470-89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>569451448</t>
         </is>
       </c>
     </row>
@@ -711,11 +761,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ricardo Eduardo Nogueira Martins</t>
+          <t>Paulo Moraes</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -724,12 +774,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>722.998.700-83</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>108312210</t>
+          <t>692.721.920-05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>988814908</t>
         </is>
       </c>
     </row>
@@ -739,11 +794,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rafaela Jéssica Rodrigues Ribeira</t>
+          <t>Sueli Barbosa Almeida</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -752,12 +807,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>737.610.450-00</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>423130430</t>
+          <t>948.733.770-99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>616282767</t>
         </is>
       </c>
     </row>
@@ -767,25 +827,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Armando Nunes Cavalcanti Nascimento</t>
+          <t>Roberto Ribeira Carvalho</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Não-Binário</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>228.282.740-63</t>
+          <t>Pardo(a)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>754953062</t>
+          <t>237.876.820-66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>327767612</t>
         </is>
       </c>
     </row>
@@ -795,25 +860,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Eduarda Carolina Cardoso Ribeira Ferreira Alves</t>
+          <t>Fábio Oliveira Moraes</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>636.734.800-06</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>425875063</t>
+          <t>556.947.080-83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>800046436</t>
         </is>
       </c>
     </row>
@@ -823,25 +893,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Larissa Karla Moraes Ferreira</t>
+          <t>César Oliveira Moraes</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>359.832.110-48</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>991405316</t>
+          <t>171.353.500-90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>504748793</t>
         </is>
       </c>
     </row>
@@ -851,11 +926,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Anderson Oliveira Melo</t>
+          <t>Felipe Rafael Rocha Rocha Ribeira</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -864,12 +939,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>446.360.490-71</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>711298213</t>
+          <t>802.307.680-91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>089803051</t>
         </is>
       </c>
     </row>
@@ -879,25 +959,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Brenda Pessoa Sousa Barros</t>
+          <t>Eduardo Andrade</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>025.446.770-90</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>550289142</t>
+          <t>424.183.650-00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>707543322</t>
         </is>
       </c>
     </row>
@@ -907,25 +992,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rafael Araújo Alves</t>
+          <t>Natália Correia</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>323.007.700-83</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>304651762</t>
+          <t>883.757.170-45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>250150360</t>
         </is>
       </c>
     </row>
@@ -935,11 +1025,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Andréa Cavalcanti Gonçalves</t>
+          <t>Sueli Andrade Pessoa</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -948,12 +1038,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>146.268.600-10</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>003447647</t>
+          <t>220.708.810-32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>139939879</t>
         </is>
       </c>
     </row>
@@ -963,25 +1058,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Roberta Eduarda Dias</t>
+          <t>Ronaldo Fernando Nogueira Silveira Sousa Azevedo</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>895.491.460-81</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>198129581</t>
+          <t>208.222.310-85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>288017916</t>
         </is>
       </c>
     </row>
@@ -991,25 +1091,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lucas Martins</t>
+          <t>Tatiana Laura Santana Dias</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>412.884.700-37</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>919780676</t>
+          <t>736.783.190-92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>098077607</t>
         </is>
       </c>
     </row>
@@ -1019,11 +1124,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Natália Fernandes Castro</t>
+          <t>Camila Ribeiro Pessoa Costa</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1032,12 +1137,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>154.255.150-14</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>529474866</t>
+          <t>920.121.140-67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>890228820</t>
         </is>
       </c>
     </row>
@@ -1047,25 +1157,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Thiago Pereira Correia Borges</t>
+          <t>Eduarda Cardoso Lopes</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>032.555.000-01</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>216937642</t>
+          <t>308.535.130-23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>624525667</t>
         </is>
       </c>
     </row>
@@ -1075,25 +1190,30 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Carla Nogueira</t>
+          <t>Alexandre Nogueira Gomes</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>655.377.200-27</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>760748165</t>
+          <t>844.227.640-80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>781114328</t>
         </is>
       </c>
     </row>
@@ -1103,11 +1223,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Maria Tatiana Cardoso</t>
+          <t>Cecília Priscila Alves Andrade</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1116,12 +1236,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>206.494.510-58</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>800276775</t>
+          <t>177.942.250-43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>130004475</t>
         </is>
       </c>
     </row>
@@ -1131,25 +1256,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sergio Mendes Nunes Rocha</t>
+          <t>Jessica Fernanda Oliveira Cavalcanti Ribeira</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>466.664.930-10</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>568170890</t>
+          <t>021.495.240-15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>290937730</t>
         </is>
       </c>
     </row>
@@ -1159,11 +1289,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mariana Nathalia Martins Castro Santana</t>
+          <t>Fernanda Lopes Nascimento</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1172,12 +1302,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>190.005.950-96</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>607954319</t>
+          <t>057.893.190-76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>669405074</t>
         </is>
       </c>
     </row>
@@ -1187,25 +1322,30 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Patrícia Isabela Campos</t>
+          <t>Márcio Daniel Dias Almeida</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>348.917.650-20</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>164168613</t>
+          <t>632.841.220-79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>818162779</t>
         </is>
       </c>
     </row>
@@ -1215,11 +1355,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sérgio Borges Vieira</t>
+          <t>Geraldo Nunes</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1228,12 +1368,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>783.323.700-00</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>513055610</t>
+          <t>851.015.070-24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>382707360</t>
         </is>
       </c>
     </row>
@@ -1243,11 +1388,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Thais Freitas Andrade</t>
+          <t>Cristina Dias Vieira</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1256,12 +1401,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>199.737.370-08</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>759426719</t>
+          <t>109.716.100-53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>750599560</t>
         </is>
       </c>
     </row>
@@ -1271,11 +1421,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Eduarda Ramos</t>
+          <t>Fernanda Alves Nunes</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1284,12 +1434,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>275.853.590-47</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>213423415</t>
+          <t>260.540.560-50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>462129995</t>
         </is>
       </c>
     </row>
@@ -1299,11 +1454,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Isabela Fernandes Pereira</t>
+          <t>Priscila Roberta Silveira</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1312,12 +1467,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>504.249.220-88</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>970449715</t>
+          <t>364.111.300-86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>299271474</t>
         </is>
       </c>
     </row>
@@ -1327,11 +1487,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Roberta Simone Carvalho Pereira</t>
+          <t>Amanda Campos Barbosa</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1340,12 +1500,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>698.205.810-79</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>166691313</t>
+          <t>130.025.090-94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>584382272</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1520,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mariana Rocha Nascimento</t>
+          <t>Maria Rodrigues Cardoso</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1368,12 +1533,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>579.956.720-04</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>854601877</t>
+          <t>866.204.540-54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>303123502</t>
         </is>
       </c>
     </row>
@@ -1383,11 +1553,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Karla Correia Cardoso</t>
+          <t>Cecília Vieira Rocha</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1396,12 +1566,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>720.180.420-09</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>289169340</t>
+          <t>594.527.240-05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>602459684</t>
         </is>
       </c>
     </row>
@@ -1411,11 +1586,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Anderson Luciano Mendes</t>
+          <t>Fernando Barros Lopes</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1424,12 +1599,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>919.257.520-03</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>117025564</t>
+          <t>154.542.490-09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>523069829</t>
         </is>
       </c>
     </row>
@@ -1439,25 +1619,30 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Simone Correia Nunes</t>
+          <t>Carlos Freitas Santos</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>918.753.910-10</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>006107226</t>
+          <t>050.247.650-87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>358803031</t>
         </is>
       </c>
     </row>
@@ -1467,11 +1652,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Leonardo Ferreira Pereira</t>
+          <t>Vicente César Lopes Ramos</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1480,12 +1665,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>256.345.870-69</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>557740142</t>
+          <t>781.994.330-00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>405450592</t>
         </is>
       </c>
     </row>
@@ -1495,11 +1685,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nathalia Fernanda Cavalcanti</t>
+          <t>Jéssica Vieira</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1508,12 +1698,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>849.962.410-39</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>607909473</t>
+          <t>811.819.170-26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>729947011</t>
         </is>
       </c>
     </row>
@@ -1523,11 +1718,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Lucas Correia Carvalho</t>
+          <t>Gustavo Lima Santos Cardoso Nascimento</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1536,12 +1731,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>471.706.560-35</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>014645801</t>
+          <t>503.405.590-20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>157206490</t>
         </is>
       </c>
     </row>
@@ -1551,25 +1751,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Alexandre Rocha Freitas</t>
+          <t>Nathalia Isabela Cavalcanti Oliveira Pessoa</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>342.003.630-20</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>809663976</t>
+          <t>729.419.280-49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>427928073</t>
         </is>
       </c>
     </row>
@@ -1579,25 +1784,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Luciano Lima Nascimento</t>
+          <t>Roberta Camila Cavalcanti</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>610.288.440-00</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>104542056</t>
+          <t>140.331.030-07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>890626734</t>
         </is>
       </c>
     </row>
@@ -1607,25 +1817,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ricardo Fernandes Ribeiro</t>
+          <t>Aline Priscila Ribeira Mendes</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>084.922.230-30</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>292611458</t>
+          <t>366.127.830-44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>584372082</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1850,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Vanessa Moraes Dias</t>
+          <t>Luis Freitas Pessoa</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1643,17 +1858,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>418.113.420-27</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>394265618</t>
+          <t>001.009.560-84</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>242831640</t>
         </is>
       </c>
     </row>
@@ -1663,11 +1883,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sergio Correia</t>
+          <t>Alexandre Sousa</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1676,12 +1896,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>049.947.780-43</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>447620058</t>
+          <t>145.894.690-81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>337976311</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1916,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fábio Hugo Santos Azevedo</t>
+          <t>Larissa Machado Borges</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1699,17 +1924,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>880.379.320-87</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>623975323</t>
+          <t>020.260.980-42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>049672434</t>
         </is>
       </c>
     </row>
@@ -1719,11 +1949,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Paulo Pereira</t>
+          <t>Roberto Lima Costa</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1732,12 +1962,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>453.223.430-16</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>606643354</t>
+          <t>664.892.310-50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>473000674</t>
         </is>
       </c>
     </row>
@@ -1747,11 +1982,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Paulo Cavalcanti Costa</t>
+          <t>Alberto Rocha Martins</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1760,12 +1995,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>616.809.350-89</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>653495013</t>
+          <t>475.818.070-96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>358986789</t>
         </is>
       </c>
     </row>
@@ -1775,25 +2015,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Priscila Araújo Martins</t>
+          <t>Álvaro Ferreira</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>246.609.320-01</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>218094443</t>
+          <t>583.611.920-18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>885801071</t>
         </is>
       </c>
     </row>
@@ -1803,11 +2048,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Gustavo Barros Correia Martins</t>
+          <t>Marcelo Pereira</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1816,12 +2061,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>680.127.020-61</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>510109914</t>
+          <t>137.777.940-82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>787477400</t>
         </is>
       </c>
     </row>
@@ -1831,25 +2081,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Leandro Ricardo Pires</t>
+          <t>Fernanda Lopes Pinto</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>173.562.300-89</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>508296595</t>
+          <t>232.075.820-87</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>640639240</t>
         </is>
       </c>
     </row>
@@ -1859,25 +2114,30 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Helena Martins Martins</t>
+          <t>Carlos Cavalcanti Mendes Lima</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>355.623.400-97</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>551346258</t>
+          <t>017.809.840-06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>329660858</t>
         </is>
       </c>
     </row>
@@ -1887,25 +2147,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Luciano Barbosa Carvalho</t>
+          <t>Valéria Nascimento Santos</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>015.315.440-37</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>757818461</t>
+          <t>126.859.920-49</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>701449179</t>
         </is>
       </c>
     </row>
@@ -1915,25 +2180,30 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fernando Santana Nascimento Almeida Dias</t>
+          <t>Larissa Lima Mendes Ribeira</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>844.601.350-94</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>379298760</t>
+          <t>583.383.050-81</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>342131589</t>
         </is>
       </c>
     </row>
@@ -1943,25 +2213,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Miguel Carvalho Ribeira</t>
+          <t>Jéssica Ramos Almeida</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>310.770.400-83</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>456488253</t>
+          <t>065.032.630-07</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>409113786</t>
         </is>
       </c>
     </row>
@@ -1971,11 +2246,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Márcio Gomes Gonçalves</t>
+          <t>Roberto Leandro Moraes Cardoso</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1984,12 +2259,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>201.959.860-40</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>110202535</t>
+          <t>031.573.180-04</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>966543062</t>
         </is>
       </c>
     </row>
@@ -1999,25 +2279,30 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Luis Leonardo Pereira Pinto</t>
+          <t>Isabela Carvalho Ramos Martins</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>156.719.320-09</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>399500625</t>
+          <t>906.550.850-33</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>612617182</t>
         </is>
       </c>
     </row>
@@ -2027,25 +2312,30 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Vitor Pessoa</t>
+          <t>Eduarda Cavalcanti Silveira</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>765.118.580-30</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>648317767</t>
+          <t>276.863.970-25</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>580977529</t>
         </is>
       </c>
     </row>
@@ -2055,25 +2345,30 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rafaela Campos Pereira</t>
+          <t>João Miguel Gonçalves</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>515.388.790-18</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>211353217</t>
+          <t>205.287.140-31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>736372155</t>
         </is>
       </c>
     </row>
@@ -2083,11 +2378,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Brenda Lima</t>
+          <t>Priscila Gomes Mendes</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2096,12 +2391,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>370.975.290-67</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>156207269</t>
+          <t>207.847.440-17</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>411179195</t>
         </is>
       </c>
     </row>
@@ -2111,11 +2411,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Carolina Santos</t>
+          <t>Sueli Carvalho Azevedo Cavalcanti Mendes</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2124,12 +2424,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>822.229.870-40</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>216478979</t>
+          <t>899.080.520-12</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>133009164</t>
         </is>
       </c>
     </row>
@@ -2139,25 +2444,30 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Isaac Monteiro</t>
+          <t>Rosana Ribeira Freitas</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>761.425.600-01</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>275752773</t>
+          <t>994.833.850-24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>554283051</t>
         </is>
       </c>
     </row>
@@ -2167,11 +2477,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Elaine Luiza Santana Nunes</t>
+          <t>Aline Oliveira Lima</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2180,12 +2490,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>177.073.450-37</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>086667450</t>
+          <t>178.770.210-38</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>453702257</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2510,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Karla Amanda Pereira Alves</t>
+          <t>Thais Nunes Carvalho</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2208,12 +2523,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>795.366.100-43</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>290703790</t>
+          <t>757.240.780-31</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>380772141</t>
         </is>
       </c>
     </row>
@@ -2223,11 +2543,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Karla Maria Machado</t>
+          <t>Karla Carolina Moraes</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2236,12 +2556,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>796.560.050-15</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>347109041</t>
+          <t>157.450.740-00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>433095248</t>
         </is>
       </c>
     </row>
@@ -2251,25 +2576,30 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Thiago Barros Araújo</t>
+          <t>Eduarda Jéssica Lopes</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>172.304.160-27</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>954540642</t>
+          <t>976.252.740-20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>192528350</t>
         </is>
       </c>
     </row>
@@ -2279,25 +2609,30 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Regina Vanessa Pereira</t>
+          <t>Gilberto Santana Alves</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>883.331.990-38</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>573118499</t>
+          <t>452.963.220-29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>439049841</t>
         </is>
       </c>
     </row>
@@ -2307,11 +2642,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Vanessa Santana Machado</t>
+          <t>Aline Nunes Pinto</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2320,12 +2655,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>101.367.170-80</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>893054523</t>
+          <t>784.298.750-50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>699819775</t>
         </is>
       </c>
     </row>
@@ -2335,11 +2675,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Antônio Silveira Vieira</t>
+          <t>Felipe Anderson Mendes Santos Gomes</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2348,12 +2688,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>707.364.920-89</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>820470684</t>
+          <t>701.004.710-30</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>471325360</t>
         </is>
       </c>
     </row>
@@ -2363,11 +2708,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Rafaela Araújo Freitas Sousa Campos</t>
+          <t>Andressa Cátia Gonçalves Vieira Borges</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2376,12 +2721,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>489.443.860-72</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>648173313</t>
+          <t>895.943.530-90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>420925473</t>
         </is>
       </c>
     </row>
@@ -2391,11 +2741,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Renata Almeida Moraes Pires</t>
+          <t>Elaine Isabela Cavalcanti</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2404,12 +2754,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>692.634.780-82</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>087223904</t>
+          <t>858.524.720-77</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>613082680</t>
         </is>
       </c>
     </row>
@@ -2419,11 +2774,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Flávia Freitas Rocha</t>
+          <t>Amanda Fernandes</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2432,12 +2787,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>106.027.140-01</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>196878920</t>
+          <t>152.653.140-24</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>824822389</t>
         </is>
       </c>
     </row>
@@ -2447,25 +2807,30 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Álvaro Rodrigues</t>
+          <t>Laura Gouveia</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>680.669.400-41</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>889094273</t>
+          <t>036.280.360-97</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>186417768</t>
         </is>
       </c>
     </row>
@@ -2475,25 +2840,30 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Camila Mariana Gomes Barbosa</t>
+          <t>Carlos Machado Ribeiro</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>397.605.970-63</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>800446505</t>
+          <t>188.046.790-93</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>012252653</t>
         </is>
       </c>
     </row>
@@ -2503,11 +2873,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Vitor Cardoso</t>
+          <t>Fábio Carlos Azevedo Gomes</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2516,12 +2886,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>786.325.360-87</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>890795474</t>
+          <t>583.278.870-25</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>132121744</t>
         </is>
       </c>
     </row>
@@ -2531,25 +2906,30 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>César Sousa Barros Gomes</t>
+          <t>Márcia Mariana Mendes</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>903.414.470-48</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>893432581</t>
+          <t>173.804.540-48</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>957513839</t>
         </is>
       </c>
     </row>
@@ -2559,25 +2939,30 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Rosana Almeida Pinto</t>
+          <t>Marcelo Barros</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>654.311.650-11</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>133256321</t>
+          <t>716.043.350-50</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>850555119</t>
         </is>
       </c>
     </row>
@@ -2587,25 +2972,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Andressa Tatiane Lima</t>
+          <t>Isaac Ferreira Cardoso</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>530.154.590-66</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>102000879</t>
+          <t>006.039.380-78</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>811973131</t>
         </is>
       </c>
     </row>
@@ -2615,11 +3005,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Priscila Moraes</t>
+          <t>Fernanda Larissa Borges Carvalho</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2628,12 +3018,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>030.322.900-40</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>134657826</t>
+          <t>607.314.240-42</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>110510974</t>
         </is>
       </c>
     </row>
@@ -2643,7 +3038,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Raul Gonçalves Ferreira</t>
+          <t>Regina Cavalcanti Gomes</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2651,17 +3046,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>514.087.960-31</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>751520892</t>
+          <t>924.353.730-07</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>973625218</t>
         </is>
       </c>
     </row>
@@ -2671,25 +3071,30 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Felipe Gomes</t>
+          <t>Tatiane Monteiro Pires Vieira Araújo</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>929.986.570-10</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>366233360</t>
+          <t>352.610.820-05</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>207638331</t>
         </is>
       </c>
     </row>
@@ -2699,25 +3104,30 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Roberta Ana Costa Correia Santos Alves</t>
+          <t>Ricardo Carvalho Nascimento</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>003.925.070-99</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>516721188</t>
+          <t>090.639.920-33</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>361138403</t>
         </is>
       </c>
     </row>
@@ -2727,11 +3137,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>João Nascimento</t>
+          <t>Marcelo Vicente Ferreira Dias Rodrigues</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2740,12 +3150,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>135.503.420-55</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>181328066</t>
+          <t>241.082.160-08</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>804116273</t>
         </is>
       </c>
     </row>
@@ -2755,25 +3170,30 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Samuel Costa Andrade</t>
+          <t>Vanessa Patrícia Pereira Santos</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>741.461.290-28</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>730256126</t>
+          <t>960.663.590-29</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>367687451</t>
         </is>
       </c>
     </row>
@@ -2783,11 +3203,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sueli Fernanda Dias</t>
+          <t>Eduarda Dias Almeida</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2796,12 +3216,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>985.965.540-50</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>712749263</t>
+          <t>854.228.510-72</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>033903708</t>
         </is>
       </c>
     </row>
@@ -2811,11 +3236,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>André Campos Machado</t>
+          <t>Wagner Campos Silva</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2824,12 +3249,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>884.990.440-18</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>956239610</t>
+          <t>628.169.480-56</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>473750890</t>
         </is>
       </c>
     </row>
@@ -2839,25 +3269,30 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Isabela Gouveia Ferreira</t>
+          <t>Leonardo Gomes</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>419.672.070-62</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>155782078</t>
+          <t>743.214.750-74</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>195429050</t>
         </is>
       </c>
     </row>
@@ -2867,11 +3302,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Raul Barros Gomes Dias Sousa</t>
+          <t>Gustavo Cavalcanti Lopes</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2880,12 +3315,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>044.971.940-51</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>587817930</t>
+          <t>923.935.850-10</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>165926559</t>
         </is>
       </c>
     </row>
@@ -2895,11 +3335,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Andréa Mariana Campos Mendes</t>
+          <t>Vanessa Pires Pinto</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2908,12 +3348,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>121.669.000-62</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>857391494</t>
+          <t>404.861.590-43</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>430194903</t>
         </is>
       </c>
     </row>
@@ -2923,25 +3368,30 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Maria Ribeiro Vieira</t>
+          <t>Joaquim Almeida</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>144.443.640-68</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>044741353</t>
+          <t>964.536.290-38</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>368181186</t>
         </is>
       </c>
     </row>
@@ -2951,11 +3401,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Raul Costa</t>
+          <t>Marcelo Dias</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2964,12 +3414,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>299.298.650-04</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>240332553</t>
+          <t>334.794.630-88</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>823345796</t>
         </is>
       </c>
     </row>
@@ -2979,11 +3434,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Giovanni Márcio Gomes Barbosa</t>
+          <t>Paulo Ferreira</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2992,12 +3447,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>009.026.020-12</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>208239350</t>
+          <t>965.599.030-36</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>314244779</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3467,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Aline Isabela Dias</t>
+          <t>Ana Amanda Cardoso Fernandes</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3020,12 +3480,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>250.068.000-20</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>267551094</t>
+          <t>883.231.140-21</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>718139509</t>
         </is>
       </c>
     </row>
@@ -3035,25 +3500,30 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Leonardo Machado Correia</t>
+          <t>Rosana Gouveia Santos Moraes</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>995.676.560-02</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>422346770</t>
+          <t>953.671.250-42</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>625202866</t>
         </is>
       </c>
     </row>
@@ -3063,11 +3533,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Isabela Gomes Cavalcanti</t>
+          <t>Rafaela Alves Carvalho</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3076,12 +3546,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>679.564.910-53</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>649748891</t>
+          <t>870.623.120-96</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>090422115</t>
         </is>
       </c>
     </row>
@@ -3091,11 +3566,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Rafaela Martins Ribeira Dias Lopes</t>
+          <t>Isabela Pessoa Ramos</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3104,12 +3579,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>838.344.780-91</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>809022283</t>
+          <t>105.353.090-07</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>716483340</t>
         </is>
       </c>
     </row>
@@ -3119,25 +3599,30 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ricardo Lucas Rodrigues Correia</t>
+          <t>Alberto Nascimento Andrade</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Não-Binário</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>533.929.530-32</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>235492798</t>
+          <t>077.368.520-06</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>398461322</t>
         </is>
       </c>
     </row>
@@ -3147,25 +3632,30 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Natália Ribeira Azevedo</t>
+          <t>Luciano Alberto Mendes Vieira</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>266.721.520-67</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>785277582</t>
+          <t>489.850.010-27</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>394514546</t>
         </is>
       </c>
     </row>
@@ -3175,25 +3665,30 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Nathalia Larissa Ramos Sousa</t>
+          <t>João Campos</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>409.176.330-83</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>770502692</t>
+          <t>600.279.900-10</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>420651346</t>
         </is>
       </c>
     </row>
@@ -3203,11 +3698,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Andressa Dias Silveira</t>
+          <t>Patrícia Karla Gomes Correia Gonçalves Dias</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3216,12 +3711,17 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>406.458.180-62</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>380858252</t>
+          <t>427.720.200-45</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>027894756</t>
         </is>
       </c>
     </row>
@@ -3231,11 +3731,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Leonardo Pinto</t>
+          <t>Renato Nunes Andrade</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3244,12 +3744,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>285.085.310-01</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>235287252</t>
+          <t>952.156.600-00</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>922158428</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,10 +449,15 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Educação</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>CPF</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>CEP</t>
         </is>
@@ -464,11 +469,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tatiane Ferreira</t>
+          <t>Vanessa Mendes Ramos Gonçalves</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -477,17 +482,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>546.986.390-50</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>891783891</t>
+          <t>840.040.580-31</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>735931870</t>
         </is>
       </c>
     </row>
@@ -497,30 +507,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fábio Vieira Pessoa</t>
+          <t>Vanessa Santos Martins</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>923.622.410-50</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>253830283</t>
+          <t>513.769.110-00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>437371199</t>
         </is>
       </c>
     </row>
@@ -530,30 +545,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Roberto Borges Nogueira Cavalcanti</t>
+          <t>Larissa Araújo Lima</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>212.269.980-97</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>114870724</t>
+          <t>708.211.000-68</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>696826907</t>
         </is>
       </c>
     </row>
@@ -563,30 +583,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Felipe Borges Freitas</t>
+          <t>Ricardo Giovanni Oliveira Freitas Ribeiro</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Não-Binário</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branco(a)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>868.665.000-79</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>054399389</t>
+          <t>858.530.260-70</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>558643753</t>
         </is>
       </c>
     </row>
@@ -596,30 +621,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Priscila Alves</t>
+          <t>André Araújo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>269.068.190-03</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>261506950</t>
+          <t>914.797.510-57</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>032386065</t>
         </is>
       </c>
     </row>
@@ -629,11 +659,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luis Ramos Castro</t>
+          <t>Leonardo Andrade Pereira</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -642,17 +672,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>860.665.080-32</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>866020036</t>
+          <t>085.587.130-06</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>108151471</t>
         </is>
       </c>
     </row>
@@ -662,30 +697,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Juliana Rocha Ribeira</t>
+          <t>Gilberto Ribeira Monteiro</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>974.639.050-39</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>689141582</t>
+          <t>875.771.360-00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>911398703</t>
         </is>
       </c>
     </row>
@@ -695,30 +735,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alexandre Machado Cardoso Fernandes Campos</t>
+          <t>Flávia Sousa Nunes</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>745.079.220-62</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>516403680</t>
+          <t>724.826.840-21</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>327634327</t>
         </is>
       </c>
     </row>
@@ -728,30 +773,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tatiana Martins Correia Lima</t>
+          <t>Roberto Vieira</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>911.691.470-89</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>569451448</t>
+          <t>273.639.850-57</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>316862767</t>
         </is>
       </c>
     </row>
@@ -761,11 +811,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Paulo Moraes</t>
+          <t>Márcio Carvalho Lopes</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -779,12 +829,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>692.721.920-05</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>988814908</t>
+          <t>641.907.670-69</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>160715921</t>
         </is>
       </c>
     </row>
@@ -794,11 +849,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sueli Barbosa Almeida</t>
+          <t>Eduarda Costa</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -812,12 +867,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>948.733.770-99</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>616282767</t>
+          <t>682.985.220-01</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>712941687</t>
         </is>
       </c>
     </row>
@@ -827,30 +887,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Roberto Ribeira Carvalho</t>
+          <t>Lucas Alves</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Não-Binário</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pardo(a)</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>237.876.820-66</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>327767612</t>
+          <t>353.387.880-55</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>295414373</t>
         </is>
       </c>
     </row>
@@ -860,11 +925,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fábio Oliveira Moraes</t>
+          <t>Renato Arnaldo Gouveia</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -873,17 +938,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>556.947.080-83</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>800046436</t>
+          <t>433.580.710-49</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>373552401</t>
         </is>
       </c>
     </row>
@@ -893,30 +963,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>César Oliveira Moraes</t>
+          <t>Valéria Simone Lima Fernandes</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>171.353.500-90</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>504748793</t>
+          <t>409.235.280-83</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>432581667</t>
         </is>
       </c>
     </row>
@@ -926,30 +1001,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Felipe Rafael Rocha Rocha Ribeira</t>
+          <t>Carolina Lorena Cavalcanti Silva</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>802.307.680-91</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>089803051</t>
+          <t>668.982.720-80</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>838752449</t>
         </is>
       </c>
     </row>
@@ -959,11 +1039,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Eduardo Andrade</t>
+          <t>Vicente Mendes Ferreira</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -977,12 +1057,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>424.183.650-00</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>707543322</t>
+          <t>887.569.010-38</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>262550978</t>
         </is>
       </c>
     </row>
@@ -992,30 +1077,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Natália Correia</t>
+          <t>Alberto Nascimento Almeida Cardoso Carvalho</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>883.757.170-45</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>250150360</t>
+          <t>147.738.460-03</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>227737486</t>
         </is>
       </c>
     </row>
@@ -1025,11 +1115,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sueli Andrade Pessoa</t>
+          <t>Sueli Mendes</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1038,17 +1128,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>220.708.810-32</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>139939879</t>
+          <t>161.910.290-04</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>414251792</t>
         </is>
       </c>
     </row>
@@ -1058,11 +1153,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ronaldo Fernando Nogueira Silveira Sousa Azevedo</t>
+          <t>Sergio Márcio Castro Machado Silva</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1076,12 +1171,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>208.222.310-85</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>288017916</t>
+          <t>420.850.560-59</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>266481675</t>
         </is>
       </c>
     </row>
@@ -1091,11 +1191,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tatiana Laura Santana Dias</t>
+          <t>Amanda Dias Sousa</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1104,17 +1204,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>736.783.190-92</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>098077607</t>
+          <t>830.161.640-78</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>582454050</t>
         </is>
       </c>
     </row>
@@ -1124,30 +1229,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Camila Ribeiro Pessoa Costa</t>
+          <t>Pedro Barros Santos Cavalcanti</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>920.121.140-67</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>890228820</t>
+          <t>642.943.080-44</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>751563947</t>
         </is>
       </c>
     </row>
@@ -1157,30 +1267,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Eduarda Cardoso Lopes</t>
+          <t>Marcelo Thiago Mendes Ferreira</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>308.535.130-23</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>624525667</t>
+          <t>486.499.850-76</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>032013529</t>
         </is>
       </c>
     </row>
@@ -1190,11 +1305,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Alexandre Nogueira Gomes</t>
+          <t>Fernando Gonçalves Pereira Pessoa Campos</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1203,17 +1318,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>844.227.640-80</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>781114328</t>
+          <t>454.088.970-28</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>218493741</t>
         </is>
       </c>
     </row>
@@ -1223,11 +1343,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cecília Priscila Alves Andrade</t>
+          <t>Simone Ana Machado Moraes Andrade</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1241,12 +1361,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>177.942.250-43</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>130004475</t>
+          <t>727.022.380-76</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>115398536</t>
         </is>
       </c>
     </row>
@@ -1256,11 +1381,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jessica Fernanda Oliveira Cavalcanti Ribeira</t>
+          <t>Amanda Helena Ferreira Almeida</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1269,17 +1394,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>021.495.240-15</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>290937730</t>
+          <t>160.102.800-87</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>376270147</t>
         </is>
       </c>
     </row>
@@ -1289,30 +1419,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fernanda Lopes Nascimento</t>
+          <t>Wagner Alves Borges Machado</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>057.893.190-76</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>669405074</t>
+          <t>541.772.380-07</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>794495135</t>
         </is>
       </c>
     </row>
@@ -1322,30 +1457,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Márcio Daniel Dias Almeida</t>
+          <t>Helena Lima Andrade</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>632.841.220-79</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>818162779</t>
+          <t>429.240.180-21</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>755807288</t>
         </is>
       </c>
     </row>
@@ -1355,30 +1495,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Geraldo Nunes</t>
+          <t>Lorena Thais Machado Cardoso</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>851.015.070-24</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>382707360</t>
+          <t>789.383.970-84</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>405148551</t>
         </is>
       </c>
     </row>
@@ -1388,30 +1533,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cristina Dias Vieira</t>
+          <t>Guilherme Fernando Lima Dias</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>109.716.100-53</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>750599560</t>
+          <t>990.879.750-66</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>557945670</t>
         </is>
       </c>
     </row>
@@ -1421,11 +1571,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fernanda Alves Nunes</t>
+          <t>Ana Nascimento Costa</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1439,12 +1589,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>260.540.560-50</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>462129995</t>
+          <t>012.152.930-46</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>719115070</t>
         </is>
       </c>
     </row>
@@ -1454,30 +1609,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Priscila Roberta Silveira</t>
+          <t>Gustavo Santos Moraes</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>364.111.300-86</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>299271474</t>
+          <t>323.680.570-64</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>632595583</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1647,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amanda Campos Barbosa</t>
+          <t>Vanessa Valéria Sousa</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1500,17 +1660,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>130.025.090-94</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>584382272</t>
+          <t>653.561.780-77</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>747400143</t>
         </is>
       </c>
     </row>
@@ -1520,11 +1685,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Maria Rodrigues Cardoso</t>
+          <t>Eduarda Santos</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1533,17 +1698,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>866.204.540-54</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>303123502</t>
+          <t>938.610.320-66</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>569265739</t>
         </is>
       </c>
     </row>
@@ -1553,30 +1723,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cecília Vieira Rocha</t>
+          <t>Gilberto Pedro Monteiro Rocha Dias</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>594.527.240-05</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>602459684</t>
+          <t>212.796.350-45</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>909680243</t>
         </is>
       </c>
     </row>
@@ -1586,11 +1761,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fernando Barros Lopes</t>
+          <t>Ricardo Pires Oliveira</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1599,17 +1774,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>154.542.490-09</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>523069829</t>
+          <t>650.324.960-81</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>863703824</t>
         </is>
       </c>
     </row>
@@ -1619,11 +1799,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Carlos Freitas Santos</t>
+          <t>Thiago Monteiro Pires</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1632,17 +1812,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>050.247.650-87</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>358803031</t>
+          <t>327.376.110-59</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>099276398</t>
         </is>
       </c>
     </row>
@@ -1652,11 +1837,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Vicente César Lopes Ramos</t>
+          <t>Daniel Mendes</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1665,17 +1850,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>781.994.330-00</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>405450592</t>
+          <t>967.752.660-06</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>342341833</t>
         </is>
       </c>
     </row>
@@ -1685,11 +1875,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Jéssica Vieira</t>
+          <t>Carolina Silveira Campos Ramos Martins</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1703,12 +1893,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>811.819.170-26</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>729947011</t>
+          <t>067.243.200-54</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>317516768</t>
         </is>
       </c>
     </row>
@@ -1718,30 +1913,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Gustavo Lima Santos Cardoso Nascimento</t>
+          <t>Mariana Campos Cardoso</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>503.405.590-20</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>157206490</t>
+          <t>016.342.870-02</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>799418783</t>
         </is>
       </c>
     </row>
@@ -1751,11 +1951,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nathalia Isabela Cavalcanti Oliveira Pessoa</t>
+          <t>Larissa Moraes Martins</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1769,12 +1969,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>729.419.280-49</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>427928073</t>
+          <t>620.562.560-10</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>879367550</t>
         </is>
       </c>
     </row>
@@ -1784,30 +1989,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Roberta Camila Cavalcanti</t>
+          <t>Caio Ribeira Nascimento</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>140.331.030-07</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>890626734</t>
+          <t>684.395.320-40</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>575316960</t>
         </is>
       </c>
     </row>
@@ -1817,30 +2027,35 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Aline Priscila Ribeira Mendes</t>
+          <t>Fábio Barbosa Gomes Dias</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>366.127.830-44</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>584372082</t>
+          <t>369.538.060-87</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>596135162</t>
         </is>
       </c>
     </row>
@@ -1850,30 +2065,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Luis Freitas Pessoa</t>
+          <t>Thais Helena Martins Rocha</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>001.009.560-84</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>242831640</t>
+          <t>071.778.010-49</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>475394399</t>
         </is>
       </c>
     </row>
@@ -1883,11 +2103,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Alexandre Sousa</t>
+          <t>Rafael Pires Andrade</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1901,12 +2121,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>145.894.690-81</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>337976311</t>
+          <t>374.568.940-27</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>928857577</t>
         </is>
       </c>
     </row>
@@ -1916,11 +2141,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Larissa Machado Borges</t>
+          <t>Lorena Carolina Ribeira Sousa</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1934,12 +2159,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>020.260.980-42</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>049672434</t>
+          <t>806.338.890-91</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>322825093</t>
         </is>
       </c>
     </row>
@@ -1949,11 +2179,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Roberto Lima Costa</t>
+          <t>Leandro Martins</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1962,17 +2192,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>664.892.310-50</t>
+          <t>Fundamental completo</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>473000674</t>
+          <t>351.560.870-27</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>701013114</t>
         </is>
       </c>
     </row>
@@ -1982,11 +2217,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Alberto Rocha Martins</t>
+          <t>Geraldo Pereira Nascimento Lopes Gonçalves</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1995,17 +2230,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>475.818.070-96</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>358986789</t>
+          <t>627.237.350-36</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>636476466</t>
         </is>
       </c>
     </row>
@@ -2015,11 +2255,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Álvaro Ferreira</t>
+          <t>Luis Moraes Costa</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2028,17 +2268,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>583.611.920-18</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>885801071</t>
+          <t>496.741.360-96</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>387923208</t>
         </is>
       </c>
     </row>
@@ -2048,11 +2293,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Marcelo Pereira</t>
+          <t>Lucas Rocha Nogueira</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2061,17 +2306,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>137.777.940-82</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>787477400</t>
+          <t>027.266.940-71</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>233842869</t>
         </is>
       </c>
     </row>
@@ -2081,30 +2331,35 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fernanda Lopes Pinto</t>
+          <t>José Ribeira Machado</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>232.075.820-87</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>640639240</t>
+          <t>371.468.740-87</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>889682013</t>
         </is>
       </c>
     </row>
@@ -2114,30 +2369,35 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Carlos Cavalcanti Mendes Lima</t>
+          <t>Priscila Carvalho Campos</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>017.809.840-06</t>
+          <t>Fundamental completo</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>329660858</t>
+          <t>554.326.730-45</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>906812106</t>
         </is>
       </c>
     </row>
@@ -2147,11 +2407,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Valéria Nascimento Santos</t>
+          <t>Elaine Costa</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2160,17 +2420,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>126.859.920-49</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>701449179</t>
+          <t>280.417.060-88</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>518108814</t>
         </is>
       </c>
     </row>
@@ -2180,11 +2445,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Larissa Lima Mendes Ribeira</t>
+          <t>Bianca Lopes</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2193,17 +2458,22 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>583.383.050-81</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>342131589</t>
+          <t>081.171.530-25</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>537203665</t>
         </is>
       </c>
     </row>
@@ -2213,30 +2483,35 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Jéssica Ramos Almeida</t>
+          <t>Fernando Pedro Pinto Pinto</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>065.032.630-07</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>409113786</t>
+          <t>999.808.590-08</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>645193816</t>
         </is>
       </c>
     </row>
@@ -2246,11 +2521,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Roberto Leandro Moraes Cardoso</t>
+          <t>Hugo José Fernandes Moraes</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2259,17 +2534,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>031.573.180-04</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>966543062</t>
+          <t>133.918.080-47</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>632429832</t>
         </is>
       </c>
     </row>
@@ -2279,30 +2559,35 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Isabela Carvalho Ramos Martins</t>
+          <t>Guilherme Lima</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>906.550.850-33</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>612617182</t>
+          <t>167.147.640-90</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>337153744</t>
         </is>
       </c>
     </row>
@@ -2312,11 +2597,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Eduarda Cavalcanti Silveira</t>
+          <t>Cecília Renata Gonçalves</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2325,17 +2610,22 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>276.863.970-25</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>580977529</t>
+          <t>628.327.630-06</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>350071017</t>
         </is>
       </c>
     </row>
@@ -2345,30 +2635,35 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>João Miguel Gonçalves</t>
+          <t>Ricardo Costa Barbosa Pereira Pinto</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Não-Binário</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Pardo(a)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>205.287.140-31</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>736372155</t>
+          <t>567.929.410-93</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>537084321</t>
         </is>
       </c>
     </row>
@@ -2378,11 +2673,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Priscila Gomes Mendes</t>
+          <t>Jessica Oliveira Lopes Fernandes</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2396,12 +2691,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>207.847.440-17</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>411179195</t>
+          <t>199.027.830-23</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>464241410</t>
         </is>
       </c>
     </row>
@@ -2411,30 +2711,35 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sueli Carvalho Azevedo Cavalcanti Mendes</t>
+          <t>Armando Fernando Martins</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>899.080.520-12</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>133009164</t>
+          <t>103.661.950-85</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>187210039</t>
         </is>
       </c>
     </row>
@@ -2444,30 +2749,35 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Rosana Ribeira Freitas</t>
+          <t>Luis Borges Carvalho</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>994.833.850-24</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>554283051</t>
+          <t>991.304.290-99</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>223128737</t>
         </is>
       </c>
     </row>
@@ -2477,11 +2787,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Aline Oliveira Lima</t>
+          <t>Laura Nunes</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2490,17 +2800,22 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>178.770.210-38</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>453702257</t>
+          <t>424.327.090-20</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>870158300</t>
         </is>
       </c>
     </row>
@@ -2510,11 +2825,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Thais Nunes Carvalho</t>
+          <t>Larissa Machado Campos</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2523,17 +2838,22 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>757.240.780-31</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>380772141</t>
+          <t>564.451.720-91</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>848184863</t>
         </is>
       </c>
     </row>
@@ -2543,30 +2863,35 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Karla Carolina Moraes</t>
+          <t>César Carlos Campos</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>157.450.740-00</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>433095248</t>
+          <t>475.091.670-60</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>785714726</t>
         </is>
       </c>
     </row>
@@ -2576,30 +2901,35 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Eduarda Jéssica Lopes</t>
+          <t>César Correia Machado Machado</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>976.252.740-20</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>192528350</t>
+          <t>161.872.520-39</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>686016292</t>
         </is>
       </c>
     </row>
@@ -2609,30 +2939,35 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Gilberto Santana Alves</t>
+          <t>Luiza Camila Cavalcanti</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>452.963.220-29</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>439049841</t>
+          <t>372.584.640-50</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>076645441</t>
         </is>
       </c>
     </row>
@@ -2642,30 +2977,35 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Aline Nunes Pinto</t>
+          <t>Anderson Mendes</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>784.298.750-50</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>699819775</t>
+          <t>418.447.840-96</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>853346523</t>
         </is>
       </c>
     </row>
@@ -2675,11 +3015,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Felipe Anderson Mendes Santos Gomes</t>
+          <t>Antônio Sousa</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2688,17 +3028,22 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>701.004.710-30</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>471325360</t>
+          <t>816.117.100-90</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>965769279</t>
         </is>
       </c>
     </row>
@@ -2708,11 +3053,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Andressa Cátia Gonçalves Vieira Borges</t>
+          <t>Mônica Andrade Gomes</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2721,17 +3066,22 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>895.943.530-90</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>420925473</t>
+          <t>339.636.020-66</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>822223526</t>
         </is>
       </c>
     </row>
@@ -2741,11 +3091,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Elaine Isabela Cavalcanti</t>
+          <t>Rosana Almeida Silva Ribeiro</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2754,17 +3104,22 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>858.524.720-77</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>613082680</t>
+          <t>854.831.030-84</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>486246551</t>
         </is>
       </c>
     </row>
@@ -2774,30 +3129,35 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Amanda Fernandes</t>
+          <t>Guilherme Alves Cardoso</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>152.653.140-24</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>824822389</t>
+          <t>795.955.240-18</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>679038979</t>
         </is>
       </c>
     </row>
@@ -2807,30 +3167,35 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Laura Gouveia</t>
+          <t>César Alves Ferreira</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>036.280.360-97</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>186417768</t>
+          <t>716.128.490-24</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>712727530</t>
         </is>
       </c>
     </row>
@@ -2840,11 +3205,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Carlos Machado Ribeiro</t>
+          <t>André Gouveia</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2858,12 +3223,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>188.046.790-93</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>012252653</t>
+          <t>296.266.070-33</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>949672051</t>
         </is>
       </c>
     </row>
@@ -2873,30 +3243,35 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Fábio Carlos Azevedo Gomes</t>
+          <t>Sueli Isabela Andrade Nunes</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>583.278.870-25</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>132121744</t>
+          <t>497.691.410-03</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>102046442</t>
         </is>
       </c>
     </row>
@@ -2906,11 +3281,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Márcia Mariana Mendes</t>
+          <t>Natália Lima Andrade</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2924,12 +3299,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>173.804.540-48</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>957513839</t>
+          <t>258.589.160-74</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>196066164</t>
         </is>
       </c>
     </row>
@@ -2939,11 +3319,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Marcelo Barros</t>
+          <t>Carlos Lucas Ribeiro Cardoso</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2952,17 +3332,22 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>716.043.350-50</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>850555119</t>
+          <t>099.600.940-06</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>655405872</t>
         </is>
       </c>
     </row>
@@ -2972,30 +3357,35 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Isaac Ferreira Cardoso</t>
+          <t>Eduarda Sueli Vieira Rodrigues Ribeiro</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>006.039.380-78</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>811973131</t>
+          <t>505.715.850-35</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>856775474</t>
         </is>
       </c>
     </row>
@@ -3005,11 +3395,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Fernanda Larissa Borges Carvalho</t>
+          <t>Karla Cavalcanti Correia</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3018,17 +3408,22 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>607.314.240-42</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>110510974</t>
+          <t>637.288.780-06</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>188900833</t>
         </is>
       </c>
     </row>
@@ -3038,11 +3433,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Regina Cavalcanti Gomes</t>
+          <t>Tatiana Lopes</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3056,12 +3451,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>924.353.730-07</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>973625218</t>
+          <t>876.391.150-78</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>876596742</t>
         </is>
       </c>
     </row>
@@ -3071,11 +3471,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tatiane Monteiro Pires Vieira Araújo</t>
+          <t>Brenda Borges Andrade</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3089,12 +3489,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>352.610.820-05</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>207638331</t>
+          <t>669.195.860-88</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>796968100</t>
         </is>
       </c>
     </row>
@@ -3104,11 +3509,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ricardo Carvalho Nascimento</t>
+          <t>Armando Carlos Lima Martins</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3117,17 +3522,22 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>090.639.920-33</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>361138403</t>
+          <t>489.515.590-09</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>284307808</t>
         </is>
       </c>
     </row>
@@ -3137,30 +3547,35 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Marcelo Vicente Ferreira Dias Rodrigues</t>
+          <t>Fernanda Jessica Martins</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>241.082.160-08</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>804116273</t>
+          <t>782.225.890-75</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>067334167</t>
         </is>
       </c>
     </row>
@@ -3170,30 +3585,35 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Vanessa Patrícia Pereira Santos</t>
+          <t>Gilberto Costa</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>960.663.590-29</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>367687451</t>
+          <t>742.703.780-42</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>677738872</t>
         </is>
       </c>
     </row>
@@ -3203,11 +3623,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Eduarda Dias Almeida</t>
+          <t>Sandra Pereira Almeida</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3221,12 +3641,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>854.228.510-72</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>033903708</t>
+          <t>533.643.360-83</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>141204776</t>
         </is>
       </c>
     </row>
@@ -3236,11 +3661,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Wagner Campos Silva</t>
+          <t>Caio Nunes Pinto</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3249,17 +3674,22 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>628.169.480-56</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>473750890</t>
+          <t>908.001.770-10</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>435034240</t>
         </is>
       </c>
     </row>
@@ -3269,30 +3699,35 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Leonardo Gomes</t>
+          <t>Carolina Eduarda Melo</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>743.214.750-74</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>195429050</t>
+          <t>754.189.460-56</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>611221917</t>
         </is>
       </c>
     </row>
@@ -3302,30 +3737,35 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Gustavo Cavalcanti Lopes</t>
+          <t>Natália Martins Rodrigues Nascimento</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>923.935.850-10</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>165926559</t>
+          <t>244.570.930-09</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>815192692</t>
         </is>
       </c>
     </row>
@@ -3335,11 +3775,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Vanessa Pires Pinto</t>
+          <t>Larissa Gonçalves Mendes</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3348,17 +3788,22 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>404.861.590-43</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>430194903</t>
+          <t>683.994.450-61</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>405592816</t>
         </is>
       </c>
     </row>
@@ -3368,11 +3813,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Joaquim Almeida</t>
+          <t>Roberto Felipe Pires Lima</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3386,12 +3831,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>964.536.290-38</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>368181186</t>
+          <t>065.483.740-61</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>283882841</t>
         </is>
       </c>
     </row>
@@ -3401,11 +3851,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Marcelo Dias</t>
+          <t>Samuel Barros Moraes</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3414,17 +3864,22 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>334.794.630-88</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>823345796</t>
+          <t>625.329.620-54</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>013135165</t>
         </is>
       </c>
     </row>
@@ -3434,11 +3889,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Paulo Ferreira</t>
+          <t>Guilherme Campos Melo</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3447,17 +3902,22 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>965.599.030-36</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>314244779</t>
+          <t>301.809.120-54</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>205164482</t>
         </is>
       </c>
     </row>
@@ -3467,30 +3927,35 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ana Amanda Cardoso Fernandes</t>
+          <t>Gustavo Ferreira Ribeira</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>883.231.140-21</t>
+          <t>Superior incompleto</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>718139509</t>
+          <t>808.907.120-18</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>668103393</t>
         </is>
       </c>
     </row>
@@ -3500,30 +3965,35 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Rosana Gouveia Santos Moraes</t>
+          <t>Geraldo Santana Martins</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>953.671.250-42</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>625202866</t>
+          <t>088.070.930-81</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>524528662</t>
         </is>
       </c>
     </row>
@@ -3533,11 +4003,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Rafaela Alves Carvalho</t>
+          <t>Camila Ribeiro</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3546,17 +4016,22 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>870.623.120-96</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>090422115</t>
+          <t>804.519.430-82</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>574471961</t>
         </is>
       </c>
     </row>
@@ -3566,11 +4041,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Isabela Pessoa Ramos</t>
+          <t>Carla Cardoso</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3579,17 +4054,22 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>105.353.090-07</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>716483340</t>
+          <t>725.581.140-00</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>404465068</t>
         </is>
       </c>
     </row>
@@ -3599,30 +4079,35 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Alberto Nascimento Andrade</t>
+          <t>Cátia Tânia Nascimento Pires</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>077.368.520-06</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>398461322</t>
+          <t>687.837.170-80</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>906178100</t>
         </is>
       </c>
     </row>
@@ -3632,11 +4117,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Luciano Alberto Mendes Vieira</t>
+          <t>Anderson Nascimento Dias</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3645,17 +4130,22 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>489.850.010-27</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>394514546</t>
+          <t>605.712.910-58</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>595416320</t>
         </is>
       </c>
     </row>
@@ -3665,30 +4155,35 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>João Campos</t>
+          <t>Patrícia Gouveia Andrade</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>600.279.900-10</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>420651346</t>
+          <t>338.842.120-01</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>490792353</t>
         </is>
       </c>
     </row>
@@ -3698,30 +4193,35 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Patrícia Karla Gomes Correia Gonçalves Dias</t>
+          <t>Felipe Sousa</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>427.720.200-45</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>027894756</t>
+          <t>279.421.300-88</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>138515614</t>
         </is>
       </c>
     </row>
@@ -3731,11 +4231,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Renato Nunes Andrade</t>
+          <t>Caio Carvalho Santana</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3749,12 +4249,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>952.156.600-00</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>922158428</t>
+          <t>228.514.510-14</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>463736083</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,10 +454,15 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Ocupação</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>CPF</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>CEP</t>
         </is>
@@ -469,35 +474,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vanessa Mendes Ramos Gonçalves</t>
+          <t>Lucas Pedro Almeida Lima</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>840.040.580-31</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>735931870</t>
+          <t>219.140.730-70</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>363456109</t>
         </is>
       </c>
     </row>
@@ -507,35 +517,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vanessa Santos Martins</t>
+          <t>Gilberto Lima Fernandes</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>513.769.110-00</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>437371199</t>
+          <t>980.777.460-80</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>827797425</t>
         </is>
       </c>
     </row>
@@ -545,11 +560,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Larissa Araújo Lima</t>
+          <t>Simone Araújo Pereira</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -558,7 +573,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -568,12 +583,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>708.211.000-68</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>696826907</t>
+          <t>372.009.970-99</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>748586035</t>
         </is>
       </c>
     </row>
@@ -583,35 +603,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ricardo Giovanni Oliveira Freitas Ribeiro</t>
+          <t>Andréa Gouveia</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Não-Binário</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Branco(a)</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>858.530.260-70</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>558643753</t>
+          <t>789.081.650-29</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>425375600</t>
         </is>
       </c>
     </row>
@@ -621,11 +646,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>André Araújo</t>
+          <t>Eduardo Almeida Freitas</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -639,17 +664,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>914.797.510-57</t>
+          <t>Desocupado</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>032386065</t>
+          <t>981.708.410-89</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>083098079</t>
         </is>
       </c>
     </row>
@@ -659,20 +689,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Leonardo Andrade Pereira</t>
+          <t>Sueli Eduarda Moraes Pessoa</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -682,12 +712,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>085.587.130-06</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>108151471</t>
+          <t>303.231.290-64</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>631601001</t>
         </is>
       </c>
     </row>
@@ -697,35 +732,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gilberto Ribeira Monteiro</t>
+          <t>Sueli Gouveia Ferreira</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>875.771.360-00</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>911398703</t>
+          <t>855.268.730-56</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>053211279</t>
         </is>
       </c>
     </row>
@@ -735,11 +775,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Flávia Sousa Nunes</t>
+          <t>Luiza Dias</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -748,22 +788,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>724.826.840-21</t>
+          <t>Autonomo: Com CNPJ</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>327634327</t>
+          <t>753.131.320-08</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>059427547</t>
         </is>
       </c>
     </row>
@@ -773,11 +818,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Roberto Vieira</t>
+          <t>Sebastião Pires</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -786,22 +831,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>273.639.850-57</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>316862767</t>
+          <t>369.761.980-24</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>645465045</t>
         </is>
       </c>
     </row>
@@ -811,20 +861,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Márcio Carvalho Lopes</t>
+          <t>Tatiana Gomes Ferreira Carvalho Nogueira</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -834,12 +884,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>641.907.670-69</t>
+          <t>Desocupado</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>160715921</t>
+          <t>550.827.960-11</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>961523611</t>
         </is>
       </c>
     </row>
@@ -849,11 +904,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Eduarda Costa</t>
+          <t>Isabela Carvalho Alves</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -872,12 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>682.985.220-01</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>712941687</t>
+          <t>819.823.310-54</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>159444394</t>
         </is>
       </c>
     </row>
@@ -887,20 +947,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lucas Alves</t>
+          <t>Jessica Nunes Araújo</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -910,12 +970,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>353.387.880-55</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>295414373</t>
+          <t>138.398.750-56</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>346406513</t>
         </is>
       </c>
     </row>
@@ -925,11 +990,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Renato Arnaldo Gouveia</t>
+          <t>Giovanni Santos Azevedo</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -948,12 +1013,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>433.580.710-49</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>373552401</t>
+          <t>254.357.570-70</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>909844276</t>
         </is>
       </c>
     </row>
@@ -963,35 +1033,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Valéria Simone Lima Fernandes</t>
+          <t>João Almeida Dias</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>409.235.280-83</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>432581667</t>
+          <t>777.928.610-07</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>739875973</t>
         </is>
       </c>
     </row>
@@ -1001,11 +1076,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Carolina Lorena Cavalcanti Silva</t>
+          <t>Patrícia Amanda Sousa Borges</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1014,22 +1089,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>668.982.720-80</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>838752449</t>
+          <t>001.977.760-43</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>505089730</t>
         </is>
       </c>
     </row>
@@ -1039,11 +1119,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Vicente Mendes Ferreira</t>
+          <t>Wagner Alexandre Pires Cardoso</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1052,7 +1132,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1062,12 +1142,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>887.569.010-38</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>262550978</t>
+          <t>308.423.170-23</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>659293068</t>
         </is>
       </c>
     </row>
@@ -1077,20 +1162,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Alberto Nascimento Almeida Cardoso Carvalho</t>
+          <t>Larissa Ferreira Costa</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1100,12 +1185,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>147.738.460-03</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>227737486</t>
+          <t>989.246.480-04</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>112869303</t>
         </is>
       </c>
     </row>
@@ -1115,35 +1205,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sueli Mendes</t>
+          <t>Vitor Correia Almeida</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>161.910.290-04</t>
+          <t>Empregado: Setor ublico (estatutário ou militar)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>414251792</t>
+          <t>571.554.670-22</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>230750077</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1248,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sergio Márcio Castro Machado Silva</t>
+          <t>Pedro Gomes Sousa</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1166,7 +1261,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1176,12 +1271,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>420.850.560-59</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>266481675</t>
+          <t>982.520.280-71</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>618126717</t>
         </is>
       </c>
     </row>
@@ -1191,20 +1291,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amanda Dias Sousa</t>
+          <t>Marcelo Alexandre Gonçalves</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1214,12 +1314,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>830.161.640-78</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>582454050</t>
+          <t>841.944.980-62</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>785117599</t>
         </is>
       </c>
     </row>
@@ -1229,35 +1334,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pedro Barros Santos Cavalcanti</t>
+          <t>Amanda Renata Cardoso Costa Azevedo Carvalho</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Superior incompleto</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>642.943.080-44</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>751563947</t>
+          <t>569.228.550-94</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>265494545</t>
         </is>
       </c>
     </row>
@@ -1267,11 +1377,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Marcelo Thiago Mendes Ferreira</t>
+          <t>Alberto André Barros</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1280,7 +1390,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1290,12 +1400,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>486.499.850-76</t>
+          <t>Autonomo: Com CNPJ</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>032013529</t>
+          <t>593.444.870-65</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>145289180</t>
         </is>
       </c>
     </row>
@@ -1305,11 +1420,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fernando Gonçalves Pereira Pessoa Campos</t>
+          <t>Sebastião Rocha Gonçalves</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1318,7 +1433,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1328,12 +1443,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>454.088.970-28</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>218493741</t>
+          <t>695.360.610-07</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>044826750</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1463,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Simone Ana Machado Moraes Andrade</t>
+          <t>Renata Cavalcanti</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1366,12 +1486,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>727.022.380-76</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>115398536</t>
+          <t>259.980.540-67</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>750881263</t>
         </is>
       </c>
     </row>
@@ -1381,11 +1506,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amanda Helena Ferreira Almeida</t>
+          <t>Mariana Pires</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1394,22 +1519,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>160.102.800-87</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>376270147</t>
+          <t>733.695.060-41</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>161240609</t>
         </is>
       </c>
     </row>
@@ -1419,35 +1549,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wagner Alves Borges Machado</t>
+          <t>Tânia Eduarda Borges Rodrigues</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>541.772.380-07</t>
+          <t>Empregado: Setor ublico (estatutário ou militar)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>794495135</t>
+          <t>054.137.180-04</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>010570380</t>
         </is>
       </c>
     </row>
@@ -1457,11 +1592,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Helena Lima Andrade</t>
+          <t>Larissa Lima</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1475,17 +1610,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>429.240.180-21</t>
+          <t>Empregado: Setor publico (sem CLT)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>755807288</t>
+          <t>841.532.130-98</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>685575204</t>
         </is>
       </c>
     </row>
@@ -1495,20 +1635,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lorena Thais Machado Cardoso</t>
+          <t>Felipe Rocha</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1518,12 +1658,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>789.383.970-84</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>405148551</t>
+          <t>323.391.450-40</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>271021707</t>
         </is>
       </c>
     </row>
@@ -1533,11 +1678,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Guilherme Fernando Lima Dias</t>
+          <t>Raul Dias Freitas</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1546,22 +1691,27 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>990.879.750-66</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>557945670</t>
+          <t>003.874.760-08</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>332660665</t>
         </is>
       </c>
     </row>
@@ -1571,20 +1721,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ana Nascimento Costa</t>
+          <t>Luis Ribeira Nunes</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1594,12 +1744,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>012.152.930-46</t>
+          <t>Desocupado</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>719115070</t>
+          <t>740.802.750-56</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>559309347</t>
         </is>
       </c>
     </row>
@@ -1609,11 +1764,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Gustavo Santos Moraes</t>
+          <t>Lucas Ribeiro</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1632,12 +1787,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>323.680.570-64</t>
+          <t>Empregado: Setor publico (sem CLT)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>632595583</t>
+          <t>511.239.770-54</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>620298058</t>
         </is>
       </c>
     </row>
@@ -1647,20 +1807,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Vanessa Valéria Sousa</t>
+          <t>Samuel Lopes Ribeira</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1670,12 +1830,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>653.561.780-77</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>747400143</t>
+          <t>116.320.810-83</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>269364296</t>
         </is>
       </c>
     </row>
@@ -1685,35 +1850,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Eduarda Santos</t>
+          <t>Diego Vitor Ferreira Gomes</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Superior incompleto</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>938.610.320-66</t>
+          <t>Autonomo: Com CNPJ</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>569265739</t>
+          <t>065.887.450-01</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>878287805</t>
         </is>
       </c>
     </row>
@@ -1723,11 +1893,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Gilberto Pedro Monteiro Rocha Dias</t>
+          <t>João Roberto Gonçalves Vieira Almeida</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1736,7 +1906,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1746,12 +1916,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>212.796.350-45</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>909680243</t>
+          <t>214.637.400-42</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>225878513</t>
         </is>
       </c>
     </row>
@@ -1761,35 +1936,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ricardo Pires Oliveira</t>
+          <t>Tatiana Mariana Costa</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>650.324.960-81</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>863703824</t>
+          <t>132.228.160-26</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>560943836</t>
         </is>
       </c>
     </row>
@@ -1799,11 +1979,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Thiago Monteiro Pires</t>
+          <t>Fernando Renato Andrade Lima Fernandes</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1812,7 +1992,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1822,12 +2002,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>327.376.110-59</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>099276398</t>
+          <t>083.512.850-48</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>459623603</t>
         </is>
       </c>
     </row>
@@ -1837,20 +2022,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Daniel Mendes</t>
+          <t>Sandra Amanda Ferreira Ribeiro Ramos Vieira</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1860,12 +2045,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>967.752.660-06</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>342341833</t>
+          <t>496.315.960-01</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>821214710</t>
         </is>
       </c>
     </row>
@@ -1875,20 +2065,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Carolina Silveira Campos Ramos Martins</t>
+          <t>Sebastião Pires</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1898,12 +2088,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>067.243.200-54</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>317516768</t>
+          <t>034.225.260-72</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>358300336</t>
         </is>
       </c>
     </row>
@@ -1913,20 +2108,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mariana Campos Cardoso</t>
+          <t>Isaac Felipe Freitas</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1936,12 +2131,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>016.342.870-02</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>799418783</t>
+          <t>969.585.990-98</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>122713199</t>
         </is>
       </c>
     </row>
@@ -1951,11 +2151,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Larissa Moraes Martins</t>
+          <t>Regina Nascimento Gomes Lima Monteiro</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1969,17 +2169,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>620.562.560-10</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>879367550</t>
+          <t>018.789.720-49</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>196574091</t>
         </is>
       </c>
     </row>
@@ -1989,20 +2194,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Caio Ribeira Nascimento</t>
+          <t>Larissa Pinto Nogueira</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2012,12 +2217,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>684.395.320-40</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>575316960</t>
+          <t>737.465.400-62</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>249920159</t>
         </is>
       </c>
     </row>
@@ -2027,11 +2237,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fábio Barbosa Gomes Dias</t>
+          <t>Carlos Lopes</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2040,7 +2250,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2050,12 +2260,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>369.538.060-87</t>
+          <t>Desocupado</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>596135162</t>
+          <t>280.356.550-19</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>181460235</t>
         </is>
       </c>
     </row>
@@ -2065,11 +2280,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Thais Helena Martins Rocha</t>
+          <t>Flávia Lima Ramos Castro</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2083,17 +2298,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>071.778.010-49</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>475394399</t>
+          <t>174.294.320-93</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>961347647</t>
         </is>
       </c>
     </row>
@@ -2103,11 +2323,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Rafael Pires Andrade</t>
+          <t>Márcio Ribeiro Campos</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2116,22 +2336,27 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>374.568.940-27</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>928857577</t>
+          <t>930.260.160-98</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>364570390</t>
         </is>
       </c>
     </row>
@@ -2141,35 +2366,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Lorena Carolina Ribeira Sousa</t>
+          <t>Álvaro Silveira Cardoso</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>806.338.890-91</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>322825093</t>
+          <t>767.112.810-47</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>158038782</t>
         </is>
       </c>
     </row>
@@ -2179,35 +2409,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Leandro Martins</t>
+          <t>Vanessa Vieira Lopes Correia</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Fundamental completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>351.560.870-27</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>701013114</t>
+          <t>681.151.560-00</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>576974858</t>
         </is>
       </c>
     </row>
@@ -2217,35 +2452,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Geraldo Pereira Nascimento Lopes Gonçalves</t>
+          <t>Tatiane Borges Pereira</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>627.237.350-36</t>
+          <t>Empregador: Com CNPJ</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>636476466</t>
+          <t>219.600.850-85</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>528797425</t>
         </is>
       </c>
     </row>
@@ -2255,11 +2495,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Luis Moraes Costa</t>
+          <t>Elias Thiago Mendes Pereira Fernandes</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2278,12 +2518,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>496.741.360-96</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>387923208</t>
+          <t>976.090.480-20</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>671201755</t>
         </is>
       </c>
     </row>
@@ -2293,35 +2538,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Lucas Rocha Nogueira</t>
+          <t>Mariana Eduarda Machado</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>027.266.940-71</t>
+          <t>Empregado: Setor publico (sem CLT)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>233842869</t>
+          <t>866.159.360-38</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>969355076</t>
         </is>
       </c>
     </row>
@@ -2331,35 +2581,40 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>José Ribeira Machado</t>
+          <t>Fernanda Nascimento Costa Nascimento</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>371.468.740-87</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>889682013</t>
+          <t>267.952.250-89</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>082371233</t>
         </is>
       </c>
     </row>
@@ -2369,11 +2624,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Priscila Carvalho Campos</t>
+          <t>Lorena Lima Gonçalves</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2382,22 +2637,27 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Fundamental completo</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>554.326.730-45</t>
+          <t>Empregado: Setor publico (sem CLT)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>906812106</t>
+          <t>095.508.180-71</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>924950728</t>
         </is>
       </c>
     </row>
@@ -2407,35 +2667,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Elaine Costa</t>
+          <t>Gustavo Lopes Pires</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>280.417.060-88</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>518108814</t>
+          <t>551.115.070-35</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>258152986</t>
         </is>
       </c>
     </row>
@@ -2445,11 +2710,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Bianca Lopes</t>
+          <t>Sandra Gonçalves Machado Pereira</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2458,7 +2723,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2468,12 +2733,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>081.171.530-25</t>
+          <t>Empregador: Sem CNPJ</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>537203665</t>
+          <t>777.469.990-26</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>899254670</t>
         </is>
       </c>
     </row>
@@ -2483,35 +2753,40 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Fernando Pedro Pinto Pinto</t>
+          <t>Aline Ferreira Mendes</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>999.808.590-08</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>645193816</t>
+          <t>773.992.430-00</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>461486777</t>
         </is>
       </c>
     </row>
@@ -2521,11 +2796,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Hugo José Fernandes Moraes</t>
+          <t>Alberto Alves Freitas Vieira</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2544,12 +2819,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>133.918.080-47</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>632429832</t>
+          <t>067.575.750-94</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>000658490</t>
         </is>
       </c>
     </row>
@@ -2559,11 +2839,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Guilherme Lima</t>
+          <t>Ronaldo Moraes Campos</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2582,12 +2862,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>167.147.640-90</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>337153744</t>
+          <t>654.081.740-18</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>496238745</t>
         </is>
       </c>
     </row>
@@ -2597,11 +2882,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cecília Renata Gonçalves</t>
+          <t>Rosana Sueli Pires Ferreira Borges</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2620,12 +2905,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>628.327.630-06</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>350071017</t>
+          <t>920.050.700-09</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>215465085</t>
         </is>
       </c>
     </row>
@@ -2635,35 +2925,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ricardo Costa Barbosa Pereira Pinto</t>
+          <t>Hugo Almeida Oliveira</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Não-Binário</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pardo(a)</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>567.929.410-93</t>
+          <t>Empregado: Setor publico (CLT)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>537084321</t>
+          <t>971.820.350-81</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>946988119</t>
         </is>
       </c>
     </row>
@@ -2673,11 +2968,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Jessica Oliveira Lopes Fernandes</t>
+          <t>Natália Leticia Fernandes</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2686,22 +2981,27 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>199.027.830-23</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>464241410</t>
+          <t>863.764.180-66</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>139938211</t>
         </is>
       </c>
     </row>
@@ -2711,11 +3011,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Armando Fernando Martins</t>
+          <t>Álvaro Antônio Santos Sousa</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2724,7 +3024,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2734,12 +3034,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>103.661.950-85</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>187210039</t>
+          <t>530.964.920-42</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>612693365</t>
         </is>
       </c>
     </row>
@@ -2749,20 +3054,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Luis Borges Carvalho</t>
+          <t>Camila Tatiane Martins Pereira</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2772,12 +3077,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>991.304.290-99</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>223128737</t>
+          <t>238.768.950-06</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>414806863</t>
         </is>
       </c>
     </row>
@@ -2787,11 +3097,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Laura Nunes</t>
+          <t>Sueli Pinto Barbosa</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2800,22 +3110,27 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>424.327.090-20</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>870158300</t>
+          <t>234.318.700-23</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>673734759</t>
         </is>
       </c>
     </row>
@@ -2825,11 +3140,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Larissa Machado Campos</t>
+          <t>Renata Lima Freitas Melo</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2838,7 +3153,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2848,12 +3163,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>564.451.720-91</t>
+          <t>Empregado: Setor publico (sem CLT)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>848184863</t>
+          <t>357.770.950-20</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>727345668</t>
         </is>
       </c>
     </row>
@@ -2863,20 +3183,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>César Carlos Campos</t>
+          <t>Larissa Priscila Barros</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2886,12 +3206,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>475.091.670-60</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>785714726</t>
+          <t>296.821.070-08</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>210723553</t>
         </is>
       </c>
     </row>
@@ -2901,35 +3226,40 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>César Correia Machado Machado</t>
+          <t>Roberta Oliveira Fernandes</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>161.872.520-39</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>686016292</t>
+          <t>391.365.150-00</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>750656715</t>
         </is>
       </c>
     </row>
@@ -2939,20 +3269,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Luiza Camila Cavalcanti</t>
+          <t>Raul Leonardo Almeida</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2962,12 +3292,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>372.584.640-50</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>076645441</t>
+          <t>372.906.620-08</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>956570082</t>
         </is>
       </c>
     </row>
@@ -2977,20 +3312,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Anderson Mendes</t>
+          <t>Fernanda Cavalcanti Sousa Pereira</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3000,12 +3335,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>418.447.840-96</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>853346523</t>
+          <t>034.270.810-44</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>961101250</t>
         </is>
       </c>
     </row>
@@ -3015,35 +3355,40 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Antônio Sousa</t>
+          <t>Andréa Andrade Ferreira</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Sem instrução</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>816.117.100-90</t>
+          <t>Empregado: Trabalhador doméstico (CLT)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>965769279</t>
+          <t>538.706.530-43</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>693872205</t>
         </is>
       </c>
     </row>
@@ -3053,11 +3398,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Mônica Andrade Gomes</t>
+          <t>Renata Márcia Correia Gonçalves</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3066,22 +3411,27 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>339.636.020-66</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>822223526</t>
+          <t>423.880.560-71</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>594668650</t>
         </is>
       </c>
     </row>
@@ -3091,11 +3441,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Rosana Almeida Silva Ribeiro</t>
+          <t>Cecília Costa</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3104,7 +3454,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3114,12 +3464,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>854.831.030-84</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>486246551</t>
+          <t>564.230.990-06</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>198544990</t>
         </is>
       </c>
     </row>
@@ -3129,20 +3484,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Guilherme Alves Cardoso</t>
+          <t>Rosana Santos Gonçalves</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3152,12 +3507,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>795.955.240-18</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>679038979</t>
+          <t>495.700.930-99</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>542163076</t>
         </is>
       </c>
     </row>
@@ -3167,11 +3527,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>César Alves Ferreira</t>
+          <t>Sérgio Thiago Silva Vieira</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3180,22 +3540,27 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>716.128.490-24</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>712727530</t>
+          <t>355.913.810-81</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>401236395</t>
         </is>
       </c>
     </row>
@@ -3205,11 +3570,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>André Gouveia</t>
+          <t>Sérgio Elias Ribeiro</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3228,12 +3593,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>296.266.070-33</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>949672051</t>
+          <t>789.997.680-40</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>790236676</t>
         </is>
       </c>
     </row>
@@ -3243,20 +3613,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sueli Isabela Andrade Nunes</t>
+          <t>Leonardo Correia</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3266,12 +3636,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>497.691.410-03</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>102046442</t>
+          <t>240.847.960-69</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>238104368</t>
         </is>
       </c>
     </row>
@@ -3281,11 +3656,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Natália Lima Andrade</t>
+          <t>Maria Costa</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3304,12 +3679,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>258.589.160-74</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>196066164</t>
+          <t>792.738.430-93</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>398134491</t>
         </is>
       </c>
     </row>
@@ -3319,35 +3699,40 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Carlos Lucas Ribeiro Cardoso</t>
+          <t>Cecília Machado</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>099.600.940-06</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>655405872</t>
+          <t>154.323.410-00</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>597293592</t>
         </is>
       </c>
     </row>
@@ -3357,35 +3742,40 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Eduarda Sueli Vieira Rodrigues Ribeiro</t>
+          <t>Marcelo César Pinto Melo</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>505.715.850-35</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>856775474</t>
+          <t>036.554.070-68</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>562319038</t>
         </is>
       </c>
     </row>
@@ -3395,11 +3785,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Karla Cavalcanti Correia</t>
+          <t>Karla Pires Carvalho Nogueira</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3418,12 +3808,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>637.288.780-06</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>188900833</t>
+          <t>914.276.090-98</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>328749713</t>
         </is>
       </c>
     </row>
@@ -3433,20 +3828,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tatiana Lopes</t>
+          <t>Gustavo Cavalcanti Dias</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3456,12 +3851,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>876.391.150-78</t>
+          <t>Desocupado</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>876596742</t>
+          <t>193.705.380-62</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>182867885</t>
         </is>
       </c>
     </row>
@@ -3471,35 +3871,40 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Brenda Borges Andrade</t>
+          <t>João Geraldo Martins Gomes</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>669.195.860-88</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>796968100</t>
+          <t>738.739.870-40</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>817545073</t>
         </is>
       </c>
     </row>
@@ -3509,20 +3914,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Armando Carlos Lima Martins</t>
+          <t>Luiza Ramos Ferreira Machado</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3532,12 +3937,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>489.515.590-09</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>284307808</t>
+          <t>432.366.690-04</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>620215030</t>
         </is>
       </c>
     </row>
@@ -3547,11 +3957,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Fernanda Jessica Martins</t>
+          <t>Bianca Melo Pinto</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3565,17 +3975,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>782.225.890-75</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>067334167</t>
+          <t>164.472.010-80</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>268636380</t>
         </is>
       </c>
     </row>
@@ -3585,11 +4000,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Gilberto Costa</t>
+          <t>Ronaldo Sousa</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3598,22 +4013,27 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>742.703.780-42</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>677738872</t>
+          <t>575.245.310-01</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>087099189</t>
         </is>
       </c>
     </row>
@@ -3623,20 +4043,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sandra Pereira Almeida</t>
+          <t>Luis Carvalho Pires Lopes</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3646,12 +4066,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>533.643.360-83</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>141204776</t>
+          <t>453.886.630-00</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>786113251</t>
         </is>
       </c>
     </row>
@@ -3661,11 +4086,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Caio Nunes Pinto</t>
+          <t>Carlos Machado</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3684,12 +4109,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>908.001.770-10</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>435034240</t>
+          <t>504.133.330-00</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>898745911</t>
         </is>
       </c>
     </row>
@@ -3699,35 +4129,40 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Carolina Eduarda Melo</t>
+          <t>Raul Gilberto Lopes Ferreira</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>754.189.460-56</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>611221917</t>
+          <t>364.229.210-04</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>119475179</t>
         </is>
       </c>
     </row>
@@ -3737,20 +4172,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Natália Martins Rodrigues Nascimento</t>
+          <t>Wagner Correia Santana</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3760,12 +4195,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>244.570.930-09</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>815192692</t>
+          <t>923.572.670-03</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>303845337</t>
         </is>
       </c>
     </row>
@@ -3775,20 +4215,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Larissa Gonçalves Mendes</t>
+          <t>Ronaldo Machado Campos</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3798,12 +4238,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>683.994.450-61</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>405592816</t>
+          <t>910.004.190-45</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>488475470</t>
         </is>
       </c>
     </row>
@@ -3813,11 +4258,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Roberto Felipe Pires Lima</t>
+          <t>André Pires</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3831,17 +4276,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>065.483.740-61</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>283882841</t>
+          <t>388.631.340-90</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>533907273</t>
         </is>
       </c>
     </row>
@@ -3851,20 +4301,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Samuel Barros Moraes</t>
+          <t>Amanda Costa Cardoso Gomes</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3874,12 +4324,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>625.329.620-54</t>
+          <t>Empregador: Com CNPJ</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>013135165</t>
+          <t>799.103.490-94</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>458608712</t>
         </is>
       </c>
     </row>
@@ -3889,35 +4344,40 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Guilherme Campos Melo</t>
+          <t>Luiza Gomes Cavalcanti</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>301.809.120-54</t>
+          <t>Empregado: Setor publico (sem CLT)</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>205164482</t>
+          <t>632.394.260-72</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>554504343</t>
         </is>
       </c>
     </row>
@@ -3927,11 +4387,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Gustavo Ferreira Ribeira</t>
+          <t>Alexandre Andrade Campos</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3940,22 +4400,27 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Superior incompleto</t>
+          <t>Fundamental completo</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>808.907.120-18</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>668103393</t>
+          <t>444.304.810-32</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>247693190</t>
         </is>
       </c>
     </row>
@@ -3965,11 +4430,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Geraldo Santana Martins</t>
+          <t>Marcelo Sousa Pereira</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3978,7 +4443,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3988,12 +4453,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>088.070.930-81</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>524528662</t>
+          <t>682.170.010-90</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>690693389</t>
         </is>
       </c>
     </row>
@@ -4003,11 +4473,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Camila Ribeiro</t>
+          <t>Fernanda Monteiro</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -4016,22 +4486,27 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>804.519.430-82</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>574471961</t>
+          <t>951.568.530-30</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>476888109</t>
         </is>
       </c>
     </row>
@@ -4041,35 +4516,40 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Carla Cardoso</t>
+          <t>Anderson Campos Cavalcanti Monteiro</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>725.581.140-00</t>
+          <t>Autonomo: Com CNPJ</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>404465068</t>
+          <t>766.230.730-19</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>887824542</t>
         </is>
       </c>
     </row>
@@ -4079,11 +4559,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cátia Tânia Nascimento Pires</t>
+          <t>Tatiana Castro Gonçalves</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -4092,22 +4572,27 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>687.837.170-80</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>906178100</t>
+          <t>496.946.730-70</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>949376522</t>
         </is>
       </c>
     </row>
@@ -4117,35 +4602,40 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Anderson Nascimento Dias</t>
+          <t>Eduardo Silva</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Não-Binário</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo(a)</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>605.712.910-58</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>595416320</t>
+          <t>341.278.850-33</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>015832106</t>
         </is>
       </c>
     </row>
@@ -4155,20 +4645,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Patrícia Gouveia Andrade</t>
+          <t>Paulo Gouveia</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4178,12 +4668,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>338.842.120-01</t>
+          <t>Empregado: Setor publico (sem CLT)</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>490792353</t>
+          <t>056.107.670-75</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>571447695</t>
         </is>
       </c>
     </row>
@@ -4193,20 +4688,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Felipe Sousa</t>
+          <t>Natália Priscila Sousa Nunes Gomes</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4216,12 +4711,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>279.421.300-88</t>
+          <t>Empregado: Setor ublico (estatutário ou militar)</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>138515614</t>
+          <t>276.390.290-15</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>000652586</t>
         </is>
       </c>
     </row>
@@ -4231,35 +4731,40 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Caio Carvalho Santana</t>
+          <t>Brenda Barros Costa</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Sem instrução</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>228.514.510-14</t>
+          <t>Empregador: Sem CNPJ</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>463736083</t>
+          <t>780.189.420-05</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>669170815</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -474,11 +474,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lucas Pedro Almeida Lima</t>
+          <t>André Álvaro Borges Machado</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -502,12 +502,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>219.140.730-70</t>
+          <t>379.149.550-00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>363456109</t>
+          <t>899076213</t>
         </is>
       </c>
     </row>
@@ -517,20 +517,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gilberto Lima Fernandes</t>
+          <t>Natália Campos Ramos</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -545,12 +545,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>980.777.460-80</t>
+          <t>808.050.820-85</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>827797425</t>
+          <t>496664143</t>
         </is>
       </c>
     </row>
@@ -560,11 +560,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Simone Araújo Pereira</t>
+          <t>Carla Leticia Cardoso Nunes</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -588,12 +588,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>372.009.970-99</t>
+          <t>031.286.110-92</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>748586035</t>
+          <t>415520384</t>
         </is>
       </c>
     </row>
@@ -603,11 +603,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andréa Gouveia</t>
+          <t>Sueli Freitas Melo Pinto</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -626,17 +626,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Desocupado</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>789.081.650-29</t>
+          <t>927.357.190-57</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>425375600</t>
+          <t>962299212</t>
         </is>
       </c>
     </row>
@@ -646,11 +646,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eduardo Almeida Freitas</t>
+          <t>Paulo Silva Barbosa Ferreira</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -659,27 +659,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Desocupado</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>981.708.410-89</t>
+          <t>906.200.340-09</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>083098079</t>
+          <t>037545016</t>
         </is>
       </c>
     </row>
@@ -689,20 +689,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sueli Eduarda Moraes Pessoa</t>
+          <t>Diego Melo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -712,17 +712,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>303.231.290-64</t>
+          <t>096.369.690-43</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>631601001</t>
+          <t>229562224</t>
         </is>
       </c>
     </row>
@@ -732,11 +732,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sueli Gouveia Ferreira</t>
+          <t>Ana Martins</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -745,27 +745,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>855.268.730-56</t>
+          <t>448.575.560-65</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>053211279</t>
+          <t>478379477</t>
         </is>
       </c>
     </row>
@@ -775,40 +775,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luiza Dias</t>
+          <t>Márcio José Freitas Andrade Almeida</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Autonomo: Com CNPJ</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>753.131.320-08</t>
+          <t>602.685.150-00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>059427547</t>
+          <t>955141308</t>
         </is>
       </c>
     </row>
@@ -818,11 +818,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sebastião Pires</t>
+          <t>Joaquim Silva Silveira</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -831,27 +831,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>369.761.980-24</t>
+          <t>282.227.320-05</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>645465045</t>
+          <t>018169698</t>
         </is>
       </c>
     </row>
@@ -861,11 +861,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tatiana Gomes Ferreira Carvalho Nogueira</t>
+          <t>Patrícia Machado Melo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>550.827.960-11</t>
+          <t>834.422.790-97</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>961523611</t>
+          <t>242228489</t>
         </is>
       </c>
     </row>
@@ -904,11 +904,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Isabela Carvalho Alves</t>
+          <t>Cecília Rocha Barros Carvalho</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>819.823.310-54</t>
+          <t>507.683.530-25</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>159444394</t>
+          <t>006508870</t>
         </is>
       </c>
     </row>
@@ -947,20 +947,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jessica Nunes Araújo</t>
+          <t>Pedro Monteiro Cardoso</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -975,12 +975,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>138.398.750-56</t>
+          <t>133.688.450-98</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>346406513</t>
+          <t>840976251</t>
         </is>
       </c>
     </row>
@@ -990,11 +990,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Giovanni Santos Azevedo</t>
+          <t>Raul Santana</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1013,17 +1013,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Autonomo: Com CNPJ</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>254.357.570-70</t>
+          <t>888.100.640-54</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>909844276</t>
+          <t>267373026</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>João Almeida Dias</t>
+          <t>Álvaro Pinto Rocha Moraes</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1061,12 +1061,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>777.928.610-07</t>
+          <t>958.788.230-04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>739875973</t>
+          <t>475580927</t>
         </is>
       </c>
     </row>
@@ -1076,11 +1076,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Patrícia Amanda Sousa Borges</t>
+          <t>Andréa Ferreira</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1089,27 +1089,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>001.977.760-43</t>
+          <t>121.641.130-12</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>505089730</t>
+          <t>739758258</t>
         </is>
       </c>
     </row>
@@ -1119,11 +1119,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Wagner Alexandre Pires Cardoso</t>
+          <t>Armando Luciano Vieira</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>308.423.170-23</t>
+          <t>152.853.120-51</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>659293068</t>
+          <t>673658795</t>
         </is>
       </c>
     </row>
@@ -1162,20 +1162,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Larissa Ferreira Costa</t>
+          <t>Vicente André Nascimento Sousa</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1190,12 +1190,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>989.246.480-04</t>
+          <t>395.386.700-86</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>112869303</t>
+          <t>273786816</t>
         </is>
       </c>
     </row>
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Vitor Correia Almeida</t>
+          <t>Diego Ribeiro</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1218,27 +1218,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Superior incompleto</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Empregado: Setor ublico (estatutário ou militar)</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>571.554.670-22</t>
+          <t>297.917.360-65</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>230750077</t>
+          <t>471561993</t>
         </is>
       </c>
     </row>
@@ -1248,11 +1248,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pedro Gomes Sousa</t>
+          <t>César Gomes</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1271,17 +1271,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>982.520.280-71</t>
+          <t>160.003.510-89</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>618126717</t>
+          <t>970140836</t>
         </is>
       </c>
     </row>
@@ -1291,40 +1291,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Marcelo Alexandre Gonçalves</t>
+          <t>Jessica Freitas Cardoso</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Empregado: Setor ublico (estatutário ou militar)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>841.944.980-62</t>
+          <t>953.236.160-08</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>785117599</t>
+          <t>782780354</t>
         </is>
       </c>
     </row>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amanda Renata Cardoso Costa Azevedo Carvalho</t>
+          <t>Jéssica Gouveia Pinto</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1352,22 +1352,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Superior incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>569.228.550-94</t>
+          <t>498.570.490-36</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>265494545</t>
+          <t>929104625</t>
         </is>
       </c>
     </row>
@@ -1377,20 +1377,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Alberto André Barros</t>
+          <t>Mariana Oliveira Gomes</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1400,17 +1400,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Autonomo: Com CNPJ</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>593.444.870-65</t>
+          <t>768.884.210-74</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>145289180</t>
+          <t>409821590</t>
         </is>
       </c>
     </row>
@@ -1420,11 +1420,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sebastião Rocha Gonçalves</t>
+          <t>Raul Vieira Rodrigues</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1448,12 +1448,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>695.360.610-07</t>
+          <t>911.418.020-07</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>044826750</t>
+          <t>315442995</t>
         </is>
       </c>
     </row>
@@ -1463,11 +1463,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Renata Cavalcanti</t>
+          <t>Fernanda Valéria Oliveira Dias</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1486,17 +1486,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>259.980.540-67</t>
+          <t>669.100.700-03</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>750881263</t>
+          <t>148612271</t>
         </is>
       </c>
     </row>
@@ -1506,11 +1506,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mariana Pires</t>
+          <t>Andréa Cecília Pereira Azevedo</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1519,12 +1519,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>733.695.060-41</t>
+          <t>354.985.460-92</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>161240609</t>
+          <t>130453484</t>
         </is>
       </c>
     </row>
@@ -1549,20 +1549,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tânia Eduarda Borges Rodrigues</t>
+          <t>Alberto César Barros</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1572,17 +1572,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Empregado: Setor ublico (estatutário ou militar)</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>054.137.180-04</t>
+          <t>172.597.890-34</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>010570380</t>
+          <t>434716875</t>
         </is>
       </c>
     </row>
@@ -1592,11 +1592,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Larissa Lima</t>
+          <t>Regina Pereira Gomes</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1620,12 +1620,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>841.532.130-98</t>
+          <t>343.993.120-09</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>685575204</t>
+          <t>277445157</t>
         </is>
       </c>
     </row>
@@ -1635,11 +1635,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Felipe Rocha</t>
+          <t>Wagner Arnaldo Silva</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1658,17 +1658,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>323.391.450-40</t>
+          <t>744.984.570-99</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>271021707</t>
+          <t>060812675</t>
         </is>
       </c>
     </row>
@@ -1678,40 +1678,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Raul Dias Freitas</t>
+          <t>Carla Mendes Andrade</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Desocupado</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>003.874.760-08</t>
+          <t>480.478.580-92</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>332660665</t>
+          <t>436330737</t>
         </is>
       </c>
     </row>
@@ -1721,11 +1721,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Luis Ribeira Nunes</t>
+          <t>Sebastião Rodrigues Andrade</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1739,22 +1739,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Desocupado</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>740.802.750-56</t>
+          <t>027.648.950-03</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>559309347</t>
+          <t>784204161</t>
         </is>
       </c>
     </row>
@@ -1764,20 +1764,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lucas Ribeiro</t>
+          <t>Tatiane Carvalho Martins</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1787,17 +1787,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Empregado: Setor publico (sem CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>511.239.770-54</t>
+          <t>862.961.010-74</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>620298058</t>
+          <t>246861047</t>
         </is>
       </c>
     </row>
@@ -1807,20 +1807,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Samuel Lopes Ribeira</t>
+          <t>Carolina Nogueira</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1830,17 +1830,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>116.320.810-83</t>
+          <t>092.105.500-56</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>269364296</t>
+          <t>418793630</t>
         </is>
       </c>
     </row>
@@ -1850,40 +1850,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Diego Vitor Ferreira Gomes</t>
+          <t>Leticia Santana Oliveira</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Superior incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Autonomo: Com CNPJ</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>065.887.450-01</t>
+          <t>759.354.970-42</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>878287805</t>
+          <t>575477198</t>
         </is>
       </c>
     </row>
@@ -1893,11 +1893,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>João Roberto Gonçalves Vieira Almeida</t>
+          <t>Paulo Cavalcanti</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1911,22 +1911,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Autonomo: Com CNPJ</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>214.637.400-42</t>
+          <t>727.495.540-39</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>225878513</t>
+          <t>717909630</t>
         </is>
       </c>
     </row>
@@ -1936,11 +1936,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tatiana Mariana Costa</t>
+          <t>Laura Nunes</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>132.228.160-26</t>
+          <t>345.609.850-22</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>560943836</t>
+          <t>826002443</t>
         </is>
       </c>
     </row>
@@ -1979,11 +1979,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fernando Renato Andrade Lima Fernandes</t>
+          <t>Ricardo Araújo Machado Pessoa Campos</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2002,17 +2002,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Autonomo: Com CNPJ</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>083.512.850-48</t>
+          <t>275.263.820-54</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>459623603</t>
+          <t>339752098</t>
         </is>
       </c>
     </row>
@@ -2022,11 +2022,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sandra Amanda Ferreira Ribeiro Ramos Vieira</t>
+          <t>Rafaela Ribeira Pires Correia Monteiro</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2050,12 +2050,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>496.315.960-01</t>
+          <t>942.081.950-70</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>821214710</t>
+          <t>186515988</t>
         </is>
       </c>
     </row>
@@ -2065,11 +2065,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sebastião Pires</t>
+          <t>Geraldo Costa Santana</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2088,17 +2088,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Desocupado</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>034.225.260-72</t>
+          <t>361.011.190-92</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>358300336</t>
+          <t>738443551</t>
         </is>
       </c>
     </row>
@@ -2108,20 +2108,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Isaac Felipe Freitas</t>
+          <t>Márcia Cardoso Araújo</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2136,12 +2136,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>969.585.990-98</t>
+          <t>298.857.790-00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>122713199</t>
+          <t>780549306</t>
         </is>
       </c>
     </row>
@@ -2151,11 +2151,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Regina Nascimento Gomes Lima Monteiro</t>
+          <t>Rafaela Helena Silveira Nogueira</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>018.789.720-49</t>
+          <t>931.253.590-07</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>196574091</t>
+          <t>936384540</t>
         </is>
       </c>
     </row>
@@ -2194,11 +2194,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Larissa Pinto Nogueira</t>
+          <t>Bianca Moraes</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2217,17 +2217,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Empregado: Setor publico (sem CLT)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>737.465.400-62</t>
+          <t>938.057.620-03</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>249920159</t>
+          <t>386567500</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Carlos Lopes</t>
+          <t>Thais Cavalcanti Nunes</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2260,17 +2260,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Desocupado</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>280.356.550-19</t>
+          <t>493.754.310-53</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>181460235</t>
+          <t>841904739</t>
         </is>
       </c>
     </row>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Flávia Lima Ramos Castro</t>
+          <t>Valéria Mendes Andrade</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2293,12 +2293,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>174.294.320-93</t>
+          <t>659.370.870-46</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>961347647</t>
+          <t>234110135</t>
         </is>
       </c>
     </row>
@@ -2323,40 +2323,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Márcio Ribeiro Campos</t>
+          <t>Thais Ramos Mendes</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>930.260.160-98</t>
+          <t>961.820.910-53</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>364570390</t>
+          <t>022657408</t>
         </is>
       </c>
     </row>
@@ -2366,11 +2366,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Álvaro Silveira Cardoso</t>
+          <t>Thiago Moraes</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2389,17 +2389,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>767.112.810-47</t>
+          <t>191.478.130-91</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>158038782</t>
+          <t>055467665</t>
         </is>
       </c>
     </row>
@@ -2409,20 +2409,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Vanessa Vieira Lopes Correia</t>
+          <t>Vicente Pereira Dias</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>681.151.560-00</t>
+          <t>515.404.180-14</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>576974858</t>
+          <t>925164330</t>
         </is>
       </c>
     </row>
@@ -2452,40 +2452,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tatiane Borges Pereira</t>
+          <t>Geraldo Silveira Castro</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Empregador: Com CNPJ</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>219.600.850-85</t>
+          <t>926.614.780-00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>528797425</t>
+          <t>070649358</t>
         </is>
       </c>
     </row>
@@ -2495,40 +2495,40 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Elias Thiago Mendes Pereira Fernandes</t>
+          <t>Tatiana Machado Rocha Gouveia Carvalho</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Autonomo: Com CNPJ</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>976.090.480-20</t>
+          <t>577.868.200-00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>671201755</t>
+          <t>051754010</t>
         </is>
       </c>
     </row>
@@ -2538,20 +2538,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mariana Eduarda Machado</t>
+          <t>Arnaldo Fernando Moraes Costa</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2561,17 +2561,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Empregado: Setor publico (sem CLT)</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>866.159.360-38</t>
+          <t>339.009.090-83</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>969355076</t>
+          <t>753025452</t>
         </is>
       </c>
     </row>
@@ -2581,25 +2581,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fernanda Nascimento Costa Nascimento</t>
+          <t>Diego Carvalho Martins Gomes</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2609,12 +2609,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>267.952.250-89</t>
+          <t>198.960.500-15</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>082371233</t>
+          <t>241472106</t>
         </is>
       </c>
     </row>
@@ -2624,40 +2624,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Lorena Lima Gonçalves</t>
+          <t>Marcelo Ribeiro Carvalho</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Empregado: Setor publico (sem CLT)</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>095.508.180-71</t>
+          <t>490.376.480-02</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>924950728</t>
+          <t>374038627</t>
         </is>
       </c>
     </row>
@@ -2667,11 +2667,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Gustavo Lopes Pires</t>
+          <t>Vinícius Luciano Borges</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2680,27 +2680,27 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>551.115.070-35</t>
+          <t>059.443.260-00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>258152986</t>
+          <t>209310123</t>
         </is>
       </c>
     </row>
@@ -2710,20 +2710,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sandra Gonçalves Machado Pereira</t>
+          <t>Sebastião Costa Monteiro Barros Pires</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2733,17 +2733,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Empregador: Sem CNPJ</t>
+          <t>Autonomo: Com CNPJ</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>777.469.990-26</t>
+          <t>627.079.590-73</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>899254670</t>
+          <t>667980440</t>
         </is>
       </c>
     </row>
@@ -2753,20 +2753,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Aline Ferreira Mendes</t>
+          <t>César Correia Lima Ribeiro</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2781,12 +2781,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>773.992.430-00</t>
+          <t>050.299.500-95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>461486777</t>
+          <t>270023541</t>
         </is>
       </c>
     </row>
@@ -2796,20 +2796,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Alberto Alves Freitas Vieira</t>
+          <t>Tânia Lopes Almeida</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>067.575.750-94</t>
+          <t>564.691.900-22</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>000658490</t>
+          <t>520192260</t>
         </is>
       </c>
     </row>
@@ -2839,11 +2839,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ronaldo Moraes Campos</t>
+          <t>Hugo Diego Monteiro</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2852,27 +2852,27 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>654.081.740-18</t>
+          <t>798.712.880-50</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>496238745</t>
+          <t>563867863</t>
         </is>
       </c>
     </row>
@@ -2882,40 +2882,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Rosana Sueli Pires Ferreira Borges</t>
+          <t>Thiago Melo Borges Castro Nunes</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Sem instrução</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Autonomo: Com CNPJ</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>920.050.700-09</t>
+          <t>905.979.660-87</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>215465085</t>
+          <t>660702843</t>
         </is>
       </c>
     </row>
@@ -2925,40 +2925,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Hugo Almeida Oliveira</t>
+          <t>Cecília Melo Lopes</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Empregado: Setor publico (CLT)</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>971.820.350-81</t>
+          <t>624.478.800-14</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>946988119</t>
+          <t>972714817</t>
         </is>
       </c>
     </row>
@@ -2968,20 +2968,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Natália Leticia Fernandes</t>
+          <t>Arnaldo Lima Pereira</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>863.764.180-66</t>
+          <t>252.190.070-25</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>139938211</t>
+          <t>107517713</t>
         </is>
       </c>
     </row>
@@ -3011,11 +3011,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Álvaro Antônio Santos Sousa</t>
+          <t>Caio Nascimento Santana Lopes</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3024,27 +3024,27 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor publico (sem CLT)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>530.964.920-42</t>
+          <t>372.342.850-91</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>612693365</t>
+          <t>256368437</t>
         </is>
       </c>
     </row>
@@ -3054,11 +3054,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Camila Tatiane Martins Pereira</t>
+          <t>Thais Tânia Barros Correia</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3067,27 +3067,27 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>238.768.950-06</t>
+          <t>840.286.140-74</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>414806863</t>
+          <t>571068179</t>
         </is>
       </c>
     </row>
@@ -3097,40 +3097,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sueli Pinto Barbosa</t>
+          <t>Álvaro Ribeira Martins</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>234.318.700-23</t>
+          <t>729.209.880-00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>673734759</t>
+          <t>620056140</t>
         </is>
       </c>
     </row>
@@ -3140,11 +3140,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Renata Lima Freitas Melo</t>
+          <t>Sandra Camila Pessoa Santos</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3163,17 +3163,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Empregado: Setor publico (sem CLT)</t>
+          <t>Desocupado</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>357.770.950-20</t>
+          <t>675.244.200-21</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>727345668</t>
+          <t>684738157</t>
         </is>
       </c>
     </row>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Larissa Priscila Barros</t>
+          <t>Natália Juliana Silveira Campos</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3206,17 +3206,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Empregador: Com CNPJ</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>296.821.070-08</t>
+          <t>561.990.160-25</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>210723553</t>
+          <t>084901075</t>
         </is>
       </c>
     </row>
@@ -3226,11 +3226,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Roberta Oliveira Fernandes</t>
+          <t>Isabela Alves Carvalho</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -3254,12 +3254,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>391.365.150-00</t>
+          <t>393.878.760-04</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>750656715</t>
+          <t>741168738</t>
         </is>
       </c>
     </row>
@@ -3269,11 +3269,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Raul Leonardo Almeida</t>
+          <t>Ronaldo Pereira</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3292,17 +3292,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>372.906.620-08</t>
+          <t>993.282.990-04</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>956570082</t>
+          <t>468401128</t>
         </is>
       </c>
     </row>
@@ -3312,11 +3312,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Fernanda Cavalcanti Sousa Pereira</t>
+          <t>Valéria Silveira</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3340,12 +3340,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>034.270.810-44</t>
+          <t>201.022.320-91</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>961101250</t>
+          <t>977251878</t>
         </is>
       </c>
     </row>
@@ -3355,11 +3355,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Andréa Andrade Ferreira</t>
+          <t>Rosana Pinto</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3368,27 +3368,27 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sem instrução</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Empregado: Trabalhador doméstico (CLT)</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>538.706.530-43</t>
+          <t>519.021.320-09</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>693872205</t>
+          <t>008864460</t>
         </is>
       </c>
     </row>
@@ -3398,11 +3398,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Renata Márcia Correia Gonçalves</t>
+          <t>Rosana Pinto</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3421,17 +3421,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>423.880.560-71</t>
+          <t>390.426.510-59</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>594668650</t>
+          <t>287861524</t>
         </is>
       </c>
     </row>
@@ -3441,20 +3441,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cecília Costa</t>
+          <t>Caio Rodrigues Nunes</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>564.230.990-06</t>
+          <t>948.511.600-46</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>198544990</t>
+          <t>299173910</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Rosana Santos Gonçalves</t>
+          <t>José Silveira Correia</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3492,12 +3492,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>495.700.930-99</t>
+          <t>663.249.130-82</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>542163076</t>
+          <t>135150530</t>
         </is>
       </c>
     </row>
@@ -3527,40 +3527,40 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sérgio Thiago Silva Vieira</t>
+          <t>Renata Cátia Moraes</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>355.913.810-81</t>
+          <t>437.226.710-00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>401236395</t>
+          <t>935793096</t>
         </is>
       </c>
     </row>
@@ -3570,20 +3570,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sérgio Elias Ribeiro</t>
+          <t>Fábio Pessoa Machado</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Não-Binário</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Preto(a)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3593,17 +3593,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>789.997.680-40</t>
+          <t>259.801.070-10</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>790236676</t>
+          <t>515307234</t>
         </is>
       </c>
     </row>
@@ -3613,40 +3613,40 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Leonardo Correia</t>
+          <t>Flávia Gonçalves Borges Santos</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>240.847.960-69</t>
+          <t>498.094.190-74</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>238104368</t>
+          <t>805018782</t>
         </is>
       </c>
     </row>
@@ -3656,11 +3656,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Maria Costa</t>
+          <t>Ana Ribeira Martins</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3669,27 +3669,27 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>792.738.430-93</t>
+          <t>826.645.100-10</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>398134491</t>
+          <t>605025690</t>
         </is>
       </c>
     </row>
@@ -3699,40 +3699,40 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cecília Machado</t>
+          <t>Gilberto Alves Gomes</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Empregado: Setor publico (sem CLT)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>154.323.410-00</t>
+          <t>442.532.230-44</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>597293592</t>
+          <t>069921284</t>
         </is>
       </c>
     </row>
@@ -3742,40 +3742,40 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Marcelo César Pinto Melo</t>
+          <t>Márcia Nascimento Gouveia</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>036.554.070-68</t>
+          <t>375.124.390-91</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>562319038</t>
+          <t>749162000</t>
         </is>
       </c>
     </row>
@@ -3785,20 +3785,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Karla Pires Carvalho Nogueira</t>
+          <t>Rafael Gomes Nogueira Pires Costa</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>914.276.090-98</t>
+          <t>258.686.400-04</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>328749713</t>
+          <t>372217026</t>
         </is>
       </c>
     </row>
@@ -3828,11 +3828,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Gustavo Cavalcanti Dias</t>
+          <t>Sergio Ribeira</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3851,17 +3851,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Desocupado</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>193.705.380-62</t>
+          <t>340.789.770-73</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>182867885</t>
+          <t>073179878</t>
         </is>
       </c>
     </row>
@@ -3871,11 +3871,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>João Geraldo Martins Gomes</t>
+          <t>José Machado Ribeira</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3889,22 +3889,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Médio incompleto</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>738.739.870-40</t>
+          <t>760.172.510-31</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>817545073</t>
+          <t>192836436</t>
         </is>
       </c>
     </row>
@@ -3914,11 +3914,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Luiza Ramos Ferreira Machado</t>
+          <t>Thais Alves Almeida</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3937,17 +3937,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>432.366.690-04</t>
+          <t>087.576.480-00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>620215030</t>
+          <t>842239744</t>
         </is>
       </c>
     </row>
@@ -3957,20 +3957,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Bianca Melo Pinto</t>
+          <t>César Mendes Barros</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3980,17 +3980,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>164.472.010-80</t>
+          <t>037.229.040-05</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>268636380</t>
+          <t>756683391</t>
         </is>
       </c>
     </row>
@@ -4000,11 +4000,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ronaldo Sousa</t>
+          <t>Sebastião Wagner Nascimento Melo</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4028,12 +4028,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>575.245.310-01</t>
+          <t>295.482.700-99</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>087099189</t>
+          <t>789859936</t>
         </is>
       </c>
     </row>
@@ -4043,20 +4043,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Luis Carvalho Pires Lopes</t>
+          <t>Valéria Fernandes Pires</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4066,17 +4066,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>453.886.630-00</t>
+          <t>906.153.570-08</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>786113251</t>
+          <t>005162013</t>
         </is>
       </c>
     </row>
@@ -4086,20 +4086,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Carlos Machado</t>
+          <t>Ana Silva</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4109,17 +4109,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>504.133.330-00</t>
+          <t>072.999.060-58</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>898745911</t>
+          <t>476129806</t>
         </is>
       </c>
     </row>
@@ -4129,25 +4129,25 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Raul Gilberto Lopes Ferreira</t>
+          <t>Tânia Santos</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4157,12 +4157,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>364.229.210-04</t>
+          <t>637.173.350-81</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>119475179</t>
+          <t>767116136</t>
         </is>
       </c>
     </row>
@@ -4172,20 +4172,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Wagner Correia Santana</t>
+          <t>Vanessa Sousa Pereira</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4195,17 +4195,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>923.572.670-03</t>
+          <t>396.195.220-52</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>303845337</t>
+          <t>534701995</t>
         </is>
       </c>
     </row>
@@ -4215,40 +4215,40 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ronaldo Machado Campos</t>
+          <t>Bianca Camila Rodrigues</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor publico (CLT)</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>910.004.190-45</t>
+          <t>136.980.780-58</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>488475470</t>
+          <t>160303227</t>
         </is>
       </c>
     </row>
@@ -4258,20 +4258,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>André Pires</t>
+          <t>Amanda Gomes</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4286,12 +4286,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>388.631.340-90</t>
+          <t>300.948.770-33</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>533907273</t>
+          <t>540787123</t>
         </is>
       </c>
     </row>
@@ -4301,11 +4301,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Amanda Costa Cardoso Gomes</t>
+          <t>Aline Borges Rocha</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -4314,27 +4314,27 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Médio incompleto</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Empregador: Com CNPJ</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>799.103.490-94</t>
+          <t>801.182.140-71</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>458608712</t>
+          <t>090456911</t>
         </is>
       </c>
     </row>
@@ -4344,40 +4344,40 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Luiza Gomes Cavalcanti</t>
+          <t>Sebastião Alves Ferreira</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Não-Binário</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco(a)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Empregado: Setor publico (sem CLT)</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>632.394.260-72</t>
+          <t>797.649.710-32</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>554504343</t>
+          <t>017523553</t>
         </is>
       </c>
     </row>
@@ -4387,11 +4387,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Alexandre Andrade Campos</t>
+          <t>Alberto Silva Mendes</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -4405,22 +4405,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Fundamental completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>444.304.810-32</t>
+          <t>755.249.600-24</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>247693190</t>
+          <t>087592787</t>
         </is>
       </c>
     </row>
@@ -4430,11 +4430,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Marcelo Sousa Pereira</t>
+          <t>Raul Freitas</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4453,17 +4453,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor publico (sem CLT)</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>682.170.010-90</t>
+          <t>304.821.440-25</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>690693389</t>
+          <t>453292712</t>
         </is>
       </c>
     </row>
@@ -4473,20 +4473,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Fernanda Monteiro</t>
+          <t>Ricardo Pessoa Melo</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4496,17 +4496,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>951.568.530-30</t>
+          <t>317.636.000-25</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>476888109</t>
+          <t>493549132</t>
         </is>
       </c>
     </row>
@@ -4516,40 +4516,40 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Anderson Campos Cavalcanti Monteiro</t>
+          <t>Carolina Melo Silva</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Autonomo: Com CNPJ</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>766.230.730-19</t>
+          <t>148.937.220-26</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>887824542</t>
+          <t>342925770</t>
         </is>
       </c>
     </row>
@@ -4559,20 +4559,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Tatiana Castro Gonçalves</t>
+          <t>César Santos Araújo Rodrigues Carvalho</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4587,12 +4587,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>496.946.730-70</t>
+          <t>517.773.020-48</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>949376522</t>
+          <t>024452989</t>
         </is>
       </c>
     </row>
@@ -4602,40 +4602,40 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Eduardo Silva</t>
+          <t>Sandra Brenda Sousa Lima</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Não-Binário</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Pardo(a)</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>341.278.850-33</t>
+          <t>065.489.790-52</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>015832106</t>
+          <t>481861804</t>
         </is>
       </c>
     </row>
@@ -4645,40 +4645,40 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Paulo Gouveia</t>
+          <t>Sandra Priscila Ribeiro Fernandes</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Empregado: Setor publico (sem CLT)</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>056.107.670-75</t>
+          <t>712.441.910-78</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>571447695</t>
+          <t>509216577</t>
         </is>
       </c>
     </row>
@@ -4688,11 +4688,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Natália Priscila Sousa Nunes Gomes</t>
+          <t>Mônica Gomes Dias</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4711,17 +4711,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Empregado: Setor ublico (estatutário ou militar)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>276.390.290-15</t>
+          <t>868.958.560-56</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>000652586</t>
+          <t>214094481</t>
         </is>
       </c>
     </row>
@@ -4731,11 +4731,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Brenda Barros Costa</t>
+          <t>Andressa Simone Gouveia Silveira Castro</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4744,27 +4744,27 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sem instrução</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Empregador: Sem CNPJ</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>780.189.420-05</t>
+          <t>943.536.610-43</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>669170815</t>
+          <t>619217461</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -479,45 +479,45 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Roberta Nogueira Andrade</t>
+          <t>Giovanni Lopes</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tatiane Roberta Ferreira d</t>
+          <t>Mariana Sandra Rocha Ribeiro Lopes</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fundamental completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desocupado</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>340.114.860-51</t>
+          <t>311.492.220-18</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>934150282</t>
+          <t>903704926</t>
         </is>
       </c>
     </row>
@@ -527,25 +527,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Felipe Andrade Gonçalves</t>
+          <t>Karla Regina Cavalcanti Rocha</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tatiane Andrade Machado l</t>
+          <t>Jessica Gouveia Cavalcanti Rocha Regina</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -555,17 +555,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>594.655.630-48</t>
+          <t>709.951.750-39</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>381365725</t>
+          <t>986764036</t>
         </is>
       </c>
     </row>
@@ -575,25 +575,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arnaldo Rocha Campos</t>
+          <t>Tatiane Barros</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Valéria Correia Monteiro o</t>
+          <t>Ana Oliveira Barros</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -603,17 +603,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>670.260.690-71</t>
+          <t>234.431.350-80</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>992919669</t>
+          <t>139580629</t>
         </is>
       </c>
     </row>
@@ -623,11 +623,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caio Fernando Lopes</t>
+          <t>Pedro Gouveia Ribeira</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Regina Aline Rocha Fernandes L</t>
+          <t>Rafaela Carolina Gouveia Ribeira</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>839.343.820-96</t>
+          <t>131.169.770-54</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>968615717</t>
+          <t>503038146</t>
         </is>
       </c>
     </row>
@@ -671,25 +671,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ronaldo Ribeiro Gouveia</t>
+          <t>Natália Moraes Pires</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Andressa Brenda Araújo Nogueira b</t>
+          <t>Leticia Costa Pires Moraes</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>013.678.790-86</t>
+          <t>568.828.350-55</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>739443401</t>
+          <t>445039353</t>
         </is>
       </c>
     </row>
@@ -719,25 +719,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Guilherme Silveira Barbosa</t>
+          <t>Helena Campos</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Isabela Roberta Barros Borges s</t>
+          <t>Brenda Silva Campos</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -747,17 +747,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>017.276.640-00</t>
+          <t>501.891.060-77</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>637705131</t>
+          <t>730157861</t>
         </is>
       </c>
     </row>
@@ -767,11 +767,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thais Isabela Dias</t>
+          <t>Laura Nascimento Santana Alves</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -785,27 +785,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lorena Gouveia Martins a</t>
+          <t>Rosana Alves Nascimento</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>103.908.370-67</t>
+          <t>135.803.630-69</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>851924260</t>
+          <t>266613963</t>
         </is>
       </c>
     </row>
@@ -815,11 +815,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Renata Borges Santos Pereira Alves</t>
+          <t>Elaine Alves Machado</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -833,27 +833,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rafaela Campos o</t>
+          <t>Nathalia Alves Machado</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Médio incompleto</t>
+          <t>Superior incompleto</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Empregado: Setor publico (sem CLT)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>426.510.370-79</t>
+          <t>149.076.830-06</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>071049868</t>
+          <t>366229579</t>
         </is>
       </c>
     </row>
@@ -863,45 +863,45 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maria Silveira Martins</t>
+          <t>Ricardo Gouveia Andrade</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Roberta Cavalcanti Ribeiro</t>
+          <t>Luiza Gouveia</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desocupado</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>746.308.760-30</t>
+          <t>987.971.870-46</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>824395581</t>
+          <t>455452585</t>
         </is>
       </c>
     </row>
@@ -911,25 +911,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marcelo Campos Santos Monteiro</t>
+          <t>Larissa Cecília Cardoso Martins</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bianca Cardoso Gonçalves</t>
+          <t>Carolina Cardoso</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -939,17 +939,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>395.853.950-53</t>
+          <t>407.675.280-50</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>727571197</t>
+          <t>674898996</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,10 +464,15 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Celular</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>CPF</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>CEP</t>
         </is>
@@ -479,11 +484,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Giovanni Lopes</t>
+          <t>Rafael Hugo Silveira Ribeira Ferreira</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -497,7 +502,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mariana Sandra Rocha Ribeiro Lopes</t>
+          <t>Cecília Juliana Ferreira Silveira</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -507,17 +512,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>311.492.220-18</t>
+          <t>(48) 97605-3870</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>903704926</t>
+          <t>887.612.030-09</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>921188030</t>
         </is>
       </c>
     </row>
@@ -527,30 +537,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karla Regina Cavalcanti Rocha</t>
+          <t>Carlos Fernando Ribeiro Nunes</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jessica Gouveia Cavalcanti Rocha Regina</t>
+          <t>Priscila Nunes Fernando</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -560,12 +570,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>709.951.750-39</t>
+          <t>(85) 95121-8739</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>986764036</t>
+          <t>710.090.900-70</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>202427825</t>
         </is>
       </c>
     </row>
@@ -575,11 +590,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tatiane Barros</t>
+          <t>Lorena Dias</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -588,12 +603,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ana Oliveira Barros</t>
+          <t>Flávia Monteiro Dias</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -608,12 +623,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>234.431.350-80</t>
+          <t>(73) 96202-0181</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>139580629</t>
+          <t>228.714.090-56</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>103240838</t>
         </is>
       </c>
     </row>
@@ -623,11 +643,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pedro Gouveia Ribeira</t>
+          <t>Hugo Gustavo Ramos Campos</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -636,12 +656,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rafaela Carolina Gouveia Ribeira</t>
+          <t>Sueli Cecília Pereira Campos Gustavo Ramos</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -651,17 +671,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>131.169.770-54</t>
+          <t>(92) 99506-7640</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>503038146</t>
+          <t>368.774.670-43</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>251849819</t>
         </is>
       </c>
     </row>
@@ -671,45 +696,50 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Natália Moraes Pires</t>
+          <t>Joaquim Nogueira</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Leticia Costa Pires Moraes</t>
+          <t>Carolina Ribeira Nogueira</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio incompleto</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desocupado</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>568.828.350-55</t>
+          <t>(87) 93734-5723</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>445039353</t>
+          <t>991.471.980-52</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>002896322</t>
         </is>
       </c>
     </row>
@@ -719,25 +749,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Helena Campos</t>
+          <t>Armando Dias Melo Alves Monteiro</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Brenda Silva Campos</t>
+          <t>Bianca Dias Melo</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -747,17 +777,22 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>501.891.060-77</t>
+          <t>(46) 99951-2572</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>730157861</t>
+          <t>914.311.810-05</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>969481242</t>
         </is>
       </c>
     </row>
@@ -767,11 +802,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laura Nascimento Santana Alves</t>
+          <t>Luiza Sandra Alves Andrade Azevedo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -785,12 +820,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rosana Alves Nascimento</t>
+          <t>Bianca Vanessa Azevedo Sandra Andrade</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -800,12 +835,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>135.803.630-69</t>
+          <t>(53) 96393-7539</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>266613963</t>
+          <t>029.707.070-39</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>687937125</t>
         </is>
       </c>
     </row>
@@ -815,45 +855,50 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Elaine Alves Machado</t>
+          <t>Bruno Sousa</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Nathalia Alves Machado</t>
+          <t>Luiza Machado Borges Pires Sousa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Superior incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Empregado: Setor publico (sem CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>149.076.830-06</t>
+          <t>(48) 98175-6393</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>366229579</t>
+          <t>187.167.750-58</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>227263497</t>
         </is>
       </c>
     </row>
@@ -863,25 +908,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ricardo Gouveia Andrade</t>
+          <t>Juliana Cavalcanti Pinto Martins</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Luiza Gouveia</t>
+          <t>Nathalia Elaine Pereira Pinto Cavalcanti Martins</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -896,12 +941,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>987.971.870-46</t>
+          <t>(44) 98296-7618</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>455452585</t>
+          <t>319.678.350-20</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>179029847</t>
         </is>
       </c>
     </row>
@@ -911,11 +961,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Larissa Cecília Cardoso Martins</t>
+          <t>Natália Silveira Cavalcanti</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -924,32 +974,37 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Carolina Cardoso</t>
+          <t>Laura Cavalcanti Silveira</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>407.675.280-50</t>
+          <t>(85) 90785-2366</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>674898996</t>
+          <t>471.400.420-47</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>267793507</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,15 +464,20 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Celular</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>CPF</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>CEP</t>
         </is>
@@ -484,7 +489,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rafael Hugo Silveira Ribeira Ferreira</t>
+          <t>Gustavo Ferreira Santana</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -497,12 +502,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cecília Juliana Ferreira Silveira</t>
+          <t>Sueli Borges Santana Ferreira</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -517,17 +522,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>(48) 97605-3870</t>
+          <t>53 3566-8652</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>887.612.030-09</t>
+          <t>53 91088-6697</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>921188030</t>
+          <t>934.116.140-13</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>292552690</t>
         </is>
       </c>
     </row>
@@ -537,11 +547,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carlos Fernando Ribeiro Nunes</t>
+          <t>Roberto Gustavo Santos Ribeira</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -555,32 +565,37 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Priscila Nunes Fernando</t>
+          <t>Carolina Simone Santos Gustavo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>(85) 95121-8739</t>
+          <t>97 0757-5038</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>710.090.900-70</t>
+          <t>97 91758-7448</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>202427825</t>
+          <t>952.836.470-56</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>645356793</t>
         </is>
       </c>
     </row>
@@ -590,11 +605,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lorena Dias</t>
+          <t>Larissa Tatiana Martins</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -603,12 +618,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Flávia Monteiro Dias</t>
+          <t>Flávia Andressa Martins Tatiana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -618,22 +633,27 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>(73) 96202-0181</t>
+          <t>88 2239-1378</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>228.714.090-56</t>
+          <t>88 93770-1262</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>103240838</t>
+          <t>592.811.940-23</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>660156060</t>
         </is>
       </c>
     </row>
@@ -643,11 +663,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hugo Gustavo Ramos Campos</t>
+          <t>Sérgio Cavalcanti Barros Ribeira Pires</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -661,12 +681,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sueli Cecília Pereira Campos Gustavo Ramos</t>
+          <t>Rafaela Barros Cavalcanti</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Sem instrução</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -676,17 +696,22 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>(92) 99506-7640</t>
+          <t>79 4723-9692</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>368.774.670-43</t>
+          <t>79 93616-1771</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>251849819</t>
+          <t>591.100.060-10</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>430784099</t>
         </is>
       </c>
     </row>
@@ -696,11 +721,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Joaquim Nogueira</t>
+          <t>Fernando Marcelo Martins</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -709,37 +734,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Carolina Ribeira Nogueira</t>
+          <t>Eduarda Pires Martins Marcelo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Médio incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>(87) 93734-5723</t>
+          <t>34 8557-2628</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>991.471.980-52</t>
+          <t>34 98097-9150</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>002896322</t>
+          <t>542.851.200-89</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>096772649</t>
         </is>
       </c>
     </row>
@@ -749,11 +779,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Armando Dias Melo Alves Monteiro</t>
+          <t>Samuel Carvalho</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -762,12 +792,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bianca Dias Melo</t>
+          <t>Lorena Pereira Carvalho</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -777,22 +807,27 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>(46) 99951-2572</t>
+          <t>43 6946-3963</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>914.311.810-05</t>
+          <t>43 99291-6759</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>969481242</t>
+          <t>113.811.910-53</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>219400081</t>
         </is>
       </c>
     </row>
@@ -802,25 +837,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiza Sandra Alves Andrade Azevedo</t>
+          <t>Miguel Azevedo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bianca Vanessa Azevedo Sandra Andrade</t>
+          <t>Isabela Karla Azevedo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -830,22 +865,27 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Empregado: Setor publico (sem CLT)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>(53) 96393-7539</t>
+          <t>12 5288-6779</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>029.707.070-39</t>
+          <t>12 96640-9757</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>687937125</t>
+          <t>241.821.300-57</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>064478034</t>
         </is>
       </c>
     </row>
@@ -855,25 +895,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bruno Sousa</t>
+          <t>Márcia Santana Silveira Ribeira</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Luiza Machado Borges Pires Sousa</t>
+          <t>Sueli Ribeira Silveira Santana</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -883,22 +923,27 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>(48) 98175-6393</t>
+          <t>55 3579-4968</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>187.167.750-58</t>
+          <t>55 90199-5757</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>227263497</t>
+          <t>572.447.780-74</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>049526582</t>
         </is>
       </c>
     </row>
@@ -908,25 +953,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Juliana Cavalcanti Pinto Martins</t>
+          <t>Alexandre Mendes</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nathalia Elaine Pereira Pinto Cavalcanti Martins</t>
+          <t>Jessica Mendes</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -941,17 +986,22 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>(44) 98296-7618</t>
+          <t>54 0394-6492</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>319.678.350-20</t>
+          <t>54 92238-3698</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>179029847</t>
+          <t>034.705.200-20</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>808547634</t>
         </is>
       </c>
     </row>
@@ -961,50 +1011,55 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Natália Silveira Cavalcanti</t>
+          <t>Vinícius Gonçalves Rodrigues Oliveira</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Laura Cavalcanti Silveira</t>
+          <t>Tatiana Gonçalves Oliveira Rodrigues</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>(85) 90785-2366</t>
+          <t>69 8126-8908</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>471.400.420-47</t>
+          <t>69 96346-3282</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>267793507</t>
+          <t>459.864.800-74</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>224266837</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,45 +439,50 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Data de Nascimento</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Gênero</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Etnia</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Nome da Mãe</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Educação</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Ocupação</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Telefone</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Celular</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>CPF</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>CEP</t>
         </is>
@@ -489,55 +494,60 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gustavo Ferreira Santana</t>
+          <t>Andréa Thais Pires</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>27/10/2005</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sueli Borges Santana Ferreira</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Márcia Thais</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>53 3566-8652</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>53 91088-6697</t>
+          <t>73 5858-9702</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>934.116.140-13</t>
+          <t>73 93599-6977</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>292552690</t>
+          <t>819.931.870-81</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>757589557</t>
         </is>
       </c>
     </row>
@@ -547,55 +557,60 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Roberto Gustavo Santos Ribeira</t>
+          <t>Hugo Lopes Gomes</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>21/01/1999</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Pardo</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Carolina Simone Santos Gustavo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Patrícia Silva Lopes Gomes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>97 0757-5038</t>
+          <t>Desocupado</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>97 91758-7448</t>
+          <t>97 7172-6076</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>952.836.470-56</t>
+          <t>97 95601-1925</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>645356793</t>
+          <t>559.703.320-46</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>617568248</t>
         </is>
       </c>
     </row>
@@ -605,55 +620,60 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Larissa Tatiana Martins</t>
+          <t>Ana Ribeira Campos Pires Dias</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>30/07/1992</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Feminino</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Outro</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Flávia Andressa Martins Tatiana</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Cristina Pires</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Fundamental completo</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>88 2239-1378</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>88 93770-1262</t>
+          <t>84 9500-9043</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>592.811.940-23</t>
+          <t>84 90904-3479</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>660156060</t>
+          <t>797.005.720-99</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>118920320</t>
         </is>
       </c>
     </row>
@@ -663,55 +683,60 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sérgio Cavalcanti Barros Ribeira Pires</t>
+          <t>Wagner Elias Gomes</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>11/06/2022</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Branco</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Rafaela Barros Cavalcanti</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sem instrução</t>
+          <t>Ana Gomes</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>79 4723-9692</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>79 93616-1771</t>
+          <t>64 8697-2935</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>591.100.060-10</t>
+          <t>64 94734-0231</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>430784099</t>
+          <t>330.173.150-37</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>857197361</t>
         </is>
       </c>
     </row>
@@ -721,55 +746,60 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fernando Marcelo Martins</t>
+          <t>Vicente Ribeira Pinto</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>16/02/1974</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Pardo</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Eduarda Pires Martins Marcelo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Tatiane Leticia Pinto Ribeira</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>34 8557-2628</t>
+          <t>Autonomo: Com CNPJ</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>34 98097-9150</t>
+          <t>31 3328-2454</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>542.851.200-89</t>
+          <t>31 94760-8996</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>096772649</t>
+          <t>635.867.450-10</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>081768997</t>
         </is>
       </c>
     </row>
@@ -779,55 +809,60 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Samuel Carvalho</t>
+          <t>Fábio Ramos Oliveira</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>06/02/2000</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Branco</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lorena Pereira Carvalho</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>Isabela Maria Lopes Ramos Oliveira</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>43 6946-3963</t>
+          <t>Empregado: Setor ublico (estatutário ou militar)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>43 99291-6759</t>
+          <t>84 9966-3197</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>113.811.910-53</t>
+          <t>84 90064-3826</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>219400081</t>
+          <t>132.429.830-84</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>406990919</t>
         </is>
       </c>
     </row>
@@ -837,55 +872,60 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Miguel Azevedo</t>
+          <t>Karla Monteiro</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>19/05/1978</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Isabela Karla Azevedo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Patrícia Monteiro</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Empregado: Setor publico (sem CLT)</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12 5288-6779</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>12 96640-9757</t>
+          <t>94 3807-9995</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>241.821.300-57</t>
+          <t>94 99156-7266</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>064478034</t>
+          <t>709.487.240-21</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>454602676</t>
         </is>
       </c>
     </row>
@@ -895,55 +935,60 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Márcia Santana Silveira Ribeira</t>
+          <t>Patrícia Costa</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>28/05/1981</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Feminino</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Parda</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sueli Ribeira Silveira Santana</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Tânia Correia Costa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>Sem instrução</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>55 3579-4968</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>55 90199-5757</t>
+          <t>17 7852-1673</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>572.447.780-74</t>
+          <t>17 96447-0527</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>049526582</t>
+          <t>160.269.100-26</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>855671622</t>
         </is>
       </c>
     </row>
@@ -953,55 +998,60 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alexandre Mendes</t>
+          <t>Eduarda Oliveira</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>30/04/2001</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Jessica Mendes</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>Márcia Oliveira</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>54 0394-6492</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>54 92238-3698</t>
+          <t>75 3950-9309</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>034.705.200-20</t>
+          <t>75 93548-4325</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>808547634</t>
+          <t>077.496.700-50</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>161352608</t>
         </is>
       </c>
     </row>
@@ -1011,55 +1061,60 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vinícius Gonçalves Rodrigues Oliveira</t>
+          <t>Cátia Silva Dias</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>10/03/1969</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tatiana Gonçalves Oliveira Rodrigues</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Amanda Dias</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>69 8126-8908</t>
+          <t>Autonomo: Com CNPJ</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>69 96346-3282</t>
+          <t>28 6071-3312</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>459.864.800-74</t>
+          <t>28 91214-7612</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>224266837</t>
+          <t>804.608.590-13</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>747872635</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -494,30 +494,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andréa Thais Pires</t>
+          <t>Gustavo Oliveira</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27/10/2005</t>
+          <t>23/06/2001</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Márcia Thais</t>
+          <t>Laura Jessica Oliveira</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -527,27 +527,27 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>73 5858-9702</t>
+          <t>(84) 3108-4663</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>73 93599-6977</t>
+          <t>(84) 97147-6864</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>819.931.870-81</t>
+          <t>013.933.750-49</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>757589557</t>
+          <t>648043978</t>
         </is>
       </c>
     </row>
@@ -557,30 +557,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hugo Lopes Gomes</t>
+          <t>Rosana Silva Santana</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21/01/1999</t>
+          <t>12/02/2023</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Patrícia Silva Lopes Gomes</t>
+          <t>Vanessa Silva</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -590,27 +590,27 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Desocupado</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>97 7172-6076</t>
+          <t>(81) 0137-3093</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>97 95601-1925</t>
+          <t>(81) 96110-6351</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>559.703.320-46</t>
+          <t>932.566.030-09</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>617568248</t>
+          <t>526208216</t>
         </is>
       </c>
     </row>
@@ -620,35 +620,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Ribeira Campos Pires Dias</t>
+          <t>Isaac João Gonçalves Correia</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30/07/1992</t>
+          <t>06/10/2003</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cristina Pires</t>
+          <t>Priscila Tatiane João Correia</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fundamental completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -658,22 +658,22 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>84 9500-9043</t>
+          <t>(88) 2318-5143</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>84 90904-3479</t>
+          <t>(88) 90866-3967</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>797.005.720-99</t>
+          <t>510.209.670-21</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>118920320</t>
+          <t>453336799</t>
         </is>
       </c>
     </row>
@@ -683,30 +683,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Wagner Elias Gomes</t>
+          <t>Cecília Dias Almeida</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11/06/2022</t>
+          <t>31/03/2015</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ana Gomes</t>
+          <t>Lorena Flávia Almeida Dias</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -721,22 +721,22 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>64 8697-2935</t>
+          <t>(96) 2787-6663</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>64 94734-0231</t>
+          <t>(96) 95549-0455</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>330.173.150-37</t>
+          <t>583.187.820-11</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>857197361</t>
+          <t>038002692</t>
         </is>
       </c>
     </row>
@@ -746,15 +746,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vicente Ribeira Pinto</t>
+          <t>Sérgio Melo Pinto</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16/02/1974</t>
+          <t>15/01/1981</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tatiane Leticia Pinto Ribeira</t>
+          <t>Amanda Pinto Melo</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -779,27 +779,27 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Autonomo: Com CNPJ</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>31 3328-2454</t>
+          <t>(28) 0724-2492</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>31 94760-8996</t>
+          <t>(28) 98284-7029</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>635.867.450-10</t>
+          <t>581.627.140-73</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>081768997</t>
+          <t>942531361</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fábio Ramos Oliveira</t>
+          <t>Joaquim Thiago Alves Ribeiro Cardoso</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -817,7 +817,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>06/02/2000</t>
+          <t>30/11/2000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Isabela Maria Lopes Ramos Oliveira</t>
+          <t>Jessica Thiago Cardoso Alves Ribeiro</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -842,27 +842,27 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Empregado: Setor ublico (estatutário ou militar)</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>84 9966-3197</t>
+          <t>(41) 6811-8827</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>84 90064-3826</t>
+          <t>(41) 92644-6201</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>132.429.830-84</t>
+          <t>968.727.270-80</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>406990919</t>
+          <t>625973303</t>
         </is>
       </c>
     </row>
@@ -872,15 +872,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Karla Monteiro</t>
+          <t>Carla Laura Ferreira Almeida Pires Moraes</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19/05/1978</t>
+          <t>30/12/1977</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -890,42 +890,42 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Patrícia Monteiro</t>
+          <t>Patrícia Ferreira</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+          <t>Empregado: Setor publico (sem CLT)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>94 3807-9995</t>
+          <t>(11) 1184-1682</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>94 99156-7266</t>
+          <t>(11) 93470-3904</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>709.487.240-21</t>
+          <t>308.486.340-71</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>454602676</t>
+          <t>282230010</t>
         </is>
       </c>
     </row>
@@ -935,60 +935,60 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Patrícia Costa</t>
+          <t>Luciano Correia</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>28/05/1981</t>
+          <t>18/01/2007</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tânia Correia Costa</t>
+          <t>Bianca Correia</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sem instrução</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Autonomo: Com CNPJ</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>17 7852-1673</t>
+          <t>(17) 4628-7669</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>17 96447-0527</t>
+          <t>(17) 90846-6862</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>160.269.100-26</t>
+          <t>383.240.720-04</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>855671622</t>
+          <t>770182897</t>
         </is>
       </c>
     </row>
@@ -998,30 +998,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eduarda Oliveira</t>
+          <t>José Fábio Nogueira Oliveira</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30/04/2001</t>
+          <t>07/04/2015</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Márcia Oliveira</t>
+          <t>Isabela Oliveira</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1031,27 +1031,27 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>75 3950-9309</t>
+          <t>(55) 9727-3568</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>75 93548-4325</t>
+          <t>(55) 95979-0177</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>077.496.700-50</t>
+          <t>616.978.180-72</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>161352608</t>
+          <t>533630602</t>
         </is>
       </c>
     </row>
@@ -1061,60 +1061,60 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cátia Silva Dias</t>
+          <t>Hugo Freitas Martins</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10/03/1969</t>
+          <t>14/01/1994</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Amanda Dias</t>
+          <t>Maria Martins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Fundamental completo</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Autonomo: Com CNPJ</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>28 6071-3312</t>
+          <t>(92) 1699-5279</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>28 91214-7612</t>
+          <t>(92) 98167-7097</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>804.608.590-13</t>
+          <t>671.366.160-26</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>747872635</t>
+          <t>474704553</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -494,60 +494,60 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gustavo Oliveira</t>
+          <t>Eduarda Correia Moraes</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23/06/2001</t>
+          <t>09/10/1996</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Laura Jessica Oliveira</t>
+          <t>Cecília Simone Gouveia Moraes Correia</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>(84) 3108-4663</t>
+          <t>(65) 1530-3834</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>(84) 97147-6864</t>
+          <t>(65) 99089-9333</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>013.933.750-49</t>
+          <t>584.757.760-51</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>648043978</t>
+          <t>433155446</t>
         </is>
       </c>
     </row>
@@ -557,15 +557,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosana Silva Santana</t>
+          <t>Elaine Alves Sousa</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12/02/2023</t>
+          <t>18/12/1991</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -575,42 +575,42 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Vanessa Silva</t>
+          <t>Jessica Larissa Santos Sousa Alves</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Superior incompleto</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>(81) 0137-3093</t>
+          <t>(82) 2420-1101</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>(81) 96110-6351</t>
+          <t>(82) 96665-9733</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>932.566.030-09</t>
+          <t>257.446.610-18</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>526208216</t>
+          <t>805467040</t>
         </is>
       </c>
     </row>
@@ -620,60 +620,60 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isaac João Gonçalves Correia</t>
+          <t>Renata Araújo Cavalcanti</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>06/10/2003</t>
+          <t>13/05/1993</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Priscila Tatiane João Correia</t>
+          <t>Cátia Jéssica Almeida Borges Cavalcanti Araújo</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>(88) 2318-5143</t>
+          <t>(62) 3686-5079</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>(88) 90866-3967</t>
+          <t>(62) 90506-2578</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>510.209.670-21</t>
+          <t>018.104.810-82</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>453336799</t>
+          <t>627552096</t>
         </is>
       </c>
     </row>
@@ -683,15 +683,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cecília Dias Almeida</t>
+          <t>Karla Almeida Fernandes</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>31/03/2015</t>
+          <t>11/01/1995</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -701,42 +701,42 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lorena Flávia Almeida Dias</t>
+          <t>Isabela Almeida Fernandes</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>(96) 2787-6663</t>
+          <t>(92) 7174-6500</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>(96) 95549-0455</t>
+          <t>(92) 95018-9436</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>583.187.820-11</t>
+          <t>057.339.700-73</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>038002692</t>
+          <t>969807478</t>
         </is>
       </c>
     </row>
@@ -746,60 +746,60 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sérgio Melo Pinto</t>
+          <t>Regina Jessica Silveira Borges</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15/01/1981</t>
+          <t>19/10/2017</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Amanda Pinto Melo</t>
+          <t>Leticia Nunes Borges Silveira Jessica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>(28) 0724-2492</t>
+          <t>(93) 9740-6302</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>(28) 98284-7029</t>
+          <t>(93) 95308-6013</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>581.627.140-73</t>
+          <t>392.524.680-05</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>942531361</t>
+          <t>947620216</t>
         </is>
       </c>
     </row>
@@ -809,15 +809,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Joaquim Thiago Alves Ribeiro Cardoso</t>
+          <t>Vitor Machado Alves</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>30/11/2000</t>
+          <t>03/12/2007</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -827,12 +827,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Jessica Thiago Cardoso Alves Ribeiro</t>
+          <t>Mariana Alves</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -842,27 +842,27 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>(41) 6811-8827</t>
+          <t>(55) 3136-1194</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>(41) 92644-6201</t>
+          <t>(55) 93821-8759</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>968.727.270-80</t>
+          <t>661.804.580-06</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>625973303</t>
+          <t>159866883</t>
         </is>
       </c>
     </row>
@@ -872,60 +872,60 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Carla Laura Ferreira Almeida Pires Moraes</t>
+          <t>Caio Miguel Barbosa Santana</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30/12/1977</t>
+          <t>12/12/2001</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Patrícia Ferreira</t>
+          <t>Camila Miguel Barbosa Santana</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Empregado: Setor publico (sem CLT)</t>
+          <t>Empregador: Sem CNPJ</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>(11) 1184-1682</t>
+          <t>(91) 8851-3629</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>(11) 93470-3904</t>
+          <t>(91) 91121-9684</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>308.486.340-71</t>
+          <t>114.010.490-01</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>282230010</t>
+          <t>405240836</t>
         </is>
       </c>
     </row>
@@ -935,15 +935,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luciano Correia</t>
+          <t>Miguel Castro Barros</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18/01/2007</t>
+          <t>05/01/1992</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -953,42 +953,42 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bianca Correia</t>
+          <t>Simone Castro Barros</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Autonomo: Com CNPJ</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>(17) 4628-7669</t>
+          <t>(75) 7860-5299</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>(17) 90846-6862</t>
+          <t>(75) 92186-4051</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>383.240.720-04</t>
+          <t>265.975.690-24</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>770182897</t>
+          <t>776805170</t>
         </is>
       </c>
     </row>
@@ -998,30 +998,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>José Fábio Nogueira Oliveira</t>
+          <t>Amanda Martins</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>07/04/2015</t>
+          <t>05/09/2014</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Isabela Oliveira</t>
+          <t>Nathalia Gouveia Ramos Martins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1036,22 +1036,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>(55) 9727-3568</t>
+          <t>(34) 5374-2266</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>(55) 95979-0177</t>
+          <t>(34) 94687-4290</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>616.978.180-72</t>
+          <t>702.568.800-26</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>533630602</t>
+          <t>785378097</t>
         </is>
       </c>
     </row>
@@ -1061,60 +1061,60 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hugo Freitas Martins</t>
+          <t>Márcia Rocha Pires</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14/01/1994</t>
+          <t>12/06/2020</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Maria Martins</t>
+          <t>Roberta Regina Rocha</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Fundamental completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>(92) 1699-5279</t>
+          <t>(19) 4936-7553</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>(92) 98167-7097</t>
+          <t>(19) 93492-1555</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>671.366.160-26</t>
+          <t>177.116.230-97</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>474704553</t>
+          <t>088699272</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,35 +454,30 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nome da Mãe</t>
+          <t>Educação</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Educação</t>
+          <t>Ocupação</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Ocupação</t>
+          <t>Telefone</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Telefone</t>
+          <t>Celular</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>CPF</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
-        <is>
-          <t>CPF</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
         <is>
           <t>CEP</t>
         </is>
@@ -494,60 +489,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eduarda Correia Moraes</t>
+          <t>Thiago Mendes Andrade Campos</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>09/10/1996</t>
+          <t>27/02/2023</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cecília Simone Gouveia Moraes Correia</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>(38) 8980-1858</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>(65) 1530-3834</t>
+          <t>(38) 92251-9606</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>(65) 99089-9333</t>
+          <t>330.455.380-02</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>584.757.760-51</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>433155446</t>
+          <t>554018925</t>
         </is>
       </c>
     </row>
@@ -557,15 +547,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elaine Alves Sousa</t>
+          <t>Tatiana Dias</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18/12/1991</t>
+          <t>28/06/2010</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -575,42 +565,37 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Jessica Larissa Santos Sousa Alves</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Superior incompleto</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>(47) 3901-9544</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>(82) 2420-1101</t>
+          <t>(47) 98952-2143</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>(82) 96665-9733</t>
+          <t>713.602.010-76</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>257.446.610-18</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>805467040</t>
+          <t>221386330</t>
         </is>
       </c>
     </row>
@@ -620,60 +605,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Renata Araújo Cavalcanti</t>
+          <t>Alberto Nunes</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13/05/1993</t>
+          <t>21/11/2003</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cátia Jéssica Almeida Borges Cavalcanti Araújo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>(83) 9564-6118</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>(62) 3686-5079</t>
+          <t>(83) 91416-3376</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>(62) 90506-2578</t>
+          <t>692.067.140-90</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>018.104.810-82</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>627552096</t>
+          <t>101332234</t>
         </is>
       </c>
     </row>
@@ -683,15 +663,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Karla Almeida Fernandes</t>
+          <t>Carla Silveira Nunes Monteiro</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11/01/1995</t>
+          <t>31/10/2010</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -701,42 +681,37 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Isabela Almeida Fernandes</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>(98) 0248-9028</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>(92) 7174-6500</t>
+          <t>(98) 93187-6060</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>(92) 95018-9436</t>
+          <t>858.759.610-15</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>057.339.700-73</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>969807478</t>
+          <t>824846792</t>
         </is>
       </c>
     </row>
@@ -746,60 +721,55 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regina Jessica Silveira Borges</t>
+          <t>André Felipe Pessoa Silveira</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19/10/2017</t>
+          <t>05/03/1991</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Leticia Nunes Borges Silveira Jessica</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Autonomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>(18) 7061-8691</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>(93) 9740-6302</t>
+          <t>(18) 96588-8216</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>(93) 95308-6013</t>
+          <t>222.393.870-17</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>392.524.680-05</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>947620216</t>
+          <t>043460054</t>
         </is>
       </c>
     </row>
@@ -809,15 +779,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vitor Machado Alves</t>
+          <t>Arnaldo Bruno Oliveira Ramos</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>03/12/2007</t>
+          <t>28/01/2006</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -827,42 +797,37 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Mariana Alves</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Desocupado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>(74) 6014-5073</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>(55) 3136-1194</t>
+          <t>(74) 90208-6098</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>(55) 93821-8759</t>
+          <t>407.656.710-26</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>661.804.580-06</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>159866883</t>
+          <t>291125909</t>
         </is>
       </c>
     </row>
@@ -872,60 +837,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Caio Miguel Barbosa Santana</t>
+          <t>Brenda Silva</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12/12/2001</t>
+          <t>12/11/1974</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Camila Miguel Barbosa Santana</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Desocupado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Empregador: Sem CNPJ</t>
+          <t>(88) 7230-8568</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>(91) 8851-3629</t>
+          <t>(88) 97880-5611</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>(91) 91121-9684</t>
+          <t>845.546.410-07</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>114.010.490-01</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>405240836</t>
+          <t>520843590</t>
         </is>
       </c>
     </row>
@@ -935,60 +895,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Miguel Castro Barros</t>
+          <t>Elaine Pires Oliveira</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>05/01/1992</t>
+          <t>16/02/2000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Simone Castro Barros</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Autonomo: Sem CNPJ</t>
+          <t>(51) 1499-2928</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>(75) 7860-5299</t>
+          <t>(51) 95679-2976</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>(75) 92186-4051</t>
+          <t>793.331.700-65</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>265.975.690-24</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>776805170</t>
+          <t>795831368</t>
         </is>
       </c>
     </row>
@@ -998,60 +953,55 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Amanda Martins</t>
+          <t>Lucas Hugo Ferreira Azevedo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>05/09/2014</t>
+          <t>14/02/1978</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nathalia Gouveia Ramos Martins</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Autonomo: Com CNPJ</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>(71) 9738-7743</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>(34) 5374-2266</t>
+          <t>(71) 92388-0831</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>(34) 94687-4290</t>
+          <t>533.344.550-84</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>702.568.800-26</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>785378097</t>
+          <t>257461951</t>
         </is>
       </c>
     </row>
@@ -1061,60 +1011,5275 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Márcia Rocha Pires</t>
+          <t>Jessica Ribeiro Vieira</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16/03/2003</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(42) 8754-8787</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>(42) 93061-2062</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>644.825.410-28</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>812988182</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Wagner César Ferreira Ribeiro</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>14</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23/02/2009</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(28) 2194-7530</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>(28) 92701-9621</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>454.856.400-44</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>830715452</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Geraldo Roberto Gomes Ribeira Azevedo Ramos</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15/03/2003</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Autonomo: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(24) 5611-7463</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>(24) 95302-2306</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>655.328.870-47</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>772880880</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Larissa Pinto Barros Lima Santana</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28/06/2023</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Preta</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(82) 6775-8169</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>(82) 93341-1978</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>567.168.510-97</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>428450200</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Eduarda Andrade Ferreira</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>36</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25/06/1987</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(41) 2090-1004</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>(41) 98618-6376</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>245.588.740-57</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>433707019</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Joaquim Pedro Monteiro Campos</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18/02/2007</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Empregado: Setor publico (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(17) 7497-2693</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>(17) 96650-9825</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>207.380.300-82</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>342598863</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Vinícius Sousa Mendes</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23/01/2017</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(81) 0508-7668</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>(81) 95937-0220</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>809.089.700-21</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>136173813</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Ronaldo Gustavo Cardoso Alves</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>9</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27/01/2014</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(46) 2610-6035</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>(46) 97914-7136</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>585.619.650-37</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>399006893</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Márcia Regina Fernandes Nogueira</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19/02/2021</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Outro</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(22) 5655-6236</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>(22) 96451-3245</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>623.818.820-06</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>718768854</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Alberto Nunes Mendes</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>03/10/2013</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(95) 2444-3487</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>(95) 98411-6011</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>343.287.260-72</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>075073628</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Isaac Joaquim Santana</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>46</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25/06/1977</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(66) 4657-7538</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>(66) 92863-0440</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>324.821.290-01</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>550767172</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Brenda Helena Santana</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>13</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17/09/2010</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(83) 6088-2241</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>(83) 99003-7283</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>865.780.000-46</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>841754346</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Renato Oliveira Santos</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>23</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>04/10/2000</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Autonomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(81) 5083-4252</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>(81) 99215-9557</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>520.027.230-01</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>041782277</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Juliana Carla Melo Andrade</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>17</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10/11/2006</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Preta</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(22) 1624-2023</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>(22) 92179-2364</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>026.848.940-86</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>387643163</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Elaine Patrícia Pereira Gomes</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>33</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14/06/1990</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Empregado: Setor publico (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(38) 8275-7671</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>(38) 93518-7850</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>853.723.000-60</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>777312838</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Rafael Almeida Cavalcanti</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>07/11/2014</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(71) 6573-2210</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>(71) 93937-2051</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>211.941.870-56</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>897070667</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Simone Cavalcanti</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19/07/2023</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(37) 9122-7912</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>(37) 98488-8568</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>460.881.800-72</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>946212650</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Elaine Machado Costa</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>14</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25/03/2009</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Autonomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(91) 7176-9704</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>(91) 96453-7316</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>816.804.270-08</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>252420114</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Raul Fernando Ferreira Gomes</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>47</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18/03/1976</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(71) 6445-8824</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>(71) 96350-5364</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>268.565.910-20</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>491889766</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>José Gomes</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>20</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>08/08/2003</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Empregado: Setor ublico (estatutário ou militar)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(21) 8503-1028</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>(21) 92650-4834</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>875.011.540-58</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>191300970</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sérgio Martins Gouveia</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>8</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16/04/2015</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(44) 1595-0422</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>(44) 91918-0380</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>686.524.830-94</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>997119019</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Helena Santos Cavalcanti</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>18</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>25/06/2005</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Preta</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(49) 9222-2526</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>(49) 98967-7551</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>675.584.120-05</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>732775988</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Amanda Ribeira Borges</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>21</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24/03/2002</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Autonomo: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(98) 2969-7299</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>(98) 98170-0646</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>864.571.280-68</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>731592140</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Carlos Luis Dias Alves</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>42</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>21/05/1981</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Empregador: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(41) 1999-3379</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>(41) 98363-5247</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>587.824.240-04</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>583750629</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Cátia Nascimento Gonçalves</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>48</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18/01/1975</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(94) 5417-4103</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>(94) 94801-0637</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>598.723.560-09</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>688165107</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Renata Almeida</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>19</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>05/05/2004</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Empregado: Setor publico (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>(54) 0946-5151</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>(54) 98084-7048</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>699.351.760-45</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>079801931</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sérgio Nascimento Ferreira</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>17</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12/10/2006</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>(89) 3571-9353</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>(89) 92818-9775</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>557.297.000-08</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>190676488</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Andressa Gonçalves Mendes</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>21</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>08/11/2002</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>(64) 3688-1840</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>(64) 93999-5891</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>125.939.150-72</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>489802672</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Priscila Dias</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>10</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11/01/2013</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>(99) 2497-9440</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>(99) 96867-8723</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>754.527.330-35</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>240127662</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Mônica Nathalia Lima Ramos</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>17</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17/03/2006</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>(88) 1089-3679</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>(88) 99959-2656</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>499.909.210-75</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>808155302</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Roberta Vanessa Santos Correia</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>54</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>22/09/1969</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>(47) 8981-9456</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>(47) 98906-4162</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>517.412.580-65</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>434661860</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Tânia Amanda Vieira Alves</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>29</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>04/09/1994</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>(12) 0646-2473</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>(12) 97195-4651</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>627.283.260-53</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>624324575</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Raul Nascimento Silva</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>07/03/2013</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>(19) 6026-3266</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>(19) 94818-6860</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>042.499.380-50</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>890117025</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Karla Borges</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>31/03/2019</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Preta</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>(66) 7849-8116</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>(66) 93402-2291</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>620.481.240-89</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>827168724</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Maria Rosana Campos Cardoso</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>17</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>01/07/2006</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Autonomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>(67) 4524-5298</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>(67) 90432-9063</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>031.617.560-96</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>976413626</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Leandro Alexandre Oliveira Moraes</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>21</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>01/01/2002</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>(89) 4647-6359</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>(89) 90314-6666</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>304.045.000-05</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>097836389</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Pedro Oliveira Ribeiro</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>42</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>22/07/1981</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>(73) 5434-6783</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>(73) 93918-3400</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>498.697.220-08</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>151530838</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Rafael Carvalho Mendes</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>12</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>27/03/2011</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>(28) 3344-7560</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>(28) 93760-0849</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>904.028.280-38</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>287275116</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Rafael Gonçalves Fernandes Rocha</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>17/08/2017</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>(31) 1821-5282</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>(31) 92875-7939</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>265.637.100-77</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>711575048</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Guilherme Oliveira Pessoa</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12/04/2023</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>(68) 3001-9634</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>(68) 91009-8119</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>395.806.050-17</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>170963071</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Sérgio Fernando Nascimento Mendes</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>24</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>31/01/1999</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Não-Binário</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Branco(a)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Empregado: Setor ublico (estatutário ou militar)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>(28) 3598-3362</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>(28) 94220-0951</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>686.925.680-23</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>786994918</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Raul Alberto Azevedo Pinto</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>48</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>02/12/1975</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>(65) 5938-5412</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>(65) 94168-1596</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>082.521.110-76</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>988803484</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Bianca Campos</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>19</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>26/12/2004</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Autonomo: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>(16) 1893-9637</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>(16) 96313-2833</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>310.678.010-06</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>998627198</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Geraldo Cavalcanti Ramos</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>54</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>09/03/1969</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Empregado: Setor publico (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>(16) 7023-6657</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>(16) 95321-6555</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>750.994.970-04</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>942831654</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ricardo Pessoa Melo</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>6</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>19/03/2017</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>(34) 3211-6940</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>(34) 92405-5440</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>140.666.930-08</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>124662650</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Cátia Martins Gomes Gouveia Barbosa</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>19/01/2018</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>(83) 3382-8876</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>(83) 90997-8472</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>686.311.060-11</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>836784932</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Miguel Pereira Cavalcanti</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>16</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>24/03/2007</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>(37) 5270-0738</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>(37) 91293-0093</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>833.579.540-10</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>571402561</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Joaquim Barros Cavalcanti</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>42</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>08/04/1981</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>(55) 7806-6992</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>(55) 94310-9307</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>029.142.790-19</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>873851718</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Ricardo Oliveira</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>24</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>20/03/1999</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>(18) 3203-4237</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>(18) 97991-8269</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>883.606.520-15</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>637086840</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ricardo Ramos Silveira</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>21/02/2023</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>(98) 7024-6307</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>(98) 94425-1918</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>675.537.930-19</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>202844523</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>José Andrade Machado</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>32</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>27/10/1991</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>(49) 5584-2785</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>(49) 96164-8842</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>247.397.810-77</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>117566541</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Caio Antônio Gonçalves</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>15</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>11/01/2008</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Autonomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>(32) 0877-3142</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>(32) 94681-6600</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>076.793.260-96</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>939773002</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>André Barros Santana</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>51</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13/07/1972</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Não-Binário</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Branco(a)</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>(21) 0955-6657</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>(21) 97306-6646</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>773.011.270-14</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>481927364</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Tatiana Gonçalves Oliveira</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10/04/2021</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>(43) 3723-2274</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>(43) 94156-6196</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>837.405.990-73</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>755673686</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Gustavo Cavalcanti Silva</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>14</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>17/10/2009</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>(28) 8294-8212</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>(28) 93046-3214</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>298.535.010-74</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>186417992</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Renato Álvaro Correia Lopes</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>18</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>13/11/2005</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Autonomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>(45) 0570-8023</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>(45) 95886-8643</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>026.871.150-02</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>089658990</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Marcelo Gomes Ferreira Ramos</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>23</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>17/03/2000</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>(65) 5845-3540</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>(65) 90636-3645</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>415.046.990-33</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>679317808</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Jéssica Almeida Santos</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>30/04/2021</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Não-Binário</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Pardo(a)</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>(99) 3876-7728</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>(99) 98675-5920</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>840.968.490-06</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>797214166</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Thiago Nunes Pires Araújo</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>8</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>09/07/2015</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>(88) 3697-7827</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>(88) 90882-9981</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>068.361.410-03</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>050890152</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Leonardo Oliveira Vieira</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>23</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>15/04/2000</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>(95) 5803-8462</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>(95) 96656-7062</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>217.641.910-30</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>437917029</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Andréa Aline Pereira Martins</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>52</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>05/09/1971</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>(97) 2148-8347</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>(97) 92025-2612</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>835.658.140-04</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>916415149</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Nathalia Pires Moraes</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>8</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>21/11/2015</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>(77) 1841-7071</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>(77) 98490-6184</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>254.422.460-69</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>810312433</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Elias Leonardo Gouveia Lopes</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>18</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>03/07/2005</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Autonomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>(83) 5955-5826</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>(83) 92685-2216</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>087.857.950-89</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>218898840</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Antônio Carvalho</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>12</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>07/12/2011</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>(15) 6964-3668</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>(15) 91595-1710</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>046.670.140-32</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>305275520</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Mônica Jéssica Lopes Ribeiro</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>19</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>22/07/2004</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>(91) 0707-4852</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>(91) 94557-0091</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>395.492.420-05</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>619086535</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Leticia Luiza Costa Silva Santos Melo</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>21</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>13/03/2002</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>(98) 8788-0698</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>(98) 98331-4993</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>166.918.940-65</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>521536390</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Larissa Carolina Ramos Moraes</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>50</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>08/06/1973</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>(43) 8006-2703</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>(43) 98626-5710</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>992.927.680-77</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>054878133</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Sebastião Rocha Carvalho</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>18</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>18/01/2005</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>(34) 3243-6756</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>(34) 96070-7140</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>200.500.060-45</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>414138588</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Amanda Brenda Azevedo</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>28</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>15/11/1995</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>(91) 3044-2971</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>(91) 97141-3017</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>029.727.150-47</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>024413954</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Caio César Fernandes Correia Borges Vieira</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>21</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>25/03/2002</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Autonomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>(73) 6853-2281</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>(73) 94859-7243</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>837.809.740-45</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>871976210</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Luciano Rodrigues</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>10</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>04/09/2013</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>(67) 4687-7033</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>(67) 97500-4712</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>285.234.640-00</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>134330283</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Leonardo Martins</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>31</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>01/04/1992</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>(61) 9557-8832</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>(61) 92587-6110</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>953.835.830-92</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>824433815</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Luiza Azevedo Costa</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>10</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>06/08/2013</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>(35) 0518-2802</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>(35) 94774-1673</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>274.672.280-15</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>675520476</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Cátia Cardoso Pereira</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>20</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>25/04/2003</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>(75) 0819-8519</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>(75) 96998-7854</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>578.539.120-13</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>340658315</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Vinícius Pinto Dias</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>45</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>24/12/1978</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>(83) 2809-9729</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>(83) 92451-5451</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>781.248.590-00</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>519199788</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Carolina Mariana Andrade Moraes</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>35</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>12/04/1988</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Empregador: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>(96) 2012-7329</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>(96) 96333-9908</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>132.086.670-00</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>038618766</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Elaine Machado Cavalcanti</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>51</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>26/08/1972</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>(83) 8587-9387</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>(83) 98968-9620</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>722.882.230-73</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>440037925</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Diego Márcio Vieira Cavalcanti</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>04/10/2021</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>(35) 2130-1506</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>(35) 98343-2165</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>880.444.460-60</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>474586553</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Rafaela Mendes Azevedo</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>19</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>02/05/2004</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>(66) 7435-1750</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>(66) 96595-4241</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>824.930.390-33</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>392854137</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Renato Marcelo Azevedo Mendes</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>21</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>04/07/2002</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>(15) 0217-8279</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>(15) 98428-7522</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>914.209.170-56</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>860930560</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Felipe Melo Alves</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>43</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>27/06/1980</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>(21) 0204-2402</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>(21) 93357-0248</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>118.621.800-24</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>006981810</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Amanda Pereira Fernandes</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>15</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>17/07/2008</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>(81) 3255-8161</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>(81) 96599-6419</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>162.109.170-89</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>888116343</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Thiago Renato Melo Silveira</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>23</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>12/09/2000</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>(24) 5996-5584</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>(24) 90974-7874</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>014.847.030-06</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>162899886</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Fábio Machado Sousa</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>5</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>20/04/2018</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>(42) 6373-3538</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>(42) 95983-8189</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>709.423.270-55</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>347219370</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Gilberto Cavalcanti Azevedo</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>4</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>16/11/2019</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>(17) 2078-9744</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>(17) 96081-4603</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>375.759.980-20</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>717473185</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Armando Silveira</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>27</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>21/03/1996</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Trabalhador familiar auxiliar</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>(74) 6063-8726</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>(74) 90659-5560</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>616.421.630-31</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>072963941</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Vitor Almeida Ribeiro</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
         <v>3</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12/06/2020</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>16/08/2020</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>(53) 5064-1782</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>(53) 95036-0104</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>221.727.360-40</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>009056089</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Tatiane Rafaela Ribeira Lopes</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>05/07/2020</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>Feminino</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Parda</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Roberta Regina Rocha</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Em idade escolar.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
         <is>
           <t>Fora da força de trabalho</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>(19) 4936-7553</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>(19) 93492-1555</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>177.116.230-97</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>088699272</t>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>(46) 6816-8969</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>(46) 91207-1784</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>225.984.240-26</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>246433670</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Marcelo Samuel Borges</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>9</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>01/10/2014</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>(42) 0799-4826</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>(42) 94908-4750</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>533.597.930-56</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>944913670</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Geraldo Vieira Castro</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>45</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>09/08/1978</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>(71) 2734-9898</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>(71) 95138-3468</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>840.932.120-31</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>037385889</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Alexandre Ferreira Rocha</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>18</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>13/01/2005</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Autonomo: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>(67) 5047-8586</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>(67) 97999-3893</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>351.154.380-03</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>192701851</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,55 +489,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cristina Pinto Pires Ribeiro</t>
+          <t>Eduardo Fernando Monteiro Barros Nunes</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>07/10/1970</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>(35) 5335-7853</t>
+          <t>(68) 3213-7297</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>(35) 92849-7818</t>
+          <t>(68) 98340-4698</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>149.308.880-77</t>
+          <t>505.693.460-70</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>497239184</t>
+          <t>598441204</t>
         </is>
       </c>
     </row>
@@ -547,25 +547,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cristina Nunes Cardoso</t>
+          <t>Vicente Azevedo Dias Silva</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11/05/2003</t>
+          <t>10/07/2014</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -575,27 +575,27 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desocupado</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>(61) 9324-8427</t>
+          <t>(31) 9682-2215</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>(61) 90407-6510</t>
+          <t>(31) 95292-6778</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>289.664.760-07</t>
+          <t>901.943.480-24</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>191104522</t>
+          <t>601420422</t>
         </is>
       </c>
     </row>
@@ -605,55 +605,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elias Alves Santana</t>
+          <t>Mariana Ribeira Costa</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31/08/1977</t>
+          <t>11/12/2003</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Empregado: Setor público (estatutário ou militar)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>(16) 6752-4792</t>
+          <t>(75) 6729-4174</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>(16) 92165-6373</t>
+          <t>(75) 96137-2005</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>822.693.180-05</t>
+          <t>403.997.840-47</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>824864032</t>
+          <t>805240224</t>
         </is>
       </c>
     </row>
@@ -663,15 +663,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fábio Nunes Ferreira Cardoso</t>
+          <t>Eduardo Samuel Martins Barros</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25/09/2017</t>
+          <t>16/06/1972</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -681,37 +681,37 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>(97) 2217-4876</t>
+          <t>(85) 3867-3290</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>(97) 91077-9577</t>
+          <t>(85) 97287-1540</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>308.909.150-08</t>
+          <t>140.886.040-67</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>770553181</t>
+          <t>595777210</t>
         </is>
       </c>
     </row>
@@ -721,345 +721,55 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luciano Rodrigues</t>
+          <t>Sandra Freitas</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13/06/2012</t>
+          <t>07/05/1985</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Superior incompleto</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>(63) 7273-7940</t>
+          <t>(98) 5629-2008</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>(63) 97964-0214</t>
+          <t>(98) 98491-7024</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>448.559.590-06</t>
+          <t>524.150.670-59</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>826056779</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Larissa Bianca Martins Alves</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>22</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13/01/2001</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Feminino</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Parda</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Em idade escolar.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>(98) 1941-6248</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>(98) 91727-9429</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>497.584.090-18</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>733368034</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Tatiana Costa Moraes</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>16</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>22/04/2007</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Feminino</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Em idade escolar.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Autônomo: Com CNPJ</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>(77) 7804-5620</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>(77) 90284-0395</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>925.204.230-05</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>845406814</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>João Barbosa</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11/10/2013</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Pardo</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Em idade escolar.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>(11) 8931-2399</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>(11) 97123-6326</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>122.925.980-51</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>939456849</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Aline Alves Rodrigues</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>20</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>27/11/2003</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Feminino</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Branca</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Em idade escolar.</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Desocupado</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>(77) 1663-8441</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>(77) 99422-4064</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>532.581.030-89</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>765707051</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Sandra Patrícia Carvalho</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>21</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>25/04/2002</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Feminino</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Preta</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Em idade escolar.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Empregado: Setor público (sem CLT)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>(74) 3755-6878</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>(74) 92553-8274</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>368.720.780-30</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>236358250</t>
+          <t>697656742</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,25 +489,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eduardo Fernando Monteiro Barros Nunes</t>
+          <t>Luiza Monteiro Sousa</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>05/06/2013</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -517,27 +517,27 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>(68) 3213-7297</t>
+          <t>(81) 7947-2274</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>(68) 98340-4698</t>
+          <t>(81) 95048-6595</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>505.693.460-70</t>
+          <t>652.672.270-99</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>598441204</t>
+          <t>732378926</t>
         </is>
       </c>
     </row>
@@ -547,25 +547,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vicente Azevedo Dias Silva</t>
+          <t>Carla Rafaela Cavalcanti Castro</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10/07/2014</t>
+          <t>30/07/2008</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -575,27 +575,27 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Autônomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>(31) 9682-2215</t>
+          <t>(49) 2042-2291</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>(31) 95292-6778</t>
+          <t>(49) 90557-9115</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>901.943.480-24</t>
+          <t>331.609.820-84</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>601420422</t>
+          <t>448525353</t>
         </is>
       </c>
     </row>
@@ -605,15 +605,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mariana Ribeira Costa</t>
+          <t>Ana Machado Oliveira</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11/12/2003</t>
+          <t>23/01/2006</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -633,27 +633,27 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Empregado: Setor público (estatutário ou militar)</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>(75) 6729-4174</t>
+          <t>(97) 8448-7746</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>(75) 96137-2005</t>
+          <t>(97) 99016-3255</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>403.997.840-47</t>
+          <t>382.861.130-39</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>805240224</t>
+          <t>040705071</t>
         </is>
       </c>
     </row>
@@ -663,15 +663,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eduardo Samuel Martins Barros</t>
+          <t>Diego Vieira Costa</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16/06/1972</t>
+          <t>05/02/2002</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -681,37 +681,37 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Autônomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>(85) 3867-3290</t>
+          <t>(63) 0983-4638</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>(85) 97287-1540</t>
+          <t>(63) 93844-8205</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>140.886.040-67</t>
+          <t>147.432.140-25</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>595777210</t>
+          <t>565549514</t>
         </is>
       </c>
     </row>
@@ -721,55 +721,5565 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sandra Freitas</t>
+          <t>Cristina Vanessa Pessoa</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>43</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10/08/1980</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(18) 0758-2608</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>(18) 97067-1576</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>828.507.280-04</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>881344974</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Samuel Santos Freitas</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29/05/2008</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Desocupado</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(66) 0990-3368</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>(66) 95547-5513</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>078.509.270-60</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>199179320</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Leticia Carvalho Lopes</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18/05/2011</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(64) 7872-7952</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>(64) 96311-5462</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>278.774.810-47</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>136549151</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Antônio Pinto</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22/12/1999</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Empregado: Setor público (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(48) 2454-8265</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>(48) 98934-9134</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>032.927.230-60</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>005700202</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alexandre Oliveira Cavalcanti</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>22</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>04/09/2001</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(15) 4532-7344</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>(15) 94064-2814</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>210.266.740-50</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>132810839</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sergio Fernandes Mendes</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20/07/2015</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(68) 3483-8828</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>(68) 94766-6225</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>335.969.370-19</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>871537829</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Daniel Felipe Silva Dias</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>23</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>09/05/2000</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(48) 9075-7465</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>(48) 92733-2911</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>842.777.010-35</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>491309619</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Leticia Andrade Pinto Pessoa Sousa</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>01/11/2021</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(49) 8530-1434</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>(49) 92115-3248</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>633.052.550-13</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>992087020</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Thiago Caio Araújo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>24</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27/06/1999</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(14) 1831-8510</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>(14) 99855-5106</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>683.675.020-43</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>072844870</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Maria Carvalho Martins Araújo Cavalcanti</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>07/04/2003</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Preta</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Autônomo: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(94) 9249-5747</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>(94) 95042-1199</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>895.455.510-11</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>650994986</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Regina Moraes Fernandes</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>28</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>03/08/1995</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sem instrução</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Empregado: Setor público (estatutário ou militar)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(83) 5264-6916</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>(83) 92280-3653</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>829.187.510-30</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>595677516</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>João Alves</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>38</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>07/05/1985</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15/10/1985</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Superior incompleto</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Empregado: Setor público (estatutário ou militar)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(24) 5451-6150</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>(24) 93112-2391</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>333.128.320-71</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>243868079</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Flávia Ferreira Cardoso</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>01/05/2007</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Feminino</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(87) 3596-4711</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>(87) 96513-9772</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>330.062.810-55</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>060897017</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Isabela Nascimento Azevedo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30/06/2016</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Outro</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(99) 2938-3322</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>(99) 95033-1078</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>338.271.420-59</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>581987031</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lucas Rocha Pessoa</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27/04/2006</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(66) 2808-1889</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>(66) 98409-9704</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>812.811.270-86</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>124757657</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Simone Lorena Fernandes Mendes</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>(68) 0548-4272</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>(68) 98949-9281</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>533.572.420-01</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>189615350</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Jessica Lorena Pires Cardoso</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24/01/1993</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>(48) 4891-0719</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>(48) 94239-2245</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>229.548.010-85</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>045322917</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Alberto Costa Cavalcanti</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10/03/2001</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Empregado: Setor público (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>(63) 5035-8800</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>(63) 97164-4100</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>343.851.850-34</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>406174182</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Elias Ferreira Rodrigues</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>28</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14/01/1995</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>(48) 4658-2714</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>(48) 98661-0958</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>533.218.790-42</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>388919675</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sueli Cristina Ramos Lima</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>05/03/1988</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>(13) 1208-0179</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>(13) 96464-6079</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>101.397.790-43</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>250323727</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Renata Mendes</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>19</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18/08/2004</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Empregado: Setor público (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>(44) 2993-4366</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>(44) 90125-6492</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>275.431.480-64</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>779294292</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Luciano Monteiro Oliveira</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>17</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>06/01/2006</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>(99) 1268-9842</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>(99) 96674-1620</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>493.478.850-61</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>754509627</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Camila Mônica Cavalcanti Lopes</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>50</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16/08/1973</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Desocupado</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>(13) 2392-3034</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>(13) 96669-8709</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>181.759.150-99</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>992897564</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Luis Pessoa Pires Lopes Barros</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>7</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11/04/2016</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>(65) 7392-4299</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>(65) 90919-9345</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>294.568.400-42</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>463453480</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jessica Alves</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22/06/2020</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>(66) 9685-4139</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>(66) 95304-4066</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>619.972.810-66</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>697851280</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Carlos Gouveia</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>19</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10/08/2004</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>(51) 3156-6030</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>(51) 91471-0932</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>333.638.760-41</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>048107080</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ricardo Cavalcanti</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>17</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>04/01/2006</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Empregado: Setor público (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(79) 6054-4855</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>(79) 97128-9204</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>902.565.960-85</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>123911216</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Gustavo Silveira Ferreira</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16/03/1973</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Outro</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Fundamental completo</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(65) 6517-7828</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>(65) 94586-5368</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>061.464.330-98</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>399867087</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Renato Dias Freitas</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>16</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>29/08/2007</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Empregado: Setor público (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(22) 9749-5051</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>(22) 96866-6674</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>408.172.650-74</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>632131832</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Thiago Monteiro Correia</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>26</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21/03/1997</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Fundamental completo</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(38) 0031-4486</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>(38) 92069-4714</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>462.428.000-80</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>919174301</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>César Santos Santana</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>22</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>05/01/2001</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>(61) 8609-7657</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>(61) 94116-0106</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>229.245.860-89</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>486026822</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Joaquim Costa</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>21</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>17/12/2002</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Autônomo: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>(93) 8251-0519</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>(93) 99037-6865</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>674.646.160-22</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>896274453</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Mariana Gomes Ferreira</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>21</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>03/07/2002</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>(11) 8737-2500</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>(11) 90101-8906</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>099.573.550-66</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>275006649</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sebastião Rocha Dias</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>18</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19/12/2005</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>(63) 8844-1225</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>(63) 90956-6278</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>813.341.330-34</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>689258571</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Renato Rocha Ferreira</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>50</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>19/05/1973</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Superior incompleto</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Autônomo: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>(75) 5350-4725</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>(75) 91832-8372</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>309.531.440-03</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>464632447</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Patrícia Cavalcanti Lopes</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17/03/2016</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>(83) 7677-6604</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>(83) 98224-3441</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>709.885.180-90</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>762056960</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nathalia Santana</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>45</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>21/12/1978</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Autônomo: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>(43) 5492-7592</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>(43) 99303-4352</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>421.161.030-96</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>808164529</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ana Monteiro</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>26</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13/05/1997</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Empregador: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>(66) 8584-2411</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>(66) 91236-2594</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>575.800.100-70</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>684943920</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Vicente Mendes Gouveia</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>23</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>18/07/2000</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>(98) 5629-2008</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>(98) 98491-7024</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>524.150.670-59</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>697656742</t>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>(99) 8615-2727</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>(99) 96698-6140</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>114.605.130-10</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>083778100</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Vicente Wagner Moraes Monteiro Carvalho Martins</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>23</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>16/11/2000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>(69) 1872-7810</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>(69) 98469-8102</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>972.213.060-95</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>627282149</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Elaine Freitas Melo</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>14</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14/11/2009</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>(16) 4844-1517</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>(16) 93461-2690</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>557.173.710-71</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>744991140</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sebastião Ricardo Andrade Correia</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>19</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>02/02/2004</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>(14) 0938-8390</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>(14) 91336-5012</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>582.808.110-10</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>222128289</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sebastião César Machado</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>06/09/2021</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>(77) 5991-5336</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>(77) 93273-0078</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>933.134.110-53</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>554175613</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Elaine Almeida Cavalcanti</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>7</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>03/05/2016</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Outro</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>(49) 1343-4347</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>(49) 92034-2480</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>574.374.190-50</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>764790293</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Luciano Almeida Santana</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>04/05/2023</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>(68) 2549-2131</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>(68) 99656-7124</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>752.748.900-67</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>006661745</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Brenda Cátia Barbosa</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>53</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14/07/1970</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Autônomo: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>(41) 6503-4777</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>(41) 97405-8618</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>728.166.210-65</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>180154972</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Tatiane Pessoa Ribeira</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>23</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>23/04/2000</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Não-Binário</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Pardo(a)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>(15) 6433-4644</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>(15) 95391-3361</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>042.142.700-02</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>650816161</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Renato Rodrigues Silva Ramos</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>17</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>30/04/2006</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>(13) 2485-9842</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>(13) 92758-9573</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>897.783.540-22</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>323838033</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Fernando César Pereira Moraes</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>36</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>28/01/1987</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>(28) 3347-6144</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>(28) 94719-5231</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>466.820.790-01</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>346974074</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Tatiana Cardoso Melo</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>36</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>03/02/1987</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>(77) 1921-5001</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>(77) 98337-1063</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>146.766.270-41</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>464936119</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Samuel Moraes Mendes</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>46</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>29/06/1977</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Fundamental completo</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>(42) 4470-8049</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>(42) 97297-9746</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>506.163.100-56</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>798607440</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Isaac Carvalho Freitas</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>12</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>07/07/2011</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>(88) 7664-1470</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>(88) 99169-3830</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>882.934.030-80</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>155555002</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Tatiane Monteiro Silva</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>23</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>03/05/2000</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>(74) 0737-2291</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>(74) 97452-4033</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>548.929.900-27</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>483192358</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Vicente Lima Machado</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>25</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>29/01/1998</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Desocupado</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>(68) 6489-8356</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>(68) 91564-6151</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>510.975.590-68</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>608724538</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Miguel Barbosa Monteiro Pereira</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>54</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>12/01/1969</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>(94) 6578-3736</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>(94) 96476-4478</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>328.747.010-84</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>225957512</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Daniel Mendes Cavalcanti</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>24</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>07/07/1999</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>(81) 3673-4244</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>(81) 90177-5569</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>940.072.960-06</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>162877854</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Aline Araújo Vieira Rodrigues</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>45</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>12/04/1978</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Desocupado</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>(71) 8292-8888</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>(71) 97510-0526</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>234.075.140-34</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>939807981</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Leonardo Vieira Martins</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>50</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>21/02/1973</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>(71) 9170-7388</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>(71) 97288-2342</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>996.978.510-93</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>043753395</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Armando Leonardo Cavalcanti Gomes Martins Nascimento</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>35</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>27/05/1988</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>(15) 9692-2375</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>(15) 99640-6519</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>008.999.770-06</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>575864615</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Vicente Rocha Pires</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>22</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>06/10/2001</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>(13) 3982-3539</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>(13) 97167-1723</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>073.537.290-07</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>799475649</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Bianca Ramos</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>53</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>30/09/1970</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>(18) 7902-2779</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>(18) 92514-9830</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>261.554.430-68</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>780959337</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Carlos Gomes Santana</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>5</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>07/02/2018</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>(44) 8174-2326</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>(44) 97906-1094</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>409.435.950-88</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>284830541</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Joaquim Luis Freitas Barbosa Andrade</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>19</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>23/06/2004</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Empregado: Setor público (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>(98) 8211-8521</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>(98) 90282-6987</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>992.797.590-27</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>883811978</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Brenda Ribeira</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>34</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>07/01/1989</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Superior incompleto</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Autônomo: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>(44) 4328-7167</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>(44) 99844-2542</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>218.475.760-87</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>407587337</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ronaldo Alexandre Pessoa Andrade</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>12</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>26/01/2011</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>(17) 3544-8065</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>(17) 90916-1052</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>745.696.170-00</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>132369056</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Eduarda Oliveira</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>20</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>22/11/2003</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>(83) 7488-0833</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>(83) 97567-8356</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>592.368.250-87</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>907490277</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Vitor Carvalho Azevedo</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>7</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>08/02/2016</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>(13) 0304-7441</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>(13) 94802-3303</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>813.297.240-62</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>929622265</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Luciano Fernandes Barbosa</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>20</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>25/11/2003</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>(43) 6294-4910</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>(43) 93381-3758</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>897.530.960-62</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>919344643</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Leandro Gonçalves Pessoa</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>11</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>21/08/2012</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>(35) 4624-0807</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>(35) 96874-0510</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>870.654.180-14</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>851864549</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Roberto Cardoso Rodrigues</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>32</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>15/02/1991</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>(12) 4957-7875</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>(12) 97325-9643</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>633.653.880-01</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>681045016</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Aline Pinto Andrade</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>25</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>28/12/1998</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Autônomo: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>(88) 7095-3474</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>(88) 94303-8140</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>420.082.780-85</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>199703424</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Amanda Nascimento</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>17</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>14/02/2006</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>(89) 3323-7277</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>(89) 92673-7221</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>434.608.000-62</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>699787466</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Daniel Lopes Ramos Gomes</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>16</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>07/03/2007</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Desocupado</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>(47) 5159-1955</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>(47) 93648-5579</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>362.648.130-10</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>528102457</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Rosana Santos</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>52</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>09/07/1971</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Fundamental completo</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>(48) 4106-1667</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>(48) 90186-7152</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>595.626.960-06</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>354845047</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>João Ribeira Pinto</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>19</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>20/03/2004</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Outro</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>(45) 8259-4456</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>(45) 95244-0428</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>393.750.870-85</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>576898652</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Maria Vieira Mendes</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>24</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>06/12/1999</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>(66) 8549-3206</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>(66) 96208-9354</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>073.142.420-46</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>981025283</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Guilherme Sousa Ferreira</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>14</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>15/11/2009</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Empregado: Setor público (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>(85) 8062-9471</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>(85) 97049-4069</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>148.647.610-43</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>180961080</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Andréa Lima Martins Costa</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>15/06/2021</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>(51) 9699-5983</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>(51) 98380-3120</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>888.613.290-55</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>606047540</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Pedro Azevedo</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>49</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>01/12/1974</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Sem instrução</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Empregador: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>(99) 4418-3481</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>(99) 98414-2268</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>533.078.780-77</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>638230221</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Fernanda Renata Cavalcanti Mendes</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>7</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>01/05/2016</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>(85) 9868-0864</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>(85) 96974-8527</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>857.852.450-00</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>257826624</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Isabela Dias Barros</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>24/08/2023</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>(51) 7404-5430</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>(51) 91744-1077</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>158.133.070-79</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>363976298</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Maria Ramos Azevedo</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>24</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>27/08/1999</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>(46) 2748-3590</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>(46) 94098-1677</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>833.931.030-59</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>423680584</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Miguel Barbosa Ferreira Melo Gonçalves</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>11</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>08/01/2012</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>(65) 7135-1900</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>(65) 94989-4781</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>472.204.610-70</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>792363409</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Márcio Andrade</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>28</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>09/10/1995</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>(61) 0950-2941</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>(61) 99664-5987</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>754.861.130-72</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>686507494</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Mariana Moraes</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>16</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>19/04/2007</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>(44) 5271-3083</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>(44) 98660-0857</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>281.175.980-86</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>854244763</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Renata Machado Melo</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>24</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>28/11/1999</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Empregado: Setor público (sem CLT)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>(17) 9069-1533</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>(17) 98800-2786</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>938.782.930-89</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>064877115</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Isaac Martins Santana</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>17</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>17/03/2006</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>(97) 6387-1459</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>(97) 92969-9376</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>770.528.600-90</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>602649025</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Guilherme Santana</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>46</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>17/04/1977</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>(37) 6530-1018</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>(37) 94483-2274</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>563.318.790-30</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>238068438</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Felipe Araújo Martins</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>23</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>03/04/2000</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>(18) 0737-1856</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>(18) 91560-1415</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>454.200.370-17</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>509265880</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Eduarda Pires Silva</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>18/06/2023</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>(92) 4995-4283</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>(92) 90700-8914</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>679.778.390-91</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>455586470</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Vinícius Araújo Cavalcanti</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>12</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>08/05/2011</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>(24) 7048-0002</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>(24) 90900-2557</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>580.894.460-00</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>185834837</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Cecília Sandra Machado Barros</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>15</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>22/05/2008</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>(64) 0212-1373</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>(64) 93565-0632</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>294.860.900-33</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>865579567</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Jéssica Bianca Ribeira Sousa Azevedo</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>24</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>27/01/1999</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>(19) 5347-9783</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>(19) 91911-1387</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>290.919.250-43</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>785069720</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Leticia Barros Rocha</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>16</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>27/03/2007</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Desocupado</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>(79) 7340-6341</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>(79) 99935-2523</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>837.435.350-33</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>680111805</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Armando Vieira Fernandes</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>7</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>02/06/2016</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>(21) 8077-4858</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>(21) 93256-9116</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>510.513.050-20</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>449636495</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Thais Tânia Ribeira Pinto</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>21</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>13/10/2002</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Desocupado</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>(51) 5415-2792</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>(51) 91893-9388</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>891.238.700-60</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>392574879</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -489,55 +489,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cecília Monteiro Pinto</t>
+          <t>Diego Ramos Barros</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>07/02/2002</t>
+          <t>05/03/1995</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Autônomo: Sem CNPJ</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>(12) 7342-9189</t>
+          <t>(41) 1417-2308</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>(12) 95146-1408</t>
+          <t>(41) 98806-7654</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>054.663.600-40</t>
+          <t>099.959.210-65</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>741258623</t>
+          <t>694640277</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,35 +499,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jéssica Renata Campos</t>
+          <t>Thiago Leandro Nascimento</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>renata_campos.jéssica@gmail.com</t>
+          <t>Thiago_Nascimento1@outlook.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>*ULAlPDsTORK</t>
+          <t>yGF3yG2dZXje</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>16/01/2003</t>
+          <t>10/11/2005</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -537,27 +537,27 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Empregado: Setor público (sem CLT)</t>
+          <t>Autônomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>(99) 0624-2254</t>
+          <t>(12) 6777-9537</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>(99) 91437-1923</t>
+          <t>(12) 98381-7262</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>493.643.180-05</t>
+          <t>841.129.630-09</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>045259769</t>
+          <t>644571768</t>
         </is>
       </c>
     </row>
@@ -567,25 +567,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nathalia Rafaela Gomes Lopes</t>
+          <t>Carla Pires Gonçalves</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>rafaela_gomes_lopes.nathalia%#!$@hotmail.com</t>
+          <t>Carla_Gonçalves2&amp;#1@hotmail.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>YYNmCumo^GM^</t>
+          <t>Dyi@o@FMu@Rz</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>17/10/2013</t>
+          <t>08/03/1984</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -595,37 +595,37 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>(79) 5335-1190</t>
+          <t>(73) 7051-4021</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>(79) 99936-5961</t>
+          <t>(73) 95093-8744</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>531.276.440-00</t>
+          <t>822.590.890-20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>236395260</t>
+          <t>035282253</t>
         </is>
       </c>
     </row>
@@ -635,25 +635,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luis Rodrigues Ribeiro</t>
+          <t>Joaquim Pinto Correia</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rodrigues_ribeiro_luis5@ig.com</t>
+          <t>Joaquim_Correia962!@hotmail.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>e-m_hQpFxxG3</t>
+          <t>(YigFqwkN1Lw</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>23/06/2000</t>
+          <t>06/05/2007</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -673,27 +673,27 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>(18) 5125-6088</t>
+          <t>(64) 1675-6884</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>(18) 97720-2213</t>
+          <t>(64) 93482-9758</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>398.193.160-22</t>
+          <t>660.800.200-92</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>341939781</t>
+          <t>702952824</t>
         </is>
       </c>
     </row>
@@ -703,35 +703,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Regina Moraes Santos</t>
+          <t>André Cavalcanti Freitas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>regina.moraes_santos26@gmail.com</t>
+          <t>André_Freitas1!@outlook.com</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>qqhsDw8Wro3!</t>
+          <t>f5kp62uDf7Ul</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>05/01/2002</t>
+          <t>26/03/2001</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -741,27 +741,27 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Empregador: Com CNPJ</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>(83) 2622-2342</t>
+          <t>(55) 4938-3552</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>(83) 92879-3030</t>
+          <t>(55) 95467-9555</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>713.772.600-38</t>
+          <t>752.450.760-71</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>713936757</t>
+          <t>500725288</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ronaldo Carvalho Lima</t>
+          <t>Sergio Ronaldo Machado Correia Nunes</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -779,17 +779,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ronaldo_carvalho_lima50@gmail.com</t>
+          <t>Sergio_Nunes023@yandex.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>cFdbGX(I+o1Q</t>
+          <t>0hbMCbt1o9aG</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>16/11/2007</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -814,22 +814,22 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>(46) 4631-6373</t>
+          <t>(18) 6142-2523</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>(46) 95359-7169</t>
+          <t>(18) 93091-8170</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>110.202.900-99</t>
+          <t>753.786.020-33</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>542061609</t>
+          <t>186224662</t>
         </is>
       </c>
     </row>
@@ -839,65 +839,65 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vicente Pereira Pessoa Ribeira</t>
+          <t>Márcio Miguel Silva Pereira</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vicente.pereira_pessoa_ribeira20@globomail.com</t>
+          <t>Márcio_Pereira%#13@gmail.com</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1u%TpjgH@daA</t>
+          <t>NLH#4wtt-zst</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>05/08/1997</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Não-Binário</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Preto(a)</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Autônomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>(51) 8646-2075</t>
+          <t>(46) 6271-3458</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>(51) 95332-2730</t>
+          <t>(46) 93001-3193</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>206.867.980-90</t>
+          <t>508.975.300-80</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>009763770</t>
+          <t>387369876</t>
         </is>
       </c>
     </row>
@@ -907,25 +907,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Patrícia Carolina Barbosa</t>
+          <t>Bianca Pereira Barros Gomes</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>patrícia.carolina_barbosa4@outlook.com</t>
+          <t>Bianca_Gomes2@yahoo.com.br</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aov&amp;dw)y3e)w</t>
+          <t>hpPpD69SuzRj</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>24/06/2012</t>
+          <t>05/09/1969</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -935,37 +935,37 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>(98) 1952-3956</t>
+          <t>(94) 6862-7876</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>(98) 97510-3329</t>
+          <t>(94) 91990-0053</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>934.993.990-83</t>
+          <t>971.141.250-03</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>745936726</t>
+          <t>113973251</t>
         </is>
       </c>
     </row>
@@ -975,35 +975,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Elaine Márcia Pinto Nogueira</t>
+          <t>Isaac Joaquim Pereira Lopes</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>márcia_pinto_nogueira.elaine98@live.com.pt</t>
+          <t>Isaac_Lopes3@gmail.com</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>)xoRpDmhqYm3</t>
+          <t>qVB^4nH1uh6d</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>29/09/2006</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1018,22 +1018,22 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>(15) 0495-7756</t>
+          <t>(95) 2848-5192</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>(15) 95173-2410</t>
+          <t>(95) 91375-3880</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>779.423.710-69</t>
+          <t>788.873.770-65</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>975359905</t>
+          <t>015281425</t>
         </is>
       </c>
     </row>
@@ -1043,25 +1043,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Vicente Campos</t>
+          <t>Daniel Almeida Lima</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>campos_vicente$43@gmail.com</t>
+          <t>Daniel_Lima9&amp;2@gmail.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rr!Vw-XMQ%E&amp;</t>
+          <t>PfidNZv-L8xW</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>29/05/1989</t>
+          <t>31/07/2023</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1071,37 +1071,37 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Autônomo: Sem CNPJ</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>(41) 9787-7633</t>
+          <t>(89) 9159-6602</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>(41) 94069-4578</t>
+          <t>(89) 91033-2455</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>512.299.040-93</t>
+          <t>479.233.420-91</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>391543343</t>
+          <t>250330287</t>
         </is>
       </c>
     </row>
@@ -1111,65 +1111,6184 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Priscila Ribeira Ferreira</t>
+          <t>Laura Freitas Campos</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Laura_Campos055@aol.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>E00yGg)dl!&amp;n</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>22/09/2003</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Outro</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Desocupado</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>(53) 2374-7470</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>(53) 98939-7890</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>648.829.270-63</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>791305424</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Andressa Ramos Silva</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Andressa_Silva840@zoho.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-%&amp;Cgd-wcndn</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>03/02/2015</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>(66) 6839-0943</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>(66) 99267-1298</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>851.937.760-27</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>530309057</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Miguel Silva</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>13</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Miguel_Silva!71@terra.com.br</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>RzUY3PvYL8$a</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>09/01/2010</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>(11) 3623-1067</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>(11) 97070-4611</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>318.490.250-10</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>466463259</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tatiana Monteiro Barbosa</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>19</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tatiana_Barbosa@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>BXFm!g&amp;du+$x</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>19/10/2004</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Empregador: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>(96) 9182-7396</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>(96) 99683-4507</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>957.738.810-80</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>445600434</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Isabela Valéria Monteiro Vieira</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>42</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Isabela_Vieira54@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6!q3gynv0vcw</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>01/05/1981</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Fundamental completo</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>(97) 2103-1079</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>(97) 93459-5887</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>332.310.470-64</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>640334615</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Carla Machado Lima</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>22</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Carla_Lima$@terra.com.br</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MCwcY-=3#Eie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>17/03/2001</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Preta</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>(55) 7229-4181</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>(55) 97477-7958</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>039.463.900-64</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>622837718</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Elias Ribeiro</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Elias_Ribeiro1@outlook.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GvzsL7dDamF+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>26/04/2019</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>(62) 9740-3660</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>(62) 95536-4294</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>645.038.220-12</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>471610796</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cátia Borges Rocha</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Cátia_Rocha1%@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>d+6YioWvR+vl</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>02/06/2018</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>(87) 8156-3430</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>(87) 90248-0842</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>886.624.210-16</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>074614874</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mariana Nascimento Oliveira</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mariana_Oliveira9094@terra.com.br</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>aQfbl5GF)S3X</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>26/04/2015</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>(14) 0844-0498</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>(14) 92795-9516</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>317.671.410-68</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>103576365</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Elaine Ramos Araújo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>52</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Elaine_Araújo4@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1GY)O@hmsFoi</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>03/10/1971</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Superior incompleto</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>(15) 3004-3463</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>(15) 96880-6285</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>501.620.350-47</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>497655909</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Andressa Barros Moraes</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>17</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Andressa_Moraes@sercomtel.com.br</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>b_CxC=$y6PNT</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>29/10/2006</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>(11) 5191-2166</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>(11) 94308-3560</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>698.664.630-52</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>120332363</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Gilberto Carvalho</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Gilberto_Carvalho35@gmail.com</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>%UW7a=99JrmA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>02/12/2016</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>(97) 3737-4475</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>(97) 94868-6628</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>321.452.160-81</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>354830629</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cristina Martins Nunes</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Cristina_Nunes%#@terra.com.br</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>jfsp$tQv(*_F</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>22/09/2022</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>(91) 8656-1520</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>(91) 96585-6716</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>354.363.290-63</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>134013176</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Roberta Vieira Nascimento</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Roberta_Nascimento81@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>E2q8KSf1TyKG</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>26/08/1993</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Preta</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Sem instrução</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>(68) 7382-7664</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>(68) 98049-8638</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>650.320.140-01</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>294238723</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ribeira_ferreira.priscila88@yahoo.com</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$!tT*9gwwDqX</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>01/01/1999</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Thais Mendes Nascimento</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Thais_Nascimento70@outlook.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>hTzvIKl#vhFi</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>07/03/2017</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>Feminino</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>(74) 9011-1200</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>(74) 91031-7698</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>660.898.820-62</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>862293062</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sergio Costa Araújo Campos</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>30</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Sergio_Campos!8@outlook.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>xuRbPuYK6ipM</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>29/09/1993</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Empregado: Setor público (estatutário ou militar)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>(92) 6562-2669</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>(92) 91148-5381</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>334.004.700-66</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>502204323</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Brenda Castro Silveira Pires Costa</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>32</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Brenda_Costa598@outlook.com</t>
+        </is>
+      </c>
+      <c r="E27">
+        <f>GIv-1$Z1uMK</f>
+        <v/>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>22/01/1991</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Branca</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>(16) 8160-9686</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>(16) 92124-9563</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>038.205.320-64</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>379724352</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Leandro Ferreira Pessoa Gomes</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>19</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Leandro_Gomes1##3@outlook.com</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Z7sUQsoAay%i</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10/05/2004</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>(13) 6442-8085</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>(13) 94861-3524</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>961.631.170-00</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>135135375</t>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>(71) 2073-3830</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>(71) 94317-7015</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>283.167.500-66</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>877812940</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sandra Lima Fernandes</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>36</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sandra_Fernandes3@ig.com.br</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>D*@QAXmoXCZJ</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>18/11/1987</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Empregador: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>(42) 8946-5197</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>(42) 96861-2033</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>422.317.890-35</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>622372070</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Roberta Mendes Almeida Lopes</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>22</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Roberta_Lopes#@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>bC4AaQpyeIO4</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>21/08/2001</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Preta</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>(18) 5646-2968</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>(18) 90614-6183</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>061.586.270-54</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>778109239</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fernanda Tatiana Silveira</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Fernanda_Silveira@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>!^RZ*_hjPD4%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>27/12/2016</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>(16) 5553-8698</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>(16) 94974-9444</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>379.050.020-80</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>163454946</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ricardo Gouveia Pires</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>12</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Ricardo_Pires0$4@gmail.com</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>gXXFE*ENPO+&amp;</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>28/05/2011</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>(45) 9041-8167</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>(45) 92300-0817</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>821.535.040-23</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>735494708</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Elaine Gouveia Santos</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>42</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Elaine_Santos494@gmail.com</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Tit*TGAutzQQ</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>25/12/1981</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Sem instrução</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Autônomo: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>(43) 9480-0475</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>(43) 99485-2150</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>363.125.050-90</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>828358139</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Giovanni Barbosa Castro Pires</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Giovanni_Pires27@brturbo.com.br</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Xh)yjE$-Nc2t</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>31/12/2008</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>(61) 0746-1087</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>(61) 93135-8321</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>922.123.450-97</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>204245650</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Leonardo Oliveira</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>23</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Leonardo_Oliveira%@terra.com.br</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>xEsOajZlCtOY</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>06/04/2000</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Empregado: Setor público (estatutário ou militar)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>(11) 8699-6565</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>(11) 91072-9004</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>312.510.560-91</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>356363804</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Isaac Campos Gomes</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>54</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Isaac_Gomes%@gmail.com</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>zHqa*_S4M)9P</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>04/09/1969</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Sem instrução</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>(66) 9624-9768</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>(66) 99426-3699</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>982.351.780-01</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>706447673</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Eduardo Santana Campos</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>13</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Eduardo_Campos0!3@gmail.com</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>FLOaGZc($JwD</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>20/10/2010</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>(54) 7319-4822</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>(54) 93133-5481</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>934.389.660-34</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>133266696</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Cátia Costa Gouveia Nunes</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>23</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Cátia_Nunes7@gmail.com</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Sq6fgFq8S0RT</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>18/10/2000</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>(71) 5514-4969</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>(71) 97018-3767</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>662.037.060-86</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>291608200</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Thais Sueli Azevedo Barros</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>21</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Thais_Barros55@zoho.com</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>sjYx@)m%^pKb</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>23/04/2002</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>(95) 0943-0120</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>(95) 95894-8322</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>007.971.830-27</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>346102784</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Leandro Carvalho Pires</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>11</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Leandro_Pires@outlook.com</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SHiUon%x1nIu</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>19/01/2012</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>(41) 5523-0017</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>(41) 94143-5508</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>014.767.770-04</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>355587960</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Vinícius Cardoso Correia</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>22</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Vinícius_Correia436@me.com</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>G0=@r8Qi=7)$</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>09/11/2001</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>(65) 3587-0270</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>(65) 95445-9180</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>100.048.070-49</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>550593370</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Armando Ribeira</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>41</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Armando_Ribeira00#$@icloud.com</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>N+I#8NfJ@+2U</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>17/04/1982</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Empregador: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>(46) 0038-7534</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>(46) 91991-2211</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>210.247.510-74</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>311706305</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Anderson Nascimento Sousa</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>17</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Anderson_Sousa01$@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>tEs@#_bLQk7-</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>07/12/2006</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>(54) 3890-8939</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>(54) 96486-2798</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>305.324.660-04</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>485410752</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sandra Moraes</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Sandra_Moraes48@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Q(#!^RQ=YkEZ</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>09/07/2018</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>(68) 6178-0398</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>(68) 91489-6700</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>725.031.150-63</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>430947030</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Álvaro Luis Sousa</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>23</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Álvaro_Sousa#@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>$DDRT$#BHXGE</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>28/01/2000</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>(62) 6597-8058</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>(62) 99344-4337</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>460.822.760-27</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>052487189</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Geraldo Santos Costa</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>15</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Geraldo_Costa%2@gmail.com</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>d!04mXN2Al#O</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>19/11/2008</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>(41) 7379-9133</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>(41) 99667-1701</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>477.926.860-51</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>784467319</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Gustavo Ramos Monteiro Fernandes Alves</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Gustavo_Alves7$&amp;6@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>H!inXYzsPHQo</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>30/07/2020</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>(19) 3962-3018</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>(19) 97531-8484</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>713.640.840-74</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>205961970</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ricardo Borges</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>21</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Ricardo_Borges6@me.com</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NSZ^Z0p5#jS-</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>03/02/2002</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>(91) 6107-3700</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>(91) 93780-5300</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>747.373.650-76</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>568666387</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Patrícia Rafaela Martins Ramos</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>44</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Patrícia_Ramos$@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>aFeXQeAt7#(m</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>29/05/1979</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>(22) 8431-0845</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>(22) 92190-4099</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>938.590.820-00</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>543552454</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Brenda Barbosa Silveira</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>17</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Brenda_Silveira$73@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>F4vkgiw9-Ono</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>01/04/2006</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>(84) 2060-5412</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>(84) 91461-4750</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>270.355.530-02</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>606450907</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Ana Priscila Campos Andrade</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>32</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Ana_Andrade8@live.com.pt</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>MaaLVw1HLcM4</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>22/01/1991</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Preta</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>(43) 5286-6786</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>(43) 98082-7857</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>372.520.170-60</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>464386465</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Rosana Cardoso Lopes</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>28</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Rosana_Lopes6@uol.com.br</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>5P!iKcTnYUw4</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>15/12/1995</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>(48) 9925-8636</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>(48) 99573-0801</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>513.147.740-93</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>482464517</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Álvaro Correia Rocha</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>41</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Álvaro_Rocha%&amp;@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>5CNu#HW4efVx</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>21/04/1982</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Médio incompleto</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>(74) 4455-0823</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>(74) 92550-2787</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>021.894.750-07</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>456701833</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Roberta Silveira Cavalcanti</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>19</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Roberta_Cavalcanti&amp;%@oi.com.br</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>U8F9=4y1Ru*!</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>17/12/2004</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>(14) 6073-1616</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>(14) 90700-6146</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>057.402.060-81</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>162120018</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Cátia Natália Castro Lopes</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Cátia_Lopes73#@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>tQs)%buaM)hY</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>08/08/2019</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>(32) 0411-8640</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>(32) 99209-2667</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>718.673.330-15</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>790251393</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Lorena Monteiro</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>18</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Lorena_Monteiro!$@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>V_zkOv-a^FeX</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>07/07/2005</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>(35) 9942-5895</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>(35) 94823-7954</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>015.284.420-16</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>201544722</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Antônio Nogueira Barros</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>38</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Antônio_Barros0@mail.com</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>*xHYDUOJTq_h</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>30/11/1985</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Fundamental completo</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>(42) 4813-8955</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>(42) 95560-3289</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>460.072.550-69</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>214896353</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Raul Santana Mendes Martins</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Raul_Martins683@r7.com</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Fa7A&amp;zQjw$lW</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>23/05/2018</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>(49) 4484-4200</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>(49) 99009-4586</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>281.850.660-35</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>528807905</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Ricardo Ribeiro Silva</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Ricardo_Silva0@gmail.com</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Hd5Orp)s2lld</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>11/06/2023</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>(51) 3076-7956</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>(51) 93020-7765</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>696.181.410-71</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>989243953</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Isabela Nogueira Silveira</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Isabela_Silveira$62@gmail.com</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>_xY)RHu20EC!</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>27/09/2019</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>(13) 3377-8031</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>(13) 93749-8255</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>148.196.460-79</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>592337519</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Márcia Silva Castro</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>41</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Márcia_Castro882@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>fi&amp;K*5hqSjJL</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>12/02/1982</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Empregado: Setor público (sem CLT)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>(14) 9119-7269</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>(14) 90772-7898</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>354.243.450-77</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>349328009</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Andressa Oliveira Costa Correia</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>16</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Andressa_Correia@outlook.com</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>A8Y*kgLUL$V@</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>18/06/2007</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>(14) 8966-5322</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>(14) 95789-3468</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>484.855.200-17</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>479118494</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Eduarda Vanessa Santana Ramos</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>5</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Eduarda_Ramos2&amp;@live.com</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>wVTAX3Eq%mDd</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>08/05/2018</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>(62) 4057-9192</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>(62) 98423-9843</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>884.890.530-73</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>543303079</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Renata Moraes Lima</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>48</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Renata_Lima18@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>e=h$YHKO#9rR</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>30/08/1975</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Fundamental completo</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>(69) 4633-5361</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>(69) 94507-8979</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>923.392.760-12</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>823063708</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Luciano Renato Gouveia Alves</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>37</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Luciano_Alves60!@outlook.com</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>6ZbztuV)do+p</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>19/02/1986</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>(35) 6828-3759</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>(35) 94195-8112</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>149.730.290-09</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>965165371</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Jéssica Andrade Santos</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>28</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Jéssica_Santos@outlook.com</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>c7-isLpzi7Df</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>22/01/1995</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>(45) 0873-8936</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>(45) 97598-4545</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>245.097.810-08</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>214628113</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Simone Silveira Mendes</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Simone_Mendes3#7@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>fOfbbWvZ)V#y</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>30/08/2021</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>(18) 6637-9662</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>(18) 97369-8597</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>082.133.890-00</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>723921757</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Anderson Carvalho Lopes</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>16</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Anderson_Lopes5&amp;%7@outlook.com</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>EBwQkhEDWW-7</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>11/06/2007</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>(51) 3008-3060</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>(51) 93113-8485</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>678.514.890-16</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>203277218</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Roberta Dias</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>18</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Roberta_Dias4@gmail.com</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>)J1)y^==wtKT</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>21/08/2005</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Outro</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>(93) 7660-4351</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>(93) 96905-2759</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>291.417.590-60</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>407695042</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Lorena Silva Rodrigues Pires</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>41</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Lorena_Pires1#0@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>VsgB13&amp;wEtVK</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>18/02/1982</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>(43) 9774-9519</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>(43) 92690-4162</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>097.589.650-42</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>036931090</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Rosana Costa Araújo</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>18</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Rosana_Araújo&amp;@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>mp%BBOrQeed4</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>07/10/2005</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (sem CLT)</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>(65) 8832-7316</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>(65) 95059-7280</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>488.030.170-11</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>735398777</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Gilberto Barbosa Nunes</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>29</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Gilberto_Nunes1@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>#-#uhZhGmvkU</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>06/07/1994</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Médio incompleto</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Empregador: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>(84) 7585-8575</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>(84) 95586-6743</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>303.941.870-08</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>338014982</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Mariana Silva Gouveia</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>30</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Mariana_Gouveia%%@outlook.com</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>+OjyJRRcDl5S</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>26/09/1993</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Desocupado</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>(15) 1015-9768</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>(15) 92874-1649</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>824.221.010-11</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>805240808</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Luciano Ramos Castro</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>21</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Luciano_Castro9@mail.com</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>5gAs2_eN!yS7</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>24/09/2002</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Desocupado</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>(94) 0158-4099</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>(94) 98571-1223</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>354.066.230-87</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>149077494</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Rosana Gouveia Alves Nascimento</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>12</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Rosana_Nascimento33@outlook.com</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>P)GJOzmnojkb</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>13/03/2011</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>(69) 4799-9914</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>(69) 91244-0142</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>619.243.350-00</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>990883808</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Miguel Costa Ribeiro</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>12</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Miguel_Ribeiro831@globomail.com</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>01z7A8Oj_vNi</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>07/08/2011</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>(49) 0854-0227</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>(49) 92606-2135</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>037.996.600-03</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>720229173</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Luis Andrade Ferreira</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>23</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Luis_Ferreira33@terra.com.br</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>gfuPl^1nQ-tU</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>18/01/2000</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>(44) 5331-0562</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>(44) 96078-2118</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>393.598.080-91</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>231316048</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Carolina Jessica Dias Machado</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>17</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Carolina_Machado&amp;%@gmail.com</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>-jnpueD!VeiT</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>08/04/2006</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>(42) 2767-0151</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>(42) 94605-3460</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>560.368.120-94</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>991673595</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Carla Monteiro</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>18</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Carla_Monteiro6@gmx.com</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>N95iu0$o75Ak</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>21/08/2005</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>(11) 4585-6322</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>(11) 93621-2042</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>894.310.660-25</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>081594653</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>João Geraldo Andrade Rodrigues</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>23</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>João_Rodrigues4%!!@gmail.com</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>T(Fz2(9hm0eA</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>10/06/2000</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>(92) 8455-7785</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>(92) 91899-1472</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>334.702.700-07</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>119421669</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Sebastião Cavalcanti Mendes</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>14</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Sebastião_Mendes6@globomail.com</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>80EZzWRAw7uA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>23/03/2009</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>(46) 7532-8562</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>(46) 90013-8582</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>503.298.350-09</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>269710848</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Sandra Cavalcanti Melo</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>30</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Sandra_Melo5%@outlook.com</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>uctYRHj!5Q63</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>08/10/1993</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Preta</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Desocupado</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>(21) 6985-8444</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>(21) 98297-4172</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>348.362.150-48</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>416850506</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>César Correia</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>46</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>César_Correia@outlook.com</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>LK#j*9cKKEod</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>21/02/1977</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>(55) 8612-8782</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>(55) 95212-6644</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>908.658.490-05</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>256900203</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Alexandre Armando Barros Almeida</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>50</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Alexandre_Almeida23!@outlook.com</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>zVXbOK!#UVVR</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>21/04/1973</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Empregador: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>(51) 3258-2813</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>(51) 95596-3015</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>553.601.230-44</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>459076739</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Elias Vinícius Alves Correia</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>46</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Elias_Correia1&amp;2@brturbo.com.br</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>x@ctZriWODiK</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>28/09/1977</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Branco</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>(35) 5599-5738</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>(35) 93043-4999</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>923.525.180-08</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>783041583</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Camila Lopes Moraes</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>15</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Camila_Moraes98$@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-XKfr=CxsI3p</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>16/10/2008</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>(94) 8531-5074</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>(94) 92982-8151</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>971.119.910-60</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>096151959</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Mariana Silva Costa</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>32</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Mariana_Costa024@gmail.com</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>sBh@1njfJby)</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>25/04/1991</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Autônomo: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>(68) 2256-8993</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>(68) 91762-8646</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>896.613.740-74</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>179468310</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Guilherme Vieira Nascimento</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>39</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Guilherme_Nascimento3@terra.com.br</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>ObIoC0=E$Qx0</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>30/01/1984</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>(86) 5021-1873</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>(86) 91714-7511</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>427.759.060-87</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>561602026</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Brenda Pires Castro</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>16</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Brenda_Castro@r7.com</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>PX3wEKoT&amp;=B2</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>21/09/2007</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>(54) 8379-7683</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>(54) 90682-1812</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>569.986.040-17</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>939097150</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Luis Silveira Ribeira</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>39</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Luis_Ribeira82@gmail.com</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2Q+ScfJmd)vh</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>13/05/1984</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Não-Binário</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Pardo(a)</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Fundamental incompleto</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>(97) 7365-6802</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>(97) 97441-6442</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>142.694.060-20</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>484564092</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Patrícia Dias Costa</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>20</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Patrícia_Costa7@yandex.com</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>k_Qibgdof&amp;Fy</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>19/03/2003</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Autônomo: Sem CNPJ</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>(95) 3684-3651</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>(95) 90897-2573</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>414.034.650-70</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>496450641</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Thais Simone Nunes Rocha</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>15</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Thais_Rocha9544@brturbo.com.br</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>EzagM*K!$me1</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>01/08/2008</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>(62) 3200-9881</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>(62) 97625-6699</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>234.891.230-93</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>576917630</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Amanda Lima Costa Vieira</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>11</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Amanda_Vieira@gmail.com</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>YUwhul!uO1jU</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>18/03/2012</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>(83) 1873-0540</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>(83) 91625-5999</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>987.052.800-79</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>126715607</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Tatiane Cavalcanti Pinto</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>22</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Tatiane_Pinto3@outlook.com</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>vm7f#G8=p62$</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>05/07/2001</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Desocupado</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>(34) 6895-5610</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>(34) 90293-5351</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>146.591.390-42</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>653421671</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Mariana Melo</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>19</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Mariana_Melo8#@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>ivZiXE6xdQ%c</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>29/11/2004</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>(92) 1846-5693</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>(92) 99699-1019</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>846.334.270-16</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>227634625</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Jessica Campos Silva</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>35</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Jessica_Silva580@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>DPQf_=nf+hrg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>25/05/1988</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Desocupado</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>(33) 8746-6841</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>(33) 99279-1832</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>135.114.210-04</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>009516267</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Diego Pinto</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>27</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Diego_Pinto8$!8@gmail.com</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>xDoTVzNy#SI7</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>29/06/1996</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Preto</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Autônomo: Com CNPJ</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>(65) 1409-5319</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>(65) 95183-8269</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>110.564.650-50</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>886624599</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Simone Mariana Ribeiro</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>24</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Simone_Ribeiro16#@gmail.com</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>E=jSVKpn%Fn%</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>04/03/1999</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Empregado: Setor privado (CLT)</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>(91) 2907-8798</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>(91) 98860-8436</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>344.992.140-17</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>153494853</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Sueli Carvalho Lopes</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>8</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Sueli_Lopes15@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>ME&amp;3pN5Uu)sE</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>12/09/2015</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>(83) 6007-4851</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>(83) 98721-5968</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>895.661.630-29</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>683287687</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Felipe Santana Ribeira</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>22</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Felipe_Ribeira0#9@zipmail.com.br</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>LS&amp;-q^5x+^b)</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>03/05/2001</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Pardo</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Empregado: Setor público (sem CLT)</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>(44) 9030-4906</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>(44) 93694-6072</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>658.058.070-41</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>533165046</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Jéssica Cardoso Ribeira</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>11</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Jéssica_Ribeira682@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>KTzvNd4g0a0+</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>25/08/2012</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Parda</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Fora da força de trabalho</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>(44) 7902-2597</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>(44) 95156-0439</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>491.942.580-58</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>834772408</t>
         </is>
       </c>
     </row>

--- a/perfis_generated_openpyxl.xlsx
+++ b/perfis_generated_openpyxl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,30 +464,35 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Nome da Mãe</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Educação</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Ocupação</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Telefone</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Celular</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>CPF</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>CEP</t>
         </is>
@@ -499,25 +504,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thiago Leandro Nascimento</t>
+          <t>Thiago Correia Silveira Rodrigues</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Thiago_Nascimento1@outlook.com</t>
+          <t>Thiago_Rodrigues$@ig.com.br</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>yGF3yG2dZXje</t>
+          <t>q-SFtf2viMv0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10/11/2005</t>
+          <t>11/03/2013</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -527,37 +532,42 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>Lorena Silveira</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Autônomo: Sem CNPJ</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>(12) 6777-9537</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>(12) 98381-7262</t>
+          <t>(35) 8732-6271</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>841.129.630-09</t>
+          <t>(35) 94014-4860</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>644571768</t>
+          <t>734.147.710-55</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>068698259</t>
         </is>
       </c>
     </row>
@@ -567,65 +577,70 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carla Pires Gonçalves</t>
+          <t>Caio Raul Alves Lima Ramos</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Carla_Gonçalves2&amp;#1@hotmail.com</t>
+          <t>Caio_Ramos3@hotmail.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dyi@o@FMu@Rz</t>
+          <t>D(=owr!UEpSC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>08/03/1984</t>
+          <t>03/02/2010</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Rafaela Lima</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>(73) 7051-4021</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>(73) 95093-8744</t>
+          <t>(42) 8970-0306</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>822.590.890-20</t>
+          <t>(42) 96569-7983</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>035282253</t>
+          <t>014.492.540-04</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>700962710</t>
         </is>
       </c>
     </row>
@@ -635,25 +650,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joaquim Pinto Correia</t>
+          <t>Wagner Cardoso</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Joaquim_Correia962!@hotmail.com</t>
+          <t>Wagner_Cardoso@hotmail.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(YigFqwkN1Lw</t>
+          <t>YNtLs4xTxawZ</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>06/05/2007</t>
+          <t>25/06/2002</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -663,37 +678,42 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>Amanda Cardoso</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>(64) 1675-6884</t>
+          <t>Autônomo: Com CNPJ</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>(64) 93482-9758</t>
+          <t>(93) 0595-7228</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>660.800.200-92</t>
+          <t>(93) 91428-7252</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>702952824</t>
+          <t>296.727.120-90</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>578472772</t>
         </is>
       </c>
     </row>
@@ -703,65 +723,70 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>André Cavalcanti Freitas</t>
+          <t>Laura Gonçalves Ferreira</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>André_Freitas1!@outlook.com</t>
+          <t>Laura_Ferreira&amp;0#@ig.com.br</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>f5kp62uDf7Ul</t>
+          <t>MISpwjnr61^1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>26/03/2001</t>
+          <t>23/07/2017</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>Sueli Ferreira</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Empregador: Com CNPJ</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>(55) 4938-3552</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>(55) 95467-9555</t>
+          <t>(68) 3962-1227</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>752.450.760-71</t>
+          <t>(68) 93394-5775</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>500725288</t>
+          <t>849.139.150-96</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>445430494</t>
         </is>
       </c>
     </row>
@@ -771,65 +796,70 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sergio Ronaldo Machado Correia Nunes</t>
+          <t>Regina Azevedo Ramos</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sergio_Nunes023@yandex.com</t>
+          <t>Regina_Ramos1&amp;89@terra.com.br</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0hbMCbt1o9aG</t>
+          <t>lIMK_BQ!OgZt</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>16/11/2007</t>
+          <t>07/09/2000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>Bianca Ramos</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>(18) 6142-2523</t>
+          <t>Empregador: Com CNPJ</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>(18) 93091-8170</t>
+          <t>(75) 8333-0429</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>753.786.020-33</t>
+          <t>(75) 90057-8437</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>186224662</t>
+          <t>079.699.930-95</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>206081961</t>
         </is>
       </c>
     </row>
@@ -839,25 +869,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Márcio Miguel Silva Pereira</t>
+          <t>Joaquim Freitas Oliveira Moraes</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Márcio_Pereira%#13@gmail.com</t>
+          <t>Joaquim_Moraes74@hotmail.com</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NLH#4wtt-zst</t>
+          <t>g&amp;E%Dv+(O*IG</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>05/08/1997</t>
+          <t>28/07/1983</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -867,37 +897,42 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>Fernanda Oliveira</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>Fundamental incompleto</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Autônomo: Sem CNPJ</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>(46) 6271-3458</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>(46) 93001-3193</t>
+          <t>(41) 0858-6751</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>508.975.300-80</t>
+          <t>(41) 92880-1690</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>387369876</t>
+          <t>103.182.580-05</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>772174568</t>
         </is>
       </c>
     </row>
@@ -907,25 +942,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bianca Pereira Barros Gomes</t>
+          <t>Valéria Mendes Vieira Campos Andrade</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bianca_Gomes2@yahoo.com.br</t>
+          <t>Valéria_Andrade$834@ig.com</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>hpPpD69SuzRj</t>
+          <t>rWhX#fva-Wzg</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>05/09/1969</t>
+          <t>10/07/2005</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -935,37 +970,42 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Lorena Vieira</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>(94) 6862-7876</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>(94) 91990-0053</t>
+          <t>(62) 5839-0504</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>971.141.250-03</t>
+          <t>(62) 90836-4901</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>113973251</t>
+          <t>483.802.560-26</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>205076915</t>
         </is>
       </c>
     </row>
@@ -975,65 +1015,70 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isaac Joaquim Pereira Lopes</t>
+          <t>Tatiane Correia Monteiro</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Isaac_Lopes3@gmail.com</t>
+          <t>Tatiane_Monteiro#@gmail.com</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>qVB^4nH1uh6d</t>
+          <t>Gh)$eiG#@H8G</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>14/04/2006</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>Carla Monteiro</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Fora da força de trabalho</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>(95) 2848-5192</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>(95) 91375-3880</t>
+          <t>(65) 4556-8786</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>788.873.770-65</t>
+          <t>(65) 93989-5178</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>015281425</t>
+          <t>308.971.870-75</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>372075071</t>
         </is>
       </c>
     </row>
@@ -1043,65 +1088,70 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Daniel Almeida Lima</t>
+          <t>Simone Dias</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Daniel_Lima9&amp;2@gmail.com</t>
+          <t>Simone_Dias3#$@hotmail.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PfidNZv-L8xW</t>
+          <t>R(pQnKCR^1G1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>31/07/2023</t>
+          <t>14/03/2006</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>Carla Dias</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Fora da força de trabalho</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>(89) 9159-6602</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>(89) 91033-2455</t>
+          <t>(96) 9583-1791</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>479.233.420-91</t>
+          <t>(96) 96687-8359</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>250330287</t>
+          <t>836.526.770-56</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>637533500</t>
         </is>
       </c>
     </row>
@@ -1111,65 +1161,70 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Laura Freitas Campos</t>
+          <t>Carla Juliana Rocha Monteiro Rodrigues Ribeiro</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Laura_Campos055@aol.com</t>
+          <t>Carla_Ribeiro94@hotmail.com</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>E00yGg)dl!&amp;n</t>
+          <t>#M$=aV5%^I#L</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>22/09/2003</t>
+          <t>14/05/2005</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Não-Binário</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Pardo(a)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>Thais Rocha</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Desocupado</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>(53) 2374-7470</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>(53) 98939-7890</t>
+          <t>(98) 0419-2752</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>648.829.270-63</t>
+          <t>(98) 94294-1249</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>791305424</t>
+          <t>056.386.770-11</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>535285457</t>
         </is>
       </c>
     </row>
@@ -1179,65 +1234,70 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Andressa Ramos Silva</t>
+          <t>Samuel Luciano Rodrigues Borges Andrade</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Andressa_Silva840@zoho.com</t>
+          <t>Samuel_Andrade!!02@terra.com.br</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-%&amp;Cgd-wcndn</t>
+          <t>8V(wsK@J=I+c</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>03/02/2015</t>
+          <t>21/03/1997</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Márcia Andrade</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>(66) 6839-0943</t>
+          <t>Autônomo: Com CNPJ</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>(66) 99267-1298</t>
+          <t>(55) 9939-5739</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>851.937.760-27</t>
+          <t>(55) 92996-4595</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>530309057</t>
+          <t>835.839.420-94</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>945408129</t>
         </is>
       </c>
     </row>
@@ -1247,65 +1307,70 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Miguel Silva</t>
+          <t>Cátia Simone Ribeira Pinto</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Miguel_Silva!71@terra.com.br</t>
+          <t>Cátia_Pinto9972@brturbo.com.br</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RzUY3PvYL8$a</t>
+          <t>dp*o&amp;SRws7*B</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>09/01/2010</t>
+          <t>01/06/1986</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Larissa Pinto</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>(11) 3623-1067</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>(11) 97070-4611</t>
+          <t>(61) 3712-9995</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>318.490.250-10</t>
+          <t>(61) 98384-3972</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>466463259</t>
+          <t>106.438.880-98</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>617701595</t>
         </is>
       </c>
     </row>
@@ -1315,25 +1380,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tatiana Monteiro Barbosa</t>
+          <t>Patrícia Ana Nunes Santos</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tatiana_Barbosa@gmail.com</t>
+          <t>Patrícia_Santos7@pop.com.br</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BXFm!g&amp;du+$x</t>
+          <t>bHH#t29b&amp;sRi</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>19/10/2004</t>
+          <t>12/08/1984</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1343,37 +1408,42 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Jéssica Santos</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Empregador: Com CNPJ</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>(96) 9182-7396</t>
+          <t>Empregado: Setor público (sem CLT)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>(96) 99683-4507</t>
+          <t>(31) 9447-3323</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>957.738.810-80</t>
+          <t>(31) 99252-0524</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>445600434</t>
+          <t>195.592.250-06</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>239315254</t>
         </is>
       </c>
     </row>
@@ -1383,25 +1453,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Isabela Valéria Monteiro Vieira</t>
+          <t>Sueli Rocha Machado</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Isabela_Vieira54@hotmail.com</t>
+          <t>Sueli_Machado84@gmail.com</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6!q3gynv0vcw</t>
+          <t>mnHEL9oA)%q6</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>01/05/1981</t>
+          <t>17/06/1990</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1416,32 +1486,37 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>Carla Machado</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>Fundamental completo</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>(97) 2103-1079</t>
+          <t>Autônomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>(97) 93459-5887</t>
+          <t>(16) 8041-8255</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>332.310.470-64</t>
+          <t>(16) 94509-1962</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>640334615</t>
+          <t>562.891.940-38</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>900679987</t>
         </is>
       </c>
     </row>
@@ -1451,65 +1526,70 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Carla Machado Lima</t>
+          <t>Daniel Ribeira Azevedo</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Carla_Lima$@terra.com.br</t>
+          <t>Daniel_Azevedo39@hotmail.com</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MCwcY-=3#Eie</t>
+          <t>xxzDOfvqeW_=</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>17/03/2001</t>
+          <t>01/03/2007</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>Karla Azevedo</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Empregado: Setor privado (CLT)</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>(55) 7229-4181</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>(55) 97477-7958</t>
+          <t>(96) 4962-7847</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>039.463.900-64</t>
+          <t>(96) 92653-4227</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>622837718</t>
+          <t>336.866.750-56</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>335102765</t>
         </is>
       </c>
     </row>
@@ -1519,65 +1599,70 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Elias Ribeiro</t>
+          <t>Roberta Oliveira</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Elias_Ribeiro1@outlook.com</t>
+          <t>Roberta_Oliveira34@gmail.com</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GvzsL7dDamF+</t>
+          <t>ONwcxYW(KPdf</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>26/04/2019</t>
+          <t>29/12/2008</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>Sueli Oliveira</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Fora da força de trabalho</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>(62) 9740-3660</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>(62) 95536-4294</t>
+          <t>(35) 6792-9823</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>645.038.220-12</t>
+          <t>(35) 95690-5664</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>471610796</t>
+          <t>885.690.410-12</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>157274705</t>
         </is>
       </c>
     </row>
@@ -1587,65 +1672,70 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cátia Borges Rocha</t>
+          <t>César Cardoso Nascimento</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cátia_Rocha1%@yahoo.com</t>
+          <t>César_Nascimento659!@gmail.com</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>d+6YioWvR+vl</t>
+          <t>pkoqEMDZ7Y-U</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>02/06/2018</t>
+          <t>08/01/2004</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>Rosana Nascimento</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>(87) 8156-3430</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>(87) 90248-0842</t>
+          <t>(14) 4833-5252</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>886.624.210-16</t>
+          <t>(14) 94055-2281</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>074614874</t>
+          <t>062.348.120-07</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>170302981</t>
         </is>
       </c>
     </row>
@@ -1655,65 +1745,70 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mariana Nascimento Oliveira</t>
+          <t>Elias Gomes</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mariana_Oliveira9094@terra.com.br</t>
+          <t>Elias_Gomes18@gmail.com</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>aQfbl5GF)S3X</t>
+          <t>D3ixMOvc(K1j</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>26/04/2015</t>
+          <t>21/05/2007</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>Ana Gomes</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Fora da força de trabalho</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>(14) 0844-0498</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>(14) 92795-9516</t>
+          <t>(91) 6266-7958</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>317.671.410-68</t>
+          <t>(91) 95991-5132</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>103576365</t>
+          <t>164.274.940-07</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>537865875</t>
         </is>
       </c>
     </row>
@@ -1723,25 +1818,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Elaine Ramos Araújo</t>
+          <t>Andréa Gomes Correia</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Elaine_Araújo4@yahoo.com</t>
+          <t>Andréa_Correia608@gmail.com</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1GY)O@hmsFoi</t>
+          <t>jdt5x$yh=x43</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>03/10/1971</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1751,37 +1846,42 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Superior incompleto</t>
+          <t>Ana Correia</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Autônomo: Sem CNPJ</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>(15) 3004-3463</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>(15) 96880-6285</t>
+          <t>(32) 8773-1669</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>501.620.350-47</t>
+          <t>(32) 92941-5385</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>497655909</t>
+          <t>524.953.990-45</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>083926182</t>
         </is>
       </c>
     </row>
@@ -1791,65 +1891,70 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Andressa Barros Moraes</t>
+          <t>Álvaro Lima</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Andressa_Moraes@sercomtel.com.br</t>
+          <t>Álvaro_Lima108@r7.com</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>b_CxC=$y6PNT</t>
+          <t>IEu+EGqN6z!n</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>29/10/2006</t>
+          <t>09/12/1998</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Simone Lima</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>(11) 5191-2166</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>(11) 94308-3560</t>
+          <t>(88) 4520-9932</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>698.664.630-52</t>
+          <t>(88) 92505-5052</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>120332363</t>
+          <t>809.961.940-45</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>088819234</t>
         </is>
       </c>
     </row>
@@ -1859,65 +1964,70 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Gilberto Carvalho</t>
+          <t>Priscila Pinto Sousa</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Gilberto_Carvalho35@gmail.com</t>
+          <t>Priscila_Sousa04@yahoo.com</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>%UW7a=99JrmA</t>
+          <t>FB=^_$pt=%K1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>02/12/2016</t>
+          <t>22/01/1999</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>Rosana Sousa</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>(97) 3737-4475</t>
+          <t>Autônomo: Com CNPJ</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>(97) 94868-6628</t>
+          <t>(38) 9649-2394</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>321.452.160-81</t>
+          <t>(38) 99496-4245</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>354830629</t>
+          <t>260.772.590-98</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>849477050</t>
         </is>
       </c>
     </row>
@@ -1927,25 +2037,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cristina Martins Nunes</t>
+          <t>Mônica Santos</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cristina_Nunes%#@terra.com.br</t>
+          <t>Mônica_Santos8$7@yahoo.com.br</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>jfsp$tQv(*_F</t>
+          <t>PcCEt8s9l5)!</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>05/07/2007</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1955,37 +2065,42 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>Ana Santos</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Fora da força de trabalho</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>(91) 8656-1520</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>(91) 96585-6716</t>
+          <t>(62) 5639-8434</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>354.363.290-63</t>
+          <t>(62) 96198-1815</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>134013176</t>
+          <t>195.386.040-08</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>234267340</t>
         </is>
       </c>
     </row>
@@ -1995,25 +2110,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Roberta Vieira Nascimento</t>
+          <t>Camila Nathalia Gonçalves</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Roberta_Nascimento81@hotmail.com</t>
+          <t>Camila_Gonçalves4@gmail.com</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>E2q8KSf1TyKG</t>
+          <t>nxM9=3HS4+@v</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>26/08/1993</t>
+          <t>24/06/1986</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2028,32 +2143,37 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Sem instrução</t>
+          <t>Tatiana Gonçalves</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>Fundamental completo</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>(68) 7382-7664</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>(68) 98049-8638</t>
+          <t>(87) 1292-9656</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>650.320.140-01</t>
+          <t>(87) 98441-6482</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>294238723</t>
+          <t>893.285.780-60</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>008158778</t>
         </is>
       </c>
     </row>
@@ -2063,65 +2183,70 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Thais Mendes Nascimento</t>
+          <t>Roberto Gonçalves Machado Freitas</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Thais_Nascimento70@outlook.com</t>
+          <t>Roberto_Freitas63@me.com</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>hTzvIKl#vhFi</t>
+          <t>J069384mTlfQ</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>07/03/2017</t>
+          <t>04/05/2020</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>Tatiana Machado</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Fora da força de trabalho</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>(74) 9011-1200</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>(74) 91031-7698</t>
+          <t>(27) 7819-0864</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>660.898.820-62</t>
+          <t>(27) 97696-0260</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>862293062</t>
+          <t>013.853.740-20</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>935769070</t>
         </is>
       </c>
     </row>
@@ -2131,25 +2256,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sergio Costa Araújo Campos</t>
+          <t>Giovanni Freitas Almeida</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sergio_Campos!8@outlook.com</t>
+          <t>Giovanni_Almeida7931@yahoo.com</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>xuRbPuYK6ipM</t>
+          <t>MxZIOeGJp%^F</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>29/09/1993</t>
+          <t>26/09/2013</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2159,37 +2284,42 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Aline Almeida</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Empregado: Setor público (estatutário ou militar)</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>(92) 6562-2669</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>(92) 91148-5381</t>
+          <t>(62) 3812-5891</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>334.004.700-66</t>
+          <t>(62) 93836-8894</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>502204323</t>
+          <t>951.987.340-63</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>442406132</t>
         </is>
       </c>
     </row>
@@ -2199,24 +2329,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Brenda Castro Silveira Pires Costa</t>
+          <t>Carla Campos Gomes Fernandes</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Brenda_Costa598@outlook.com</t>
-        </is>
-      </c>
-      <c r="E27">
-        <f>GIv-1$Z1uMK</f>
-        <v/>
+          <t>Carla_Fernandes!@yahoo.com</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>IHuAl6FSUHg8</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>22/01/1991</t>
+          <t>17/06/2007</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2231,32 +2362,37 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Tânia Fernandes</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>(16) 8160-9686</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>(16) 92124-9563</t>
+          <t>(33) 5069-3697</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>038.205.320-64</t>
+          <t>(33) 90793-0653</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>379724352</t>
+          <t>814.768.150-03</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>903223348</t>
         </is>
       </c>
     </row>
@@ -2266,25 +2402,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Leandro Ferreira Pessoa Gomes</t>
+          <t>Daniel Freitas Machado Barros</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Leandro_Gomes1##3@outlook.com</t>
+          <t>Daniel_Barros0$@yahoo.com</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Z7sUQsoAay%i</t>
+          <t>h-hLDF2eTBuq</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10/05/2004</t>
+          <t>11/09/1974</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2294,37 +2430,42 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Luiza Machado</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>(71) 2073-3830</t>
-        </is>
-      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>(71) 94317-7015</t>
+          <t>(32) 1458-0974</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>283.167.500-66</t>
+          <t>(32) 95585-7659</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>877812940</t>
+          <t>491.447.360-70</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>280031173</t>
         </is>
       </c>
     </row>
@@ -2334,25 +2475,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sandra Lima Fernandes</t>
+          <t>Camila Nascimento Lima Monteiro Castro</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sandra_Fernandes3@ig.com.br</t>
+          <t>Camila_Castro54@globomail.com</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>D*@QAXmoXCZJ</t>
+          <t>7=XB33Cu+HIr</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>18/11/1987</t>
+          <t>09/10/1995</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2362,37 +2503,42 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Fernanda Lima</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Empregador: Com CNPJ</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>(42) 8946-5197</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>(42) 96861-2033</t>
+          <t>(67) 1725-0831</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>422.317.890-35</t>
+          <t>(67) 99809-5194</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>622372070</t>
+          <t>866.173.670-65</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>249289410</t>
         </is>
       </c>
     </row>
@@ -2402,65 +2548,70 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Roberta Mendes Almeida Lopes</t>
+          <t>Roberto Nunes Moraes</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Roberta_Lopes#@hotmail.com</t>
+          <t>Roberto_Moraes2!0@yahoo.com</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>bC4AaQpyeIO4</t>
+          <t>NpbbvLB#5xvo</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>21/08/2001</t>
+          <t>22/02/2015</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>Nathalia Moraes</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Autônomo: Sem CNPJ</t>
-        </is>
-      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>(18) 5646-2968</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>(18) 90614-6183</t>
+          <t>(79) 4523-0724</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>061.586.270-54</t>
+          <t>(79) 94149-3624</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>778109239</t>
+          <t>398.755.380-43</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>554525273</t>
         </is>
       </c>
     </row>
@@ -2470,25 +2621,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fernanda Tatiana Silveira</t>
+          <t>Luiza Machado Moraes Nascimento</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fernanda_Silveira@hotmail.com</t>
+          <t>Luiza_Nascimento@zipmail.com.br</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>!^RZ*_hjPD4%</t>
+          <t>Sm-ydap(gbVq</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>27/12/2016</t>
+          <t>19/06/2005</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2498,37 +2649,42 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
+          <t>Vanessa Nascimento</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>(16) 5553-8698</t>
+          <t>Trabalhador familiar auxiliar</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>(16) 94974-9444</t>
+          <t>(16) 6075-0050</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>379.050.020-80</t>
+          <t>(16) 90081-7780</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>163454946</t>
+          <t>083.969.750-35</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>628715450</t>
         </is>
       </c>
     </row>
@@ -2538,65 +2694,70 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ricardo Gouveia Pires</t>
+          <t>Simone Natália Borges Oliveira</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ricardo_Pires0$4@gmail.com</t>
+          <t>Simone_Oliveira0084@outlook.com</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gXXFE*ENPO+&amp;</t>
+          <t>&amp;5GTylGT31Kd</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>28/05/2011</t>
+          <t>17/08/2019</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
+          <t>Valéria Oliveira</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Fora da força de trabalho</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>(45) 9041-8167</t>
-        </is>
-      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>(45) 92300-0817</t>
+          <t>(24) 1630-0163</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>821.535.040-23</t>
+          <t>(24) 93836-9442</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>735494708</t>
+          <t>581.814.120-95</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>847084582</t>
         </is>
       </c>
     </row>
@@ -2606,25 +2767,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Elaine Gouveia Santos</t>
+          <t>Cristina Pessoa Carvalho</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Elaine_Santos494@gmail.com</t>
+          <t>Cristina_Carvalho!9@superig.com.br</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Tit*TGAutzQQ</t>
+          <t>ies7&amp;a4omp3$</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>25/12/1981</t>
+          <t>26/04/2017</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2634,37 +2795,42 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Sem instrução</t>
+          <t>Márcia Carvalho</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Autônomo: Com CNPJ</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>(43) 9480-0475</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>(43) 99485-2150</t>
+          <t>(91) 6987-4646</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>363.125.050-90</t>
+          <t>(91) 95081-5298</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>828358139</t>
+          <t>468.653.320-16</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>434258253</t>
         </is>
       </c>
     </row>
@@ -2674,25 +2840,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Giovanni Barbosa Castro Pires</t>
+          <t>Arnaldo Sousa Dias</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Giovanni_Pires27@brturbo.com.br</t>
+          <t>Arnaldo_Dias58@gmail.com</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Xh)yjE$-Nc2t</t>
+          <t>RABK_-UiQ@00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>31/12/2008</t>
+          <t>30/08/1977</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2707,32 +2873,37 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Jéssica Dias</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>(61) 0746-1087</t>
+          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>(61) 93135-8321</t>
+          <t>(92) 8873-6541</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>922.123.450-97</t>
+          <t>(92) 92453-2689</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>204245650</t>
+          <t>683.014.960-61</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>803901132</t>
         </is>
       </c>
     </row>
@@ -2742,65 +2913,70 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Leonardo Oliveira</t>
+          <t>Rafaela Freitas Ribeiro</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Leonardo_Oliveira%@terra.com.br</t>
+          <t>Rafaela_Ribeiro&amp;1@gmail.com</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>xEsOajZlCtOY</t>
+          <t>6goTeutSb1C8</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>06/04/2000</t>
+          <t>25/06/2007</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
+          <t>Laura Ribeiro</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Empregado: Setor público (estatutário ou militar)</t>
-        </is>
-      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>(11) 8699-6565</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>(11) 91072-9004</t>
+          <t>(31) 5021-9036</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>312.510.560-91</t>
+          <t>(31) 94771-9231</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>356363804</t>
+          <t>455.557.260-23</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>426847088</t>
         </is>
       </c>
     </row>
@@ -2810,65 +2986,70 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Isaac Campos Gomes</t>
+          <t>Sueli Campos Pires</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Isaac_Gomes%@gmail.com</t>
+          <t>Sueli_Pires1%$@outlook.com</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>zHqa*_S4M)9P</t>
+          <t>NE(M&amp;4aU%_1$</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>04/09/1969</t>
+          <t>05/05/2006</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Sem instrução</t>
+          <t>Roberta Pires</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>(66) 9624-9768</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>(66) 99426-3699</t>
+          <t>(88) 1448-6786</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>982.351.780-01</t>
+          <t>(88) 91874-5196</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>706447673</t>
+          <t>979.031.140-00</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>351950406</t>
         </is>
       </c>
     </row>
@@ -2878,25 +3059,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Eduardo Santana Campos</t>
+          <t>Guilherme Mendes Silveira Melo</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Eduardo_Campos0!3@gmail.com</t>
+          <t>Guilherme_Melo1@gmail.com</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FLOaGZc($JwD</t>
+          <t>YWaNZsbbGahy</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>20/10/2010</t>
+          <t>10/10/2004</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2906,37 +3087,42 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
+          <t>Jéssica Silveira</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>(54) 7319-4822</t>
+          <t>Empregado: Trabalhador doméstico (CLT)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>(54) 93133-5481</t>
+          <t>(71) 1940-3439</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>934.389.660-34</t>
+          <t>(71) 99867-5602</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>133266696</t>
+          <t>527.422.660-46</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>285304380</t>
         </is>
       </c>
     </row>
@@ -2946,25 +3132,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cátia Costa Gouveia Nunes</t>
+          <t>Helena Lima Pessoa</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cátia_Nunes7@gmail.com</t>
+          <t>Helena_Pessoa1217@outlook.com</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sq6fgFq8S0RT</t>
+          <t>KpbYh6ZOUKw!</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>18/10/2000</t>
+          <t>03/01/1992</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2974,37 +3160,42 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Tatiana Pessoa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Fundamental completo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>(71) 5514-4969</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>(71) 97018-3767</t>
+          <t>(27) 1088-1724</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>662.037.060-86</t>
+          <t>(27) 90584-4825</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>291608200</t>
+          <t>552.454.720-82</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>599158305</t>
         </is>
       </c>
     </row>
@@ -3014,65 +3205,70 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Thais Sueli Azevedo Barros</t>
+          <t>Carlos Lopes Moraes</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thais_Barros55@zoho.com</t>
+          <t>Carlos_Moraes2!@outlook.com</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sjYx@)m%^pKb</t>
+          <t>C7I)kh*_RwTH</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>23/04/2002</t>
+          <t>25/04/2005</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
+          <t>Ana Moraes</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Empregado: Setor privado (CLT)</t>
-        </is>
-      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>(95) 0943-0120</t>
+          <t>Autônomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>(95) 95894-8322</t>
+          <t>(31) 9737-3563</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>007.971.830-27</t>
+          <t>(31) 94775-8518</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>346102784</t>
+          <t>194.560.290-26</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>306805732</t>
         </is>
       </c>
     </row>
@@ -3082,25 +3278,25 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Leandro Carvalho Pires</t>
+          <t>Marcelo Rocha Andrade Araújo Gomes</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Leandro_Pires@outlook.com</t>
+          <t>Marcelo_Gomes5!@zipmail.com.br</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SHiUon%x1nIu</t>
+          <t>VJds%&amp;4M4-01</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>19/01/2012</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3115,32 +3311,37 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
+          <t>Thais Gomes</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>Fora da força de trabalho</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>(41) 5523-0017</t>
-        </is>
-      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>(41) 94143-5508</t>
+          <t>(54) 3957-6373</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>014.767.770-04</t>
+          <t>(54) 91682-4149</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>355587960</t>
+          <t>276.069.000-86</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>429643272</t>
         </is>
       </c>
     </row>
@@ -3150,65 +3351,70 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Vinícius Cardoso Correia</t>
+          <t>Cristina Ramos</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Vinícius_Correia436@me.com</t>
+          <t>Cristina_Ramos$490@sercomtel.com.br</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>G0=@r8Qi=7)$</t>
+          <t>&amp;M4VuP&amp;Fj#zx</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>09/11/2001</t>
+          <t>12/03/1988</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Ana Ramos</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Autônomo: Sem CNPJ</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>(65) 3587-0270</t>
+          <t>Empregador: Sem CNPJ</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>(65) 95445-9180</t>
+          <t>(13) 5305-4630</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>100.048.070-49</t>
+          <t>(13) 90246-2817</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>550593370</t>
+          <t>372.876.700-03</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>888829970</t>
         </is>
       </c>
     </row>
@@ -3218,65 +3424,70 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Armando Ribeira</t>
+          <t>Juliana Pessoa</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Armando_Ribeira00#$@icloud.com</t>
+          <t>Juliana_Pessoa%6@hotmail.com</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>N+I#8NfJ@+2U</t>
+          <t>jDN)yCp7TVl9</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>17/04/1982</t>
+          <t>14/12/2012</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Helena Pessoa</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Empregador: Com CNPJ</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>(46) 0038-7534</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>(46) 91991-2211</t>
+          <t>(31) 8045-1073</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>210.247.510-74</t>
+          <t>(31) 99025-4128</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>311706305</t>
+          <t>156.994.690-60</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>565735102</t>
         </is>
       </c>
     </row>
@@ -3286,65 +3497,70 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Anderson Nascimento Sousa</t>
+          <t>Luiza Tânia Ramos</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Anderson_Sousa01$@yahoo.com</t>
+          <t>Luiza_Ramos11#@gmail.com</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>tEs@#_bLQk7-</t>
+          <t>$skS2Xwo%T-G</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>10/09/1977</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Tânia Ramos</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>(54) 3890-8939</t>
+          <t>Desocupado</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>(54) 96486-2798</t>
+          <t>(98) 6833-7674</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>305.324.660-04</t>
+          <t>(98) 90466-6398</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>485410752</t>
+          <t>412.095.290-84</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>209599400</t>
         </is>
       </c>
     </row>
@@ -3354,25 +3570,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sandra Moraes</t>
+          <t>Bianca Mariana Alves Cavalcanti Fernandes</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sandra_Moraes48@hotmail.com</t>
+          <t>Bianca_Fernandes2@oi.com.br</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Q(#!^RQ=YkEZ</t>
+          <t>x^k@9pK3I*4!</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>09/07/2018</t>
+          <t>26/01/2005</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3382,37 +3598,42 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
+          <t>Jéssica Alves</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>(68) 6178-0398</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>(68) 91489-6700</t>
+          <t>(63) 0075-0392</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>725.031.150-63</t>
+          <t>(63) 96877-5001</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>430947030</t>
+          <t>217.718.160-74</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>113661305</t>
         </is>
       </c>
     </row>
@@ -3422,25 +3643,25 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Álvaro Luis Sousa</t>
+          <t>Arnaldo Vicente Pires Gomes</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Álvaro_Sousa#@yahoo.com</t>
+          <t>Arnaldo_Gomes8%@yahoo.com</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>$DDRT$#BHXGE</t>
+          <t>vX-H%IEPzpSV</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>28/01/2000</t>
+          <t>18/08/2002</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3450,37 +3671,42 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
+          <t>Patrícia Pires</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
-        </is>
-      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>(62) 6597-8058</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>(62) 99344-4337</t>
+          <t>(27) 7106-5301</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>460.822.760-27</t>
+          <t>(27) 99014-7941</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>052487189</t>
+          <t>176.370.870-50</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>437283062</t>
         </is>
       </c>
     </row>
@@ -3490,25 +3716,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Geraldo Santos Costa</t>
+          <t>André Santos Rodrigues Andrade</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Geraldo_Costa%2@gmail.com</t>
+          <t>André_Andrade377@zipmail.com.br</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>d!04mXN2Al#O</t>
+          <t>GOhFk=#BEZcz</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>19/11/2008</t>
+          <t>30/05/2009</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3518,37 +3744,42 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
+          <t>Sueli Andrade</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>Fora da força de trabalho</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>(41) 7379-9133</t>
-        </is>
-      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>(41) 99667-1701</t>
+          <t>(18) 7907-3933</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>477.926.860-51</t>
+          <t>(18) 97902-4851</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>784467319</t>
+          <t>645.611.440-30</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>698570011</t>
         </is>
       </c>
     </row>
@@ -3558,25 +3789,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gustavo Ramos Monteiro Fernandes Alves</t>
+          <t>Geraldo Gomes</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Gustavo_Alves7$&amp;6@hotmail.com</t>
+          <t>Geraldo_Gomes$@gmail.com</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>H!inXYzsPHQo</t>
+          <t>KL*NIJ-oMQSU</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>30/07/2020</t>
+          <t>24/03/2001</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3591,32 +3822,37 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
+          <t>Carolina Gomes</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>(19) 3962-3018</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>(19) 97531-8484</t>
+          <t>(84) 5641-8494</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>713.640.840-74</t>
+          <t>(84) 98593-4870</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>205961970</t>
+          <t>070.977.190-87</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>324058709</t>
         </is>
       </c>
     </row>
@@ -3626,25 +3862,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ricardo Borges</t>
+          <t>Arnaldo Silveira Sousa</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Ricardo_Borges6@me.com</t>
+          <t>Arnaldo_Sousa#78@gmail.com</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NSZ^Z0p5#jS-</t>
+          <t>^_X%ug(Hjc*B</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>03/02/2002</t>
+          <t>22/04/2008</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3654,37 +3890,42 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
+          <t>Larissa Sousa</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Empregado: Setor privado (CLT)</t>
-        </is>
-      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>(91) 6107-3700</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>(91) 93780-5300</t>
+          <t>(17) 1457-0811</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>747.373.650-76</t>
+          <t>(17) 90112-9543</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>568666387</t>
+          <t>797.658.150-34</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>705862531</t>
         </is>
       </c>
     </row>
@@ -3694,65 +3935,70 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Patrícia Rafaela Martins Ramos</t>
+          <t>Eduardo Antônio Monteiro</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Patrícia_Ramos$@hotmail.com</t>
+          <t>Eduardo_Monteiro0$8@terra.com.br</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>aFeXQeAt7#(m</t>
+          <t>7(-rubB_4Zoz</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>29/05/1979</t>
+          <t>18/10/2002</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Eduarda Monteiro</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>(22) 8431-0845</t>
+          <t>Empregado: Setor público (estatutário ou militar)</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>(22) 92190-4099</t>
+          <t>(16) 0640-9021</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>938.590.820-00</t>
+          <t>(16) 92844-0205</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>543552454</t>
+          <t>255.365.300-03</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>803871461</t>
         </is>
       </c>
     </row>
@@ -3762,25 +4008,25 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Brenda Barbosa Silveira</t>
+          <t>Cecília Dias Machado</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Brenda_Silveira$73@hotmail.com</t>
+          <t>Cecília_Machado1$@gmail.com</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>F4vkgiw9-Ono</t>
+          <t>F@OSar!1JKPT</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>01/04/2006</t>
+          <t>11/04/2002</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3790,37 +4036,42 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
+          <t>Maria Machado</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>(84) 2060-5412</t>
+          <t>Empregado: Trabalhador doméstico (CLT)</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>(84) 91461-4750</t>
+          <t>(51) 4093-6460</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>270.355.530-02</t>
+          <t>(51) 94630-6269</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>606450907</t>
+          <t>450.014.400-50</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>629175523</t>
         </is>
       </c>
     </row>
@@ -3830,25 +4081,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ana Priscila Campos Andrade</t>
+          <t>Roberta Campos Barbosa Araújo</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Ana_Andrade8@live.com.pt</t>
+          <t>Roberta_Araújo$!02@gmail.com</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MaaLVw1HLcM4</t>
+          <t>htKkBoI0lKgM</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>22/01/1991</t>
+          <t>13/04/2018</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3858,37 +4109,42 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Carolina Araújo</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>(43) 5286-6786</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>(43) 98082-7857</t>
+          <t>(46) 9640-6162</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>372.520.170-60</t>
+          <t>(46) 91798-8518</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>464386465</t>
+          <t>317.674.990-27</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>434521900</t>
         </is>
       </c>
     </row>
@@ -3898,65 +4154,70 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Rosana Cardoso Lopes</t>
+          <t>Alexandre Wagner Almeida Melo</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Rosana_Lopes6@uol.com.br</t>
+          <t>Alexandre_Melo183@gmail.com</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5P!iKcTnYUw4</t>
+          <t>S@6HQ7A_7$_W</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>15/12/1995</t>
+          <t>10/04/2000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Carolina Almeida</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
           <t>Autônomo: Sem CNPJ</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>(48) 9925-8636</t>
-        </is>
-      </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>(48) 99573-0801</t>
+          <t>(32) 1756-0032</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>513.147.740-93</t>
+          <t>(32) 98801-1260</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>482464517</t>
+          <t>917.480.990-35</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>294609032</t>
         </is>
       </c>
     </row>
@@ -3966,65 +4227,70 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Álvaro Correia Rocha</t>
+          <t>Luiza Barbosa Pereira</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Álvaro_Rocha%&amp;@hotmail.com</t>
+          <t>Luiza_Pereira67&amp;@live.com</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5CNu#HW4efVx</t>
+          <t>z7DPeBP9Muxw</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>21/04/1982</t>
+          <t>17/05/1988</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Médio incompleto</t>
+          <t>Juliana Pereira</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>(74) 4455-0823</t>
+          <t>Autônomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>(74) 92550-2787</t>
+          <t>(17) 0517-3859</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>021.894.750-07</t>
+          <t>(17) 99762-2180</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>456701833</t>
+          <t>193.890.690-09</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>018270067</t>
         </is>
       </c>
     </row>
@@ -4034,25 +4300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Roberta Silveira Cavalcanti</t>
+          <t>Fernanda Natália Ferreira</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Roberta_Cavalcanti&amp;%@oi.com.br</t>
+          <t>Fernanda_Ferreira!@oi.com</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>U8F9=4y1Ru*!</t>
+          <t>Ux8lbEMTGOdo</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>17/12/2004</t>
+          <t>25/08/2023</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4067,32 +4333,37 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
+          <t>Carolina Ferreira</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Empregado: Setor privado (CLT)</t>
-        </is>
-      </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>(14) 6073-1616</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>(14) 90700-6146</t>
+          <t>(94) 2540-7203</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>057.402.060-81</t>
+          <t>(94) 97505-3886</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>162120018</t>
+          <t>257.620.590-90</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>816666086</t>
         </is>
       </c>
     </row>
@@ -4102,65 +4373,70 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cátia Natália Castro Lopes</t>
+          <t>Alberto Nunes Gonçalves Martins Sousa</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Cátia_Lopes73#@yahoo.com</t>
+          <t>Alberto_Sousa003@outlook.com</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>tQs)%buaM)hY</t>
+          <t>-V!Wgw7R71jH</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>08/08/2019</t>
+          <t>11/05/2005</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
+          <t>Patrícia Gonçalves</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>(32) 0411-8640</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>(32) 99209-2667</t>
+          <t>(12) 6898-9027</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>718.673.330-15</t>
+          <t>(12) 93898-9265</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>790251393</t>
+          <t>207.845.480-05</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>230101181</t>
         </is>
       </c>
     </row>
@@ -4170,65 +4446,70 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Lorena Monteiro</t>
+          <t>Fernando Ferreira Barros Gonçalves Rocha</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Lorena_Monteiro!$@yahoo.com</t>
+          <t>Fernando_Rocha2#@aol.com</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>V_zkOv-a^FeX</t>
+          <t>z7Q#is&amp;jGgya</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>07/07/2005</t>
+          <t>23/01/1983</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Ana Gonçalves</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
+          <t>Médio completo</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
           <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>(35) 9942-5895</t>
-        </is>
-      </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>(35) 94823-7954</t>
+          <t>(53) 6273-0882</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>015.284.420-16</t>
+          <t>(53) 98801-8481</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>201544722</t>
+          <t>133.801.490-04</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>906507955</t>
         </is>
       </c>
     </row>
@@ -4238,25 +4519,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Antônio Nogueira Barros</t>
+          <t>Álvaro Moraes</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Antônio_Barros0@mail.com</t>
+          <t>Álvaro_Moraes@aol.com</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>*xHYDUOJTq_h</t>
+          <t>f*Uw7!)nP&amp;xy</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>30/11/1985</t>
+          <t>15/05/2005</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4266,37 +4547,42 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Fundamental completo</t>
+          <t>Bianca Moraes</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
           <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>(42) 4813-8955</t>
-        </is>
-      </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>(42) 95560-3289</t>
+          <t>(47) 0000-8342</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>460.072.550-69</t>
+          <t>(47) 93300-6633</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>214896353</t>
+          <t>191.045.610-15</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>522263927</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4592,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Raul Santana Mendes Martins</t>
+          <t>Joaquim Castro Gouveia</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Raul_Martins683@r7.com</t>
+          <t>Joaquim_Gouveia$$@gmail.com</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Fa7A&amp;zQjw$lW</t>
+          <t>S-!Et%HHLQ%i</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>23/05/2018</t>
+          <t>08/06/2002</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4334,37 +4620,42 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
+          <t>Laura Gouveia</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>(49) 4484-4200</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>(49) 99009-4586</t>
+          <t>(85) 3680-2759</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>281.850.660-35</t>
+          <t>(85) 97277-7548</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>528807905</t>
+          <t>091.461.350-22</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>204122270</t>
         </is>
       </c>
     </row>
@@ -4374,25 +4665,25 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ricardo Ribeiro Silva</t>
+          <t>Roberto Pessoa Borges</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Ricardo_Silva0@gmail.com</t>
+          <t>Roberto_Borges1@yandex.com</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Hd5Orp)s2lld</t>
+          <t>V@NEpHB&amp;5uJH</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>11/06/2023</t>
+          <t>13/06/2000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4407,32 +4698,37 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
+          <t>Ana Borges</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>(51) 3076-7956</t>
+          <t>Empregado: Setor público (sem CLT)</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>(51) 93020-7765</t>
+          <t>(21) 1680-8809</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>696.181.410-71</t>
+          <t>(21) 90897-3566</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>989243953</t>
+          <t>347.938.220-70</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>181869417</t>
         </is>
       </c>
     </row>
@@ -4442,65 +4738,70 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Isabela Nogueira Silveira</t>
+          <t>Vitor Lopes Nogueira</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Isabela_Silveira$62@gmail.com</t>
+          <t>Vitor_Nogueira@terra.com.br</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>_xY)RHu20EC!</t>
+          <t>mgN3w&amp;md--th</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>27/09/2019</t>
+          <t>30/03/1986</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Luiza Nogueira</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>(13) 3377-8031</t>
+          <t>Autônomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>(13) 93749-8255</t>
+          <t>(17) 6367-7270</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>148.196.460-79</t>
+          <t>(17) 98847-9129</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>592337519</t>
+          <t>380.535.400-23</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>812166190</t>
         </is>
       </c>
     </row>
@@ -4510,65 +4811,70 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Márcia Silva Castro</t>
+          <t>Márcio Ricardo Ferreira Pinto</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Márcia_Castro882@yahoo.com</t>
+          <t>Márcio_Pinto2%%6@hotmail.com</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>fi&amp;K*5hqSjJL</t>
+          <t>#8IB$1Nj*7cN</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>12/02/1982</t>
+          <t>20/11/2012</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Tatiane Pinto</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Empregado: Setor público (sem CLT)</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>(14) 9119-7269</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>(14) 90772-7898</t>
+          <t>(73) 1532-9095</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>354.243.450-77</t>
+          <t>(73) 90820-5953</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>349328009</t>
+          <t>884.955.930-50</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>201362328</t>
         </is>
       </c>
     </row>
@@ -4578,25 +4884,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Andressa Oliveira Costa Correia</t>
+          <t>Roberta Pessoa Moraes</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Andressa_Correia@outlook.com</t>
+          <t>Roberta_Moraes!$@gmail.com</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A8Y*kgLUL$V@</t>
+          <t>D0!QE(EK7wC$</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>18/06/2007</t>
+          <t>05/02/1989</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4606,37 +4912,42 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Tatiane Moraes</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>(14) 8966-5322</t>
+          <t>Autônomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>(14) 95789-3468</t>
+          <t>(88) 3471-6854</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>484.855.200-17</t>
+          <t>(88) 98494-6558</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>479118494</t>
+          <t>911.329.660-43</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>627052550</t>
         </is>
       </c>
     </row>
@@ -4646,65 +4957,70 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Eduarda Vanessa Santana Ramos</t>
+          <t>Luis Costa Fernandes</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Eduarda_Ramos2&amp;@live.com</t>
+          <t>Luis_Fernandes%&amp;$@gmail.com</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>wVTAX3Eq%mDd</t>
+          <t>E@MMZ&amp;ED-J4M</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>08/05/2018</t>
+          <t>21/09/1976</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Amanda Fernandes</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>(62) 4057-9192</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>(62) 98423-9843</t>
+          <t>(92) 3572-5829</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>884.890.530-73</t>
+          <t>(92) 98774-2037</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>543303079</t>
+          <t>281.324.280-21</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>678294139</t>
         </is>
       </c>
     </row>
@@ -4714,25 +5030,25 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Renata Moraes Lima</t>
+          <t>Amanda Andressa Costa</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Renata_Lima18@hotmail.com</t>
+          <t>Amanda_Costa$@outlook.com</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>e=h$YHKO#9rR</t>
+          <t>(dWdsg6Q)eN#</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>30/08/1975</t>
+          <t>09/03/1994</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4742,37 +5058,42 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Fundamental completo</t>
+          <t>Roberta Costa</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Superior completo</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>(69) 4633-5361</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>(69) 94507-8979</t>
+          <t>(96) 1965-1520</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>923.392.760-12</t>
+          <t>(96) 92165-5252</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>823063708</t>
+          <t>081.450.570-86</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>087770268</t>
         </is>
       </c>
     </row>
@@ -4782,65 +5103,70 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Luciano Renato Gouveia Alves</t>
+          <t>Cristina Gomes Barros</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Luciano_Alves60!@outlook.com</t>
+          <t>Cristina_Barros!3@gmail.com</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6ZbztuV)do+p</t>
+          <t>UV%MqcasRv%S</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>19/02/1986</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Márcia Barros</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
           <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>(35) 6828-3759</t>
-        </is>
-      </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>(35) 94195-8112</t>
+          <t>(86) 7203-0135</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>149.730.290-09</t>
+          <t>(86) 90310-4340</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>965165371</t>
+          <t>237.705.330-03</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>987673237</t>
         </is>
       </c>
     </row>
@@ -4850,25 +5176,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Jéssica Andrade Santos</t>
+          <t>Márcia Dias Almeida</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Jéssica_Santos@outlook.com</t>
+          <t>Márcia_Almeida#50%@hotmail.com</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>c7-isLpzi7Df</t>
+          <t>B+5w3kV=jAXE</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>22/01/1995</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4878,37 +5204,42 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Helena Almeida</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>(45) 0873-8936</t>
+          <t>Autônomo: Com CNPJ</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>(45) 97598-4545</t>
+          <t>(51) 5881-6399</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>245.097.810-08</t>
+          <t>(51) 96381-9415</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>214628113</t>
+          <t>686.554.860-43</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>654783253</t>
         </is>
       </c>
     </row>
@@ -4918,25 +5249,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Simone Silveira Mendes</t>
+          <t>Rafaela Nogueira Barros Sousa</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Simone_Mendes3#7@hotmail.com</t>
+          <t>Rafaela_Sousa%@hotmail.com</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>fOfbbWvZ)V#y</t>
+          <t>aOUMcesR=!@h</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>30/08/2021</t>
+          <t>17/09/1974</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4946,37 +5277,42 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Cátia Sousa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Sem instrução</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>(18) 6637-9662</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>(18) 97369-8597</t>
+          <t>(88) 1097-9816</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>082.133.890-00</t>
+          <t>(88) 97341-1627</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>723921757</t>
+          <t>167.130.580-94</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>957186704</t>
         </is>
       </c>
     </row>
@@ -4986,65 +5322,70 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Anderson Carvalho Lopes</t>
+          <t>Vicente Álvaro Machado Monteiro</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Anderson_Lopes5&amp;%7@outlook.com</t>
+          <t>Vicente_Monteiro$079@live.com.pt</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>EBwQkhEDWW-7</t>
+          <t>($w*Xs2!Epmx</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>11/06/2007</t>
+          <t>07/04/1990</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Não-Binário</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Branco(a)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Cátia Machado</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Superior incompleto</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>(51) 3008-3060</t>
+          <t>Empregador: Com CNPJ</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>(51) 93113-8485</t>
+          <t>(14) 2400-7674</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>678.514.890-16</t>
+          <t>(14) 99580-3277</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>203277218</t>
+          <t>851.384.100-59</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>706487251</t>
         </is>
       </c>
     </row>
@@ -5054,65 +5395,70 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Roberta Dias</t>
+          <t>Antônio Castro</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Roberta_Dias4@gmail.com</t>
+          <t>Antônio_Castro9731@outlook.com</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>)J1)y^==wtKT</t>
+          <t>2JrF)(x)OQc*</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>21/08/2005</t>
+          <t>14/09/1996</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Outro</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Luiza Castro</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
+          <t>Superior completo</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
           <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>(93) 7660-4351</t>
-        </is>
-      </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>(93) 96905-2759</t>
+          <t>(97) 4612-8174</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>291.417.590-60</t>
+          <t>(97) 91842-2655</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>407695042</t>
+          <t>433.619.950-78</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>491829388</t>
         </is>
       </c>
     </row>
@@ -5122,65 +5468,70 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Lorena Silva Rodrigues Pires</t>
+          <t>Anderson Fernandes Pires</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Lorena_Pires1#0@hotmail.com</t>
+          <t>Anderson_Pires6&amp;3&amp;@outlook.com</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>VsgB13&amp;wEtVK</t>
+          <t>I1qTqZn6C8BV</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>18/02/1982</t>
+          <t>15/06/2000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Mariana Pires</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
           <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>(43) 9774-9519</t>
-        </is>
-      </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>(43) 92690-4162</t>
+          <t>(21) 4087-1436</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>097.589.650-42</t>
+          <t>(21) 94771-3859</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>036931090</t>
+          <t>106.005.570-81</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>692246928</t>
         </is>
       </c>
     </row>
@@ -5190,65 +5541,70 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Rosana Costa Araújo</t>
+          <t>Gustavo Correia Nogueira</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Rosana_Araújo&amp;@hotmail.com</t>
+          <t>Gustavo_Nogueira@gmail.com</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>mp%BBOrQeed4</t>
+          <t>nAPmN6Kxfc8m</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>07/10/2005</t>
+          <t>01/07/2007</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
+          <t>Tânia Nogueira</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Empregado: Setor privado (sem CLT)</t>
-        </is>
-      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>(65) 8832-7316</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>(65) 95059-7280</t>
+          <t>(81) 6922-8969</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>488.030.170-11</t>
+          <t>(81) 93577-0241</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>735398777</t>
+          <t>579.316.170-88</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>152469975</t>
         </is>
       </c>
     </row>
@@ -5258,65 +5614,70 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Gilberto Barbosa Nunes</t>
+          <t>Regina Tatiane Santana Pinto Martins</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Gilberto_Nunes1@hotmail.com</t>
+          <t>Regina_Martins18$#@gmail.com</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>#-#uhZhGmvkU</t>
+          <t>6HcJhuJF+bc@</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>06/07/1994</t>
+          <t>29/04/2011</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Médio incompleto</t>
+          <t>Aline Martins</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Empregador: Com CNPJ</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>(84) 7585-8575</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>(84) 95586-6743</t>
+          <t>(45) 8860-7522</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>303.941.870-08</t>
+          <t>(45) 99809-2706</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>338014982</t>
+          <t>435.931.870-78</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>915811583</t>
         </is>
       </c>
     </row>
@@ -5326,25 +5687,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mariana Silva Gouveia</t>
+          <t>Flávia Costa Gomes Araújo</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Mariana_Gouveia%%@outlook.com</t>
+          <t>Flávia_Araújo!2@live.com</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>+OjyJRRcDl5S</t>
+          <t>g!P4YjN3&amp;6b&amp;</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>26/09/1993</t>
+          <t>11/09/2020</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5359,32 +5720,37 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Roberta Araújo</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Desocupado</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>(15) 1015-9768</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>(15) 92874-1649</t>
+          <t>(53) 1944-6115</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>824.221.010-11</t>
+          <t>(53) 98126-2295</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>805240808</t>
+          <t>520.918.970-86</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>782891098</t>
         </is>
       </c>
     </row>
@@ -5394,65 +5760,70 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Luciano Ramos Castro</t>
+          <t>Rosana Nogueira</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Luciano_Castro9@mail.com</t>
+          <t>Rosana_Nogueira73@gmail.com</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>5gAs2_eN!yS7</t>
+          <t>@LR9#eRQ=l1X</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>24/09/2002</t>
+          <t>25/11/1975</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Branco</t>
+          <t>Preta</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Vanessa Nogueira</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Desocupado</t>
+          <t>Fundamental completo</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>(94) 0158-4099</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>(94) 98571-1223</t>
+          <t>(74) 5086-2836</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>354.066.230-87</t>
+          <t>(74) 98198-1274</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>149077494</t>
+          <t>336.765.740-95</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>947609223</t>
         </is>
       </c>
     </row>
@@ -5462,65 +5833,70 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rosana Gouveia Alves Nascimento</t>
+          <t>Armando Araújo Nascimento</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Rosana_Nascimento33@outlook.com</t>
+          <t>Armando_Nascimento46@superig.com.br</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>P)GJOzmnojkb</t>
+          <t>M92vmL8oXn(t</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>13/03/2011</t>
+          <t>29/06/1975</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Jéssica Nascimento</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>(69) 4799-9914</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>(69) 91244-0142</t>
+          <t>(22) 4233-4233</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>619.243.350-00</t>
+          <t>(22) 97500-3312</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>990883808</t>
+          <t>813.119.980-04</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>201989829</t>
         </is>
       </c>
     </row>
@@ -5530,25 +5906,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Miguel Costa Ribeiro</t>
+          <t>Geraldo Santos Nascimento</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Miguel_Ribeiro831@globomail.com</t>
+          <t>Geraldo_Nascimento72%@aol.com</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>01z7A8Oj_vNi</t>
+          <t>yBrx#UpZ4-7r</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>07/08/2011</t>
+          <t>13/04/1978</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5563,32 +5939,37 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Flávia Nascimento</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Fundamental completo</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>(49) 0854-0227</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>(49) 92606-2135</t>
+          <t>(43) 9969-9319</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>037.996.600-03</t>
+          <t>(43) 94768-4867</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>720229173</t>
+          <t>185.237.040-86</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>051993162</t>
         </is>
       </c>
     </row>
@@ -5598,25 +5979,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Luis Andrade Ferreira</t>
+          <t>Marcelo Sousa Almeida</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Luis_Ferreira33@terra.com.br</t>
+          <t>Marcelo_Almeida41@gmail.com</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>gfuPl^1nQ-tU</t>
+          <t>7mZIn)dGzS1^</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>18/01/2000</t>
+          <t>15/11/1978</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5631,32 +6012,37 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Tatiana Almeida</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>(44) 5331-0562</t>
+          <t>Desocupado</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>(44) 96078-2118</t>
+          <t>(12) 8418-2172</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>393.598.080-91</t>
+          <t>(12) 96009-1811</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>231316048</t>
+          <t>055.048.730-10</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>716284452</t>
         </is>
       </c>
     </row>
@@ -5666,25 +6052,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Carolina Jessica Dias Machado</t>
+          <t>Isabela Brenda Pessoa</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Carolina_Machado&amp;%@gmail.com</t>
+          <t>Isabela_Pessoa!%4@zipmail.com.br</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-jnpueD!VeiT</t>
+          <t>On6&amp;o*w+rkZT</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>08/04/2006</t>
+          <t>05/05/1984</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5694,37 +6080,42 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Cátia Pessoa</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Fundamental incompleto</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>(42) 2767-0151</t>
+          <t>Desocupado</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>(42) 94605-3460</t>
+          <t>(27) 7155-0118</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>560.368.120-94</t>
+          <t>(27) 92128-4031</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>991673595</t>
+          <t>893.012.690-15</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>560643397</t>
         </is>
       </c>
     </row>
@@ -5734,65 +6125,70 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Carla Monteiro</t>
+          <t>Armando Martins</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Carla_Monteiro6@gmx.com</t>
+          <t>Armando_Martins$$@gmail.com</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>N95iu0$o75Ak</t>
+          <t>i!dCN83QF(iO</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>21/08/2005</t>
+          <t>21/10/1970</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Vanessa Martins</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>(11) 4585-6322</t>
+          <t>Autônomo: Com CNPJ</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>(11) 93621-2042</t>
+          <t>(82) 0314-3445</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>894.310.660-25</t>
+          <t>(82) 99360-1548</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>081594653</t>
+          <t>512.154.850-85</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>761334936</t>
         </is>
       </c>
     </row>
@@ -5802,25 +6198,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>João Geraldo Andrade Rodrigues</t>
+          <t>Rafael Rodrigues Ribeiro Almeida Lima</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>João_Rodrigues4%!!@gmail.com</t>
+          <t>Rafael_Lima5$#@gmail.com</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>T(Fz2(9hm0eA</t>
+          <t>S5Vb5!RMmk9p</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>10/06/2000</t>
+          <t>01/05/2012</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5835,32 +6231,37 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
+          <t>Regina Ribeiro</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Empregado: Setor privado (CLT)</t>
-        </is>
-      </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>(92) 8455-7785</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>(92) 91899-1472</t>
+          <t>(34) 7502-9871</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>334.702.700-07</t>
+          <t>(34) 91288-5545</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>119421669</t>
+          <t>698.318.410-69</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>636116863</t>
         </is>
       </c>
     </row>
@@ -5870,65 +6271,70 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sebastião Cavalcanti Mendes</t>
+          <t>Tânia Mendes</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sebastião_Mendes6@globomail.com</t>
+          <t>Tânia_Mendes%@outlook.com</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>80EZzWRAw7uA</t>
+          <t>evMgSmzsrKf9</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>23/03/2009</t>
+          <t>26/09/2023</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
+          <t>Sueli Mendes</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>Fora da força de trabalho</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>(46) 7532-8562</t>
-        </is>
-      </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>(46) 90013-8582</t>
+          <t>(81) 7032-7273</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>503.298.350-09</t>
+          <t>(81) 94976-7519</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>269710848</t>
+          <t>114.763.110-72</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>533954262</t>
         </is>
       </c>
     </row>
@@ -5938,65 +6344,70 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sandra Cavalcanti Melo</t>
+          <t>Felipe Ferreira Alves</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Sandra_Melo5%@outlook.com</t>
+          <t>Felipe_Alves#!!1@gmail.com</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>uctYRHj!5Q63</t>
+          <t>1NjQB_VDu-M!</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>08/10/1993</t>
+          <t>19/03/2005</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Preta</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Amanda Alves</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
           <t>Desocupado</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>(21) 6985-8444</t>
-        </is>
-      </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>(21) 98297-4172</t>
+          <t>(21) 3581-2380</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>348.362.150-48</t>
+          <t>(21) 96055-8907</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>416850506</t>
+          <t>794.434.750-57</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>814290589</t>
         </is>
       </c>
     </row>
@@ -6006,65 +6417,70 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>César Correia</t>
+          <t>Márcia Luiza Melo Azevedo</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>César_Correia@outlook.com</t>
+          <t>Márcia_Azevedo2%@terra.com.br</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>LK#j*9cKKEod</t>
+          <t>Xd%oHZJbR5u7</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>21/02/1977</t>
+          <t>09/12/1999</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Preto</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Bianca Azevedo</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Empregado: Trabalhador doméstico (sem CLT)</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>(55) 8612-8782</t>
+          <t>Empregador: Com CNPJ</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>(55) 95212-6644</t>
+          <t>(88) 1509-3065</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>908.658.490-05</t>
+          <t>(88) 91165-7847</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>256900203</t>
+          <t>968.606.270-00</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>536334359</t>
         </is>
       </c>
     </row>
@@ -6074,25 +6490,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Alexandre Armando Barros Almeida</t>
+          <t>Diego Castro Pessoa</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Alexandre_Almeida23!@outlook.com</t>
+          <t>Diego_Pessoa$37%@icloud.com</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>zVXbOK!#UVVR</t>
+          <t>8STKGM%JCeeK</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>21/04/1973</t>
+          <t>29/06/2005</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -6102,37 +6518,42 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Superior completo</t>
+          <t>Priscila Pessoa</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Empregador: Com CNPJ</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>(51) 3258-2813</t>
+          <t>Empregado: Setor público (CLT)</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>(51) 95596-3015</t>
+          <t>(43) 3328-1084</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>553.601.230-44</t>
+          <t>(43) 90049-7430</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>459076739</t>
+          <t>141.367.740-10</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>750057060</t>
         </is>
       </c>
     </row>
@@ -6142,25 +6563,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Elias Vinícius Alves Correia</t>
+          <t>Luciano Correia</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Elias_Correia1&amp;2@brturbo.com.br</t>
+          <t>Luciano_Correia7#1@yahoo.com</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>x@ctZriWODiK</t>
+          <t>_CeE=yQX3V_#</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>28/09/1977</t>
+          <t>07/02/2017</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -6175,32 +6596,37 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Roberta Correia</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>(35) 5599-5738</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>(35) 93043-4999</t>
+          <t>(89) 4961-4670</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>923.525.180-08</t>
+          <t>(89) 92216-7666</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>783041583</t>
+          <t>600.572.640-40</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>422054225</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6636,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Camila Lopes Moraes</t>
+          <t>Anderson Moraes Castro</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -6218,57 +6644,62 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Camila_Moraes98$@hotmail.com</t>
+          <t>Anderson_Castro2%#8@gmail.com</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>-XKfr=CxsI3p</t>
+          <t>liM*S+gDIeC=</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>28/05/2008</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
+          <t>Elaine Castro</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>Fora da força de trabalho</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>(94) 8531-5074</t>
-        </is>
-      </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>(94) 92982-8151</t>
+          <t>(87) 9194-3349</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>971.119.910-60</t>
+          <t>(87) 92759-5732</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>096151959</t>
+          <t>464.077.500-83</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>687120850</t>
         </is>
       </c>
     </row>
@@ -6278,25 +6709,25 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Mariana Silva Costa</t>
+          <t>Renata Santos Oliveira</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Mariana_Costa024@gmail.com</t>
+          <t>Renata_Oliveira!73@terra.com.br</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>sBh@1njfJby)</t>
+          <t>saYt5yNDitfs</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>25/04/1991</t>
+          <t>11/12/2016</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -6306,37 +6737,42 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Priscila Oliveira</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Autônomo: Com CNPJ</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>(68) 2256-8993</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>(68) 91762-8646</t>
+          <t>(68) 6638-9400</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>896.613.740-74</t>
+          <t>(68) 91304-1330</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>179468310</t>
+          <t>087.271.910-36</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>781343615</t>
         </is>
       </c>
     </row>
@@ -6346,65 +6782,70 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Guilherme Vieira Nascimento</t>
+          <t>Jessica Silva</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Guilherme_Nascimento3@terra.com.br</t>
+          <t>Jessica_Silva#@yahoo.com</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ObIoC0=E$Qx0</t>
+          <t>mK-S(cS21t62</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>30/01/1984</t>
+          <t>13/06/2021</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Luiza Silva</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Empregado: Setor privado (CLT)</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>(86) 5021-1873</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>(86) 91714-7511</t>
+          <t>(79) 0057-2164</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>427.759.060-87</t>
+          <t>(79) 97859-7447</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>561602026</t>
+          <t>122.490.470-22</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>959761064</t>
         </is>
       </c>
     </row>
@@ -6414,25 +6855,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Brenda Pires Castro</t>
+          <t>Isabela Andrade</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Brenda_Castro@r7.com</t>
+          <t>Isabela_Andrade55!!@zipmail.com.br</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>PX3wEKoT&amp;=B2</t>
+          <t>90t8NoT&amp;QzsX</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>21/09/2007</t>
+          <t>01/07/1999</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -6442,37 +6883,42 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
+          <t>Rafaela Andrade</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>(54) 8379-7683</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>(54) 90682-1812</t>
+          <t>(62) 6508-0029</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>569.986.040-17</t>
+          <t>(62) 96965-3695</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>939097150</t>
+          <t>525.625.200-33</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>293093812</t>
         </is>
       </c>
     </row>
@@ -6482,65 +6928,70 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Luis Silveira Ribeira</t>
+          <t>Camila Natália Pires Machado Cavalcanti Pinto</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Luis_Ribeira82@gmail.com</t>
+          <t>Camila_Pinto1#82@gmail.com</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2Q+ScfJmd)vh</t>
+          <t>c4Qi@o&amp;cy#mo</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>13/05/1984</t>
+          <t>10/04/2005</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Não-Binário</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Pardo(a)</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Fundamental incompleto</t>
+          <t>Natália Cavalcanti</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
+          <t>Em idade escolar.</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
           <t>Autônomo: Sem CNPJ</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>(97) 7365-6802</t>
-        </is>
-      </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>(97) 97441-6442</t>
+          <t>(66) 3044-6415</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>142.694.060-20</t>
+          <t>(66) 90997-6309</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>484564092</t>
+          <t>760.998.800-62</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>873138647</t>
         </is>
       </c>
     </row>
@@ -6550,65 +7001,70 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Patrícia Dias Costa</t>
+          <t>Márcio Carvalho</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Patrícia_Costa7@yandex.com</t>
+          <t>Márcio_Carvalho99@hotmail.com</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>k_Qibgdof&amp;Fy</t>
+          <t>!0-dxOIa44nP</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>19/03/2003</t>
+          <t>06/03/1988</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Luiza Carvalho</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Autônomo: Sem CNPJ</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>(95) 3684-3651</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>(95) 90897-2573</t>
+          <t>(66) 4708-9817</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>414.034.650-70</t>
+          <t>(66) 90190-4219</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>496450641</t>
+          <t>840.526.020-05</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>112800563</t>
         </is>
       </c>
     </row>
@@ -6618,65 +7074,70 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Thais Simone Nunes Rocha</t>
+          <t>Leandro Carvalho Nascimento</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Thais_Rocha9544@brturbo.com.br</t>
+          <t>Leandro_Nascimento677@hotmail.com</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>EzagM*K!$me1</t>
+          <t>1TPk_-1K1Vcj</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>26/12/1991</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Lorena Nascimento</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Médio completo</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>(62) 3200-9881</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>(62) 97625-6699</t>
+          <t>(99) 7027-4913</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>234.891.230-93</t>
+          <t>(99) 92247-6102</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>576917630</t>
+          <t>085.759.240-87</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>214570610</t>
         </is>
       </c>
     </row>
@@ -6686,65 +7147,70 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Amanda Lima Costa Vieira</t>
+          <t>Guilherme Gouveia Andrade</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Amanda_Vieira@gmail.com</t>
+          <t>Guilherme_Andrade881@oi.com</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>YUwhul!uO1jU</t>
+          <t>tgj-mIqBXXa-</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>18/03/2012</t>
+          <t>03/03/2001</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
+          <t>Bianca Andrade</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>(83) 1873-0540</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>(83) 91625-5999</t>
+          <t>(18) 9483-4019</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>987.052.800-79</t>
+          <t>(18) 98822-8142</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>126715607</t>
+          <t>099.741.660-20</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>940790778</t>
         </is>
       </c>
     </row>
@@ -6754,65 +7220,70 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tatiane Cavalcanti Pinto</t>
+          <t>Gilberto Moraes Araújo</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Tatiane_Pinto3@outlook.com</t>
+          <t>Gilberto_Araújo3@yahoo.com</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>vm7f#G8=p62$</t>
+          <t>Zi0h=2&amp;nD2Rx</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>05/07/2001</t>
+          <t>26/04/2006</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
+          <t>Cristina Araújo</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Desocupado</t>
-        </is>
-      </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>(34) 6895-5610</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>(34) 90293-5351</t>
+          <t>(49) 8910-8914</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>146.591.390-42</t>
+          <t>(49) 97514-2457</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>653421671</t>
+          <t>862.303.790-15</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>520637899</t>
         </is>
       </c>
     </row>
@@ -6822,65 +7293,70 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mariana Melo</t>
+          <t>Sérgio Pessoa</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Mariana_Melo8#@hotmail.com</t>
+          <t>Sérgio_Pessoa60#%@icloud.com</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ivZiXE6xdQ%c</t>
+          <t>JxQ+iUMoqc@1</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>29/11/2004</t>
+          <t>23/01/2005</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
+          <t>Mônica Pessoa</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Empregado: Setor privado (CLT)</t>
-        </is>
-      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>(92) 1846-5693</t>
+          <t>Autônomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>(92) 99699-1019</t>
+          <t>(66) 1380-0423</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>846.334.270-16</t>
+          <t>(66) 98825-6893</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>227634625</t>
+          <t>841.181.720-20</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>013684502</t>
         </is>
       </c>
     </row>
@@ -6890,65 +7366,70 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Jessica Campos Silva</t>
+          <t>Caio Santos Araújo</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jessica_Silva580@hotmail.com</t>
+          <t>Caio_Araújo%!@live.com</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>DPQf_=nf+hrg</t>
+          <t>wwU-N99O8jv!</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>25/05/1988</t>
+          <t>16/06/1972</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Branco</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Larissa Araújo</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Desocupado</t>
+          <t>Médio incompleto</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>(33) 8746-6841</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>(33) 99279-1832</t>
+          <t>(16) 8405-8143</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>135.114.210-04</t>
+          <t>(16) 90498-3355</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>009516267</t>
+          <t>641.543.840-90</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>094156815</t>
         </is>
       </c>
     </row>
@@ -6958,25 +7439,25 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Diego Pinto</t>
+          <t>Ronaldo Rocha</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Diego_Pinto8$!8@gmail.com</t>
+          <t>Ronaldo_Rocha&amp;@gmail.com</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>xDoTVzNy#SI7</t>
+          <t>BD3=)sMI5-^b</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>29/06/1996</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6991,32 +7472,37 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Médio completo</t>
+          <t>Patrícia Rocha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Autônomo: Com CNPJ</t>
+          <t>Em idade escolar.</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>(65) 1409-5319</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>(65) 95183-8269</t>
+          <t>(82) 5496-1610</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>110.564.650-50</t>
+          <t>(82) 94418-3555</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>886624599</t>
+          <t>272.098.150-82</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>526807041</t>
         </is>
       </c>
     </row>
@@ -7026,25 +7512,25 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Simone Mariana Ribeiro</t>
+          <t>Cecília Monteiro Machado</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Simone_Ribeiro16#@gmail.com</t>
+          <t>Cecília_Machado6@yahoo.com</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>E=jSVKpn%Fn%</t>
+          <t>j-*uSWDQWMaX</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>04/03/1999</t>
+          <t>10/10/2014</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -7054,37 +7540,42 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Parda</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
+          <t>Valéria Machado</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Empregado: Setor privado (CLT)</t>
-        </is>
-      </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>(91) 2907-8798</t>
+          <t>Fora da força de trabalho</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>(91) 98860-8436</t>
+          <t>(22) 9362-4924</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>344.992.140-17</t>
+          <t>(22) 91001-1240</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>153494853</t>
+          <t>182.632.070-96</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>009281641</t>
         </is>
       </c>
     </row>
@@ -7094,65 +7585,70 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sueli Carvalho Lopes</t>
+          <t>Raul Rodrigues</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Sueli_Lopes15@hotmail.com</t>
+          <t>Raul_Rodrigues&amp;9@terra.com.br</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ME&amp;3pN5Uu)sE</t>
+          <t>rpx*#MbH@(=1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>12/09/2015</t>
+          <t>01/12/2004</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Pardo</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
+          <t>Ana Rodrigues</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Fora da força de trabalho</t>
-        </is>
-      </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>(83) 6007-4851</t>
+          <t>Autônomo: Sem CNPJ</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>(83) 98721-5968</t>
+          <t>(68) 6931-7868</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>895.661.630-29</t>
+          <t>(68) 97142-3753</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>683287687</t>
+          <t>045.932.530-20</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>755916309</t>
         </is>
       </c>
     </row>
@@ -7162,65 +7658,70 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Felipe Santana Ribeira</t>
+          <t>Lorena Andrade Correia</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Felipe_Ribeira0#9@zipmail.com.br</t>
+          <t>Lorena_Correia&amp;%$1@hotmail.com</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>LS&amp;-q^5x+^b)</t>
+          <t>i5nId%g!CdFv</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>03/05/2001</t>
+          <t>10/04/2000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
+          <t>Lorena Correia</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
           <t>Em idade escolar.</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Empregado: Setor público (sem CLT)</t>
-        </is>
-      </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>(44) 9030-4906</t>
+          <t>Empregado: Setor privado (sem CLT)</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>(44) 93694-6072</t>
+          <t>(93) 5415-6785</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>658.058.070-41</t>
+          <t>(93) 95918-0889</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>533165046</t>
+          <t>085.754.270-24</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>616808740</t>
         </is>
       </c>
     </row>
@@ -7230,25 +7731,25 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Jéssica Cardoso Ribeira</t>
+          <t>Roberta Nascimento Pereira</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Jéssica_Ribeira682@hotmail.com</t>
+          <t>Roberta_Pereira10@outlook.com</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>KTzvNd4g0a0+</t>
+          <t>1zA+D@klO2nM</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>25/08/2012</t>
+          <t>22/08/1982</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -7258,37 +7759,42 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Parda</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Em idade escolar.</t>
+          <t>Luiza Pereira</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Fora da força de trabalho</t>
+          <t>Fundamental completo</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>(44) 7902-2597</t>
+          <t>Empregado: Setor privado (CLT)</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>(44) 95156-0439</t>
+          <t>(31) 2549-3039</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>491.942.580-58</t>
+          <t>(31) 95669-0272</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>834772408</t>
+          <t>838.074.100-58</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>017554770</t>
         </is>
       </c>
     </row>
